--- a/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Agent.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Agent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="824" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="824" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="01.Login" sheetId="19" r:id="rId1"/>
@@ -2688,15 +2688,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2713,6 +2705,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2741,15 +2763,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2829,32 +2842,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2874,14 +2869,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2901,10 +2905,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3804,14 +3804,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -3848,12 +3848,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="226"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -3890,12 +3890,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="226"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3925,19 +3925,19 @@
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
-      <c r="AK3" s="294"/>
-      <c r="AL3" s="294"/>
-      <c r="AM3" s="294"/>
-      <c r="AN3" s="294"/>
+      <c r="AK3" s="230"/>
+      <c r="AL3" s="230"/>
+      <c r="AM3" s="230"/>
+      <c r="AN3" s="230"/>
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="229"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="231"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="229"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -4070,7 +4070,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="295" t="s">
+      <c r="N7" s="223" t="s">
         <v>362</v>
       </c>
       <c r="AD7" s="8"/>
@@ -4184,24 +4184,24 @@
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="276" t="s">
+      <c r="N10" s="231" t="s">
         <v>363</v>
       </c>
-      <c r="O10" s="277"/>
-      <c r="P10" s="277"/>
-      <c r="Q10" s="277"/>
-      <c r="R10" s="277"/>
-      <c r="S10" s="277"/>
-      <c r="T10" s="277"/>
-      <c r="U10" s="277"/>
-      <c r="V10" s="277"/>
-      <c r="W10" s="277"/>
-      <c r="X10" s="277"/>
-      <c r="Y10" s="277"/>
-      <c r="Z10" s="277"/>
-      <c r="AA10" s="277"/>
-      <c r="AB10" s="277"/>
-      <c r="AC10" s="278"/>
+      <c r="O10" s="232"/>
+      <c r="P10" s="232"/>
+      <c r="Q10" s="232"/>
+      <c r="R10" s="232"/>
+      <c r="S10" s="232"/>
+      <c r="T10" s="232"/>
+      <c r="U10" s="232"/>
+      <c r="V10" s="232"/>
+      <c r="W10" s="232"/>
+      <c r="X10" s="232"/>
+      <c r="Y10" s="232"/>
+      <c r="Z10" s="232"/>
+      <c r="AA10" s="232"/>
+      <c r="AB10" s="232"/>
+      <c r="AC10" s="233"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
@@ -4298,24 +4298,24 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="276" t="s">
+      <c r="N13" s="231" t="s">
         <v>364</v>
       </c>
-      <c r="O13" s="277"/>
-      <c r="P13" s="277"/>
-      <c r="Q13" s="277"/>
-      <c r="R13" s="277"/>
-      <c r="S13" s="277"/>
-      <c r="T13" s="277"/>
-      <c r="U13" s="277"/>
-      <c r="V13" s="277"/>
-      <c r="W13" s="277"/>
-      <c r="X13" s="277"/>
-      <c r="Y13" s="277"/>
-      <c r="Z13" s="277"/>
-      <c r="AA13" s="277"/>
-      <c r="AB13" s="277"/>
-      <c r="AC13" s="278"/>
+      <c r="O13" s="232"/>
+      <c r="P13" s="232"/>
+      <c r="Q13" s="232"/>
+      <c r="R13" s="232"/>
+      <c r="S13" s="232"/>
+      <c r="T13" s="232"/>
+      <c r="U13" s="232"/>
+      <c r="V13" s="232"/>
+      <c r="W13" s="232"/>
+      <c r="X13" s="232"/>
+      <c r="Y13" s="232"/>
+      <c r="Z13" s="232"/>
+      <c r="AA13" s="232"/>
+      <c r="AB13" s="232"/>
+      <c r="AC13" s="233"/>
       <c r="AD13" s="31"/>
       <c r="AE13" s="31"/>
       <c r="AF13" s="31"/>
@@ -4867,15 +4867,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="243"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="236"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -5486,14 +5486,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -5531,12 +5531,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="226"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -5575,12 +5575,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="226"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -5617,12 +5617,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="226"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>174</v>
@@ -5849,15 +5849,15 @@
       <c r="P9" s="203" t="s">
         <v>276</v>
       </c>
-      <c r="Q9" s="276" t="s">
+      <c r="Q9" s="231" t="s">
         <v>191</v>
       </c>
-      <c r="R9" s="277"/>
-      <c r="S9" s="277"/>
-      <c r="T9" s="277"/>
-      <c r="U9" s="277"/>
-      <c r="V9" s="277"/>
-      <c r="W9" s="278"/>
+      <c r="R9" s="232"/>
+      <c r="S9" s="232"/>
+      <c r="T9" s="232"/>
+      <c r="U9" s="232"/>
+      <c r="V9" s="232"/>
+      <c r="W9" s="233"/>
       <c r="X9" s="120" t="s">
         <v>277</v>
       </c>
@@ -5870,15 +5870,15 @@
       <c r="AE9" s="31"/>
       <c r="AF9" s="31"/>
       <c r="AG9" s="31"/>
-      <c r="AH9" s="262" t="s">
+      <c r="AH9" s="267" t="s">
         <v>192</v>
       </c>
-      <c r="AI9" s="263"/>
-      <c r="AJ9" s="263"/>
-      <c r="AK9" s="263"/>
-      <c r="AL9" s="263"/>
-      <c r="AM9" s="263"/>
-      <c r="AN9" s="264"/>
+      <c r="AI9" s="268"/>
+      <c r="AJ9" s="268"/>
+      <c r="AK9" s="268"/>
+      <c r="AL9" s="268"/>
+      <c r="AM9" s="268"/>
+      <c r="AN9" s="269"/>
       <c r="AO9" s="12"/>
     </row>
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5901,15 +5901,15 @@
       <c r="P10" s="203" t="s">
         <v>193</v>
       </c>
-      <c r="Q10" s="276" t="s">
+      <c r="Q10" s="231" t="s">
         <v>194</v>
       </c>
-      <c r="R10" s="277"/>
-      <c r="S10" s="277"/>
-      <c r="T10" s="277"/>
-      <c r="U10" s="277"/>
-      <c r="V10" s="277"/>
-      <c r="W10" s="278"/>
+      <c r="R10" s="232"/>
+      <c r="S10" s="232"/>
+      <c r="T10" s="232"/>
+      <c r="U10" s="232"/>
+      <c r="V10" s="232"/>
+      <c r="W10" s="233"/>
       <c r="X10" s="209" t="s">
         <v>277</v>
       </c>
@@ -5922,13 +5922,13 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
       <c r="AG10" s="31"/>
-      <c r="AH10" s="265"/>
-      <c r="AI10" s="261"/>
-      <c r="AJ10" s="261"/>
-      <c r="AK10" s="261"/>
-      <c r="AL10" s="261"/>
-      <c r="AM10" s="261"/>
-      <c r="AN10" s="266"/>
+      <c r="AH10" s="270"/>
+      <c r="AI10" s="266"/>
+      <c r="AJ10" s="266"/>
+      <c r="AK10" s="266"/>
+      <c r="AL10" s="266"/>
+      <c r="AM10" s="266"/>
+      <c r="AN10" s="271"/>
       <c r="AO10" s="12"/>
     </row>
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5951,13 +5951,13 @@
       <c r="P11" s="203" t="s">
         <v>221</v>
       </c>
-      <c r="Q11" s="276"/>
-      <c r="R11" s="277"/>
-      <c r="S11" s="277"/>
-      <c r="T11" s="277"/>
-      <c r="U11" s="277"/>
-      <c r="V11" s="277"/>
-      <c r="W11" s="278"/>
+      <c r="Q11" s="231"/>
+      <c r="R11" s="232"/>
+      <c r="S11" s="232"/>
+      <c r="T11" s="232"/>
+      <c r="U11" s="232"/>
+      <c r="V11" s="232"/>
+      <c r="W11" s="233"/>
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
@@ -5968,13 +5968,13 @@
       <c r="AE11" s="31"/>
       <c r="AF11" s="31"/>
       <c r="AG11" s="31"/>
-      <c r="AH11" s="265"/>
-      <c r="AI11" s="261"/>
-      <c r="AJ11" s="261"/>
-      <c r="AK11" s="261"/>
-      <c r="AL11" s="261"/>
-      <c r="AM11" s="261"/>
-      <c r="AN11" s="266"/>
+      <c r="AH11" s="270"/>
+      <c r="AI11" s="266"/>
+      <c r="AJ11" s="266"/>
+      <c r="AK11" s="266"/>
+      <c r="AL11" s="266"/>
+      <c r="AM11" s="266"/>
+      <c r="AN11" s="271"/>
       <c r="AO11" s="12"/>
     </row>
     <row r="12" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5995,15 +5995,15 @@
       <c r="P12" s="203" t="s">
         <v>222</v>
       </c>
-      <c r="Q12" s="285" t="s">
+      <c r="Q12" s="275" t="s">
         <v>223</v>
       </c>
-      <c r="R12" s="286"/>
-      <c r="S12" s="286"/>
-      <c r="T12" s="286"/>
-      <c r="U12" s="286"/>
-      <c r="V12" s="286"/>
-      <c r="W12" s="287"/>
+      <c r="R12" s="276"/>
+      <c r="S12" s="276"/>
+      <c r="T12" s="276"/>
+      <c r="U12" s="276"/>
+      <c r="V12" s="276"/>
+      <c r="W12" s="277"/>
       <c r="X12" s="209" t="s">
         <v>277</v>
       </c>
@@ -6016,13 +6016,13 @@
       <c r="AE12" s="31"/>
       <c r="AF12" s="31"/>
       <c r="AG12" s="31"/>
-      <c r="AH12" s="265"/>
-      <c r="AI12" s="261"/>
-      <c r="AJ12" s="261"/>
-      <c r="AK12" s="261"/>
-      <c r="AL12" s="261"/>
-      <c r="AM12" s="261"/>
-      <c r="AN12" s="266"/>
+      <c r="AH12" s="270"/>
+      <c r="AI12" s="266"/>
+      <c r="AJ12" s="266"/>
+      <c r="AK12" s="266"/>
+      <c r="AL12" s="266"/>
+      <c r="AM12" s="266"/>
+      <c r="AN12" s="271"/>
       <c r="AO12" s="12"/>
     </row>
     <row r="13" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6043,15 +6043,15 @@
       <c r="P13" s="203" t="s">
         <v>195</v>
       </c>
-      <c r="Q13" s="276" t="s">
+      <c r="Q13" s="231" t="s">
         <v>196</v>
       </c>
-      <c r="R13" s="277"/>
-      <c r="S13" s="277"/>
-      <c r="T13" s="277"/>
-      <c r="U13" s="277"/>
-      <c r="V13" s="277"/>
-      <c r="W13" s="278"/>
+      <c r="R13" s="232"/>
+      <c r="S13" s="232"/>
+      <c r="T13" s="232"/>
+      <c r="U13" s="232"/>
+      <c r="V13" s="232"/>
+      <c r="W13" s="233"/>
       <c r="X13" s="209" t="s">
         <v>277</v>
       </c>
@@ -6064,13 +6064,13 @@
       <c r="AE13" s="31"/>
       <c r="AF13" s="31"/>
       <c r="AG13" s="31"/>
-      <c r="AH13" s="265"/>
-      <c r="AI13" s="261"/>
-      <c r="AJ13" s="261"/>
-      <c r="AK13" s="261"/>
-      <c r="AL13" s="261"/>
-      <c r="AM13" s="261"/>
-      <c r="AN13" s="266"/>
+      <c r="AH13" s="270"/>
+      <c r="AI13" s="266"/>
+      <c r="AJ13" s="266"/>
+      <c r="AK13" s="266"/>
+      <c r="AL13" s="266"/>
+      <c r="AM13" s="266"/>
+      <c r="AN13" s="271"/>
       <c r="AO13" s="12"/>
     </row>
     <row r="14" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6091,13 +6091,13 @@
       <c r="P14" s="203" t="s">
         <v>224</v>
       </c>
-      <c r="Q14" s="285"/>
-      <c r="R14" s="286"/>
-      <c r="S14" s="286"/>
-      <c r="T14" s="286"/>
-      <c r="U14" s="286"/>
-      <c r="V14" s="286"/>
-      <c r="W14" s="287"/>
+      <c r="Q14" s="275"/>
+      <c r="R14" s="276"/>
+      <c r="S14" s="276"/>
+      <c r="T14" s="276"/>
+      <c r="U14" s="276"/>
+      <c r="V14" s="276"/>
+      <c r="W14" s="277"/>
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
@@ -6108,13 +6108,13 @@
       <c r="AE14" s="31"/>
       <c r="AF14" s="31"/>
       <c r="AG14" s="31"/>
-      <c r="AH14" s="265"/>
-      <c r="AI14" s="261"/>
-      <c r="AJ14" s="261"/>
-      <c r="AK14" s="261"/>
-      <c r="AL14" s="261"/>
-      <c r="AM14" s="261"/>
-      <c r="AN14" s="266"/>
+      <c r="AH14" s="270"/>
+      <c r="AI14" s="266"/>
+      <c r="AJ14" s="266"/>
+      <c r="AK14" s="266"/>
+      <c r="AL14" s="266"/>
+      <c r="AM14" s="266"/>
+      <c r="AN14" s="271"/>
       <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6135,15 +6135,15 @@
       <c r="P15" s="203" t="s">
         <v>197</v>
       </c>
-      <c r="Q15" s="279" t="s">
+      <c r="Q15" s="278" t="s">
         <v>198</v>
       </c>
-      <c r="R15" s="280"/>
-      <c r="S15" s="280"/>
-      <c r="T15" s="280"/>
-      <c r="U15" s="280"/>
-      <c r="V15" s="280"/>
-      <c r="W15" s="281"/>
+      <c r="R15" s="279"/>
+      <c r="S15" s="279"/>
+      <c r="T15" s="279"/>
+      <c r="U15" s="279"/>
+      <c r="V15" s="279"/>
+      <c r="W15" s="280"/>
       <c r="X15" s="209" t="s">
         <v>277</v>
       </c>
@@ -6156,13 +6156,13 @@
       <c r="AE15" s="31"/>
       <c r="AF15" s="31"/>
       <c r="AG15" s="31"/>
-      <c r="AH15" s="267"/>
-      <c r="AI15" s="268"/>
-      <c r="AJ15" s="268"/>
-      <c r="AK15" s="268"/>
-      <c r="AL15" s="268"/>
-      <c r="AM15" s="268"/>
-      <c r="AN15" s="269"/>
+      <c r="AH15" s="272"/>
+      <c r="AI15" s="273"/>
+      <c r="AJ15" s="273"/>
+      <c r="AK15" s="273"/>
+      <c r="AL15" s="273"/>
+      <c r="AM15" s="273"/>
+      <c r="AN15" s="274"/>
       <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6217,14 +6217,14 @@
       <c r="Q17" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="R17" s="276">
+      <c r="R17" s="231">
         <v>912210727</v>
       </c>
-      <c r="S17" s="277"/>
-      <c r="T17" s="277"/>
-      <c r="U17" s="277"/>
-      <c r="V17" s="277"/>
-      <c r="W17" s="278"/>
+      <c r="S17" s="232"/>
+      <c r="T17" s="232"/>
+      <c r="U17" s="232"/>
+      <c r="V17" s="232"/>
+      <c r="W17" s="233"/>
       <c r="X17" s="209" t="s">
         <v>277</v>
       </c>
@@ -6306,15 +6306,15 @@
       <c r="P19" s="203" t="s">
         <v>202</v>
       </c>
-      <c r="Q19" s="279" t="s">
+      <c r="Q19" s="278" t="s">
         <v>203</v>
       </c>
-      <c r="R19" s="280"/>
-      <c r="S19" s="280"/>
-      <c r="T19" s="280"/>
-      <c r="U19" s="280"/>
-      <c r="V19" s="280"/>
-      <c r="W19" s="281"/>
+      <c r="R19" s="279"/>
+      <c r="S19" s="279"/>
+      <c r="T19" s="279"/>
+      <c r="U19" s="279"/>
+      <c r="V19" s="279"/>
+      <c r="W19" s="280"/>
       <c r="X19" s="209" t="s">
         <v>277</v>
       </c>
@@ -6424,15 +6424,15 @@
     </row>
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
-      <c r="C22" s="251" t="s">
+      <c r="C22" s="256" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="251"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="251"/>
-      <c r="G22" s="251"/>
-      <c r="H22" s="251"/>
-      <c r="I22" s="251"/>
+      <c r="D22" s="256"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="256"/>
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63" t="s">
@@ -6470,15 +6470,15 @@
     </row>
     <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="252" t="s">
+      <c r="C23" s="257" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="252"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="252"/>
-      <c r="G23" s="252"/>
-      <c r="H23" s="252"/>
-      <c r="I23" s="252"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="257"/>
+      <c r="F23" s="257"/>
+      <c r="G23" s="257"/>
+      <c r="H23" s="257"/>
+      <c r="I23" s="257"/>
       <c r="J23" s="87"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -6518,15 +6518,15 @@
     </row>
     <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="252" t="s">
+      <c r="C24" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="253"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="253"/>
+      <c r="D24" s="258"/>
+      <c r="E24" s="258"/>
+      <c r="F24" s="258"/>
+      <c r="G24" s="258"/>
+      <c r="H24" s="258"/>
+      <c r="I24" s="258"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -6584,15 +6584,15 @@
       <c r="P25" s="203" t="s">
         <v>210</v>
       </c>
-      <c r="Q25" s="282" t="s">
+      <c r="Q25" s="281" t="s">
         <v>211</v>
       </c>
-      <c r="R25" s="283"/>
-      <c r="S25" s="283"/>
-      <c r="T25" s="283"/>
-      <c r="U25" s="283"/>
-      <c r="V25" s="283"/>
-      <c r="W25" s="284"/>
+      <c r="R25" s="282"/>
+      <c r="S25" s="282"/>
+      <c r="T25" s="282"/>
+      <c r="U25" s="282"/>
+      <c r="V25" s="282"/>
+      <c r="W25" s="283"/>
       <c r="X25" s="209" t="s">
         <v>277</v>
       </c>
@@ -6632,15 +6632,15 @@
       <c r="P26" s="197" t="s">
         <v>222</v>
       </c>
-      <c r="Q26" s="270" t="s">
+      <c r="Q26" s="284" t="s">
         <v>225</v>
       </c>
-      <c r="R26" s="271"/>
-      <c r="S26" s="271"/>
-      <c r="T26" s="271"/>
-      <c r="U26" s="271"/>
-      <c r="V26" s="271"/>
-      <c r="W26" s="272"/>
+      <c r="R26" s="285"/>
+      <c r="S26" s="285"/>
+      <c r="T26" s="285"/>
+      <c r="U26" s="285"/>
+      <c r="V26" s="285"/>
+      <c r="W26" s="286"/>
       <c r="X26" s="31" t="s">
         <v>226</v>
       </c>
@@ -6726,13 +6726,13 @@
         <v>213</v>
       </c>
       <c r="R28" s="31"/>
-      <c r="S28" s="273">
+      <c r="S28" s="287">
         <v>912210727</v>
       </c>
-      <c r="T28" s="274"/>
-      <c r="U28" s="274"/>
-      <c r="V28" s="274"/>
-      <c r="W28" s="275"/>
+      <c r="T28" s="288"/>
+      <c r="U28" s="288"/>
+      <c r="V28" s="288"/>
+      <c r="W28" s="289"/>
       <c r="X28" s="209" t="s">
         <v>277</v>
       </c>
@@ -6772,15 +6772,15 @@
       <c r="P29" s="203" t="s">
         <v>214</v>
       </c>
-      <c r="Q29" s="276" t="s">
+      <c r="Q29" s="231" t="s">
         <v>215</v>
       </c>
-      <c r="R29" s="277"/>
-      <c r="S29" s="277"/>
-      <c r="T29" s="277"/>
-      <c r="U29" s="277"/>
-      <c r="V29" s="277"/>
-      <c r="W29" s="278"/>
+      <c r="R29" s="232"/>
+      <c r="S29" s="232"/>
+      <c r="T29" s="232"/>
+      <c r="U29" s="232"/>
+      <c r="V29" s="232"/>
+      <c r="W29" s="233"/>
       <c r="X29" s="31" t="s">
         <v>226</v>
       </c>
@@ -7690,6 +7690,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="Q29:W29"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="Q9:W9"/>
     <mergeCell ref="AH9:AN15"/>
     <mergeCell ref="Q10:W10"/>
     <mergeCell ref="Q11:W11"/>
@@ -7697,17 +7708,6 @@
     <mergeCell ref="Q13:W13"/>
     <mergeCell ref="Q14:W14"/>
     <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="B1:G4"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="Q19:W19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
@@ -7751,15 +7751,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="243"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="236"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -8374,14 +8374,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -8419,12 +8419,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="226"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -8463,12 +8463,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="226"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -8505,12 +8505,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="226"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>237</v>
@@ -8706,13 +8706,13 @@
       <c r="P8" s="203" t="s">
         <v>233</v>
       </c>
-      <c r="Q8" s="276"/>
-      <c r="R8" s="277"/>
-      <c r="S8" s="277"/>
-      <c r="T8" s="277"/>
-      <c r="U8" s="277"/>
-      <c r="V8" s="277"/>
-      <c r="W8" s="278"/>
+      <c r="Q8" s="231"/>
+      <c r="R8" s="232"/>
+      <c r="S8" s="232"/>
+      <c r="T8" s="232"/>
+      <c r="U8" s="232"/>
+      <c r="V8" s="232"/>
+      <c r="W8" s="233"/>
       <c r="X8" s="120" t="s">
         <v>277</v>
       </c>
@@ -8782,13 +8782,13 @@
       <c r="P10" s="203" t="s">
         <v>234</v>
       </c>
-      <c r="Q10" s="276"/>
-      <c r="R10" s="277"/>
-      <c r="S10" s="277"/>
-      <c r="T10" s="277"/>
-      <c r="U10" s="277"/>
-      <c r="V10" s="277"/>
-      <c r="W10" s="278"/>
+      <c r="Q10" s="231"/>
+      <c r="R10" s="232"/>
+      <c r="S10" s="232"/>
+      <c r="T10" s="232"/>
+      <c r="U10" s="232"/>
+      <c r="V10" s="232"/>
+      <c r="W10" s="233"/>
       <c r="X10" s="120" t="s">
         <v>277</v>
       </c>
@@ -8862,13 +8862,13 @@
       <c r="P12" s="203" t="s">
         <v>235</v>
       </c>
-      <c r="Q12" s="276"/>
-      <c r="R12" s="277"/>
-      <c r="S12" s="277"/>
-      <c r="T12" s="277"/>
-      <c r="U12" s="277"/>
-      <c r="V12" s="277"/>
-      <c r="W12" s="278"/>
+      <c r="Q12" s="231"/>
+      <c r="R12" s="232"/>
+      <c r="S12" s="232"/>
+      <c r="T12" s="232"/>
+      <c r="U12" s="232"/>
+      <c r="V12" s="232"/>
+      <c r="W12" s="233"/>
       <c r="X12" s="120" t="s">
         <v>277</v>
       </c>
@@ -8906,13 +8906,13 @@
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
       <c r="P13" s="203"/>
-      <c r="Q13" s="253"/>
-      <c r="R13" s="253"/>
-      <c r="S13" s="253"/>
-      <c r="T13" s="253"/>
-      <c r="U13" s="253"/>
-      <c r="V13" s="253"/>
-      <c r="W13" s="253"/>
+      <c r="Q13" s="258"/>
+      <c r="R13" s="258"/>
+      <c r="S13" s="258"/>
+      <c r="T13" s="258"/>
+      <c r="U13" s="258"/>
+      <c r="V13" s="258"/>
+      <c r="W13" s="258"/>
       <c r="X13" s="31"/>
       <c r="Y13" s="31"/>
       <c r="Z13" s="31"/>
@@ -8948,13 +8948,13 @@
       <c r="N14" s="31"/>
       <c r="O14" s="31"/>
       <c r="P14" s="203"/>
-      <c r="Q14" s="261"/>
-      <c r="R14" s="261"/>
-      <c r="S14" s="261"/>
-      <c r="T14" s="261"/>
-      <c r="U14" s="261"/>
-      <c r="V14" s="261"/>
-      <c r="W14" s="261"/>
+      <c r="Q14" s="266"/>
+      <c r="R14" s="266"/>
+      <c r="S14" s="266"/>
+      <c r="T14" s="266"/>
+      <c r="U14" s="266"/>
+      <c r="V14" s="266"/>
+      <c r="W14" s="266"/>
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
@@ -8990,13 +8990,13 @@
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="203"/>
-      <c r="Q15" s="290"/>
-      <c r="R15" s="290"/>
-      <c r="S15" s="290"/>
-      <c r="T15" s="290"/>
-      <c r="U15" s="290"/>
-      <c r="V15" s="290"/>
-      <c r="W15" s="290"/>
+      <c r="Q15" s="292"/>
+      <c r="R15" s="292"/>
+      <c r="S15" s="292"/>
+      <c r="T15" s="292"/>
+      <c r="U15" s="292"/>
+      <c r="V15" s="292"/>
+      <c r="W15" s="292"/>
       <c r="X15" s="36"/>
       <c r="Y15" s="36"/>
       <c r="Z15" s="36"/>
@@ -9069,12 +9069,12 @@
       <c r="O17" s="31"/>
       <c r="P17" s="203"/>
       <c r="Q17" s="96"/>
-      <c r="R17" s="253"/>
-      <c r="S17" s="253"/>
-      <c r="T17" s="253"/>
-      <c r="U17" s="253"/>
-      <c r="V17" s="253"/>
-      <c r="W17" s="253"/>
+      <c r="R17" s="258"/>
+      <c r="S17" s="258"/>
+      <c r="T17" s="258"/>
+      <c r="U17" s="258"/>
+      <c r="V17" s="258"/>
+      <c r="W17" s="258"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
       <c r="Z17" s="31"/>
@@ -9152,13 +9152,13 @@
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="203"/>
-      <c r="Q19" s="290"/>
-      <c r="R19" s="290"/>
-      <c r="S19" s="290"/>
-      <c r="T19" s="290"/>
-      <c r="U19" s="290"/>
-      <c r="V19" s="290"/>
-      <c r="W19" s="290"/>
+      <c r="Q19" s="292"/>
+      <c r="R19" s="292"/>
+      <c r="S19" s="292"/>
+      <c r="T19" s="292"/>
+      <c r="U19" s="292"/>
+      <c r="V19" s="292"/>
+      <c r="W19" s="292"/>
       <c r="X19" s="31"/>
       <c r="Y19" s="31"/>
       <c r="Z19" s="31"/>
@@ -9264,15 +9264,15 @@
     </row>
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
-      <c r="C22" s="251" t="s">
+      <c r="C22" s="256" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="251"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="251"/>
-      <c r="G22" s="251"/>
-      <c r="H22" s="251"/>
-      <c r="I22" s="251"/>
+      <c r="D22" s="256"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="256"/>
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63"/>
@@ -9308,15 +9308,15 @@
     </row>
     <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="252" t="s">
+      <c r="C23" s="257" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="252"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="252"/>
-      <c r="G23" s="252"/>
-      <c r="H23" s="252"/>
-      <c r="I23" s="252"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="257"/>
+      <c r="F23" s="257"/>
+      <c r="G23" s="257"/>
+      <c r="H23" s="257"/>
+      <c r="I23" s="257"/>
       <c r="J23" s="87"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -9352,15 +9352,15 @@
     </row>
     <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="252" t="s">
+      <c r="C24" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="253"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="253"/>
+      <c r="D24" s="258"/>
+      <c r="E24" s="258"/>
+      <c r="F24" s="258"/>
+      <c r="G24" s="258"/>
+      <c r="H24" s="258"/>
+      <c r="I24" s="258"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -9412,13 +9412,13 @@
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
       <c r="P25" s="203"/>
-      <c r="Q25" s="288"/>
-      <c r="R25" s="288"/>
-      <c r="S25" s="288"/>
-      <c r="T25" s="288"/>
-      <c r="U25" s="288"/>
-      <c r="V25" s="288"/>
-      <c r="W25" s="288"/>
+      <c r="Q25" s="290"/>
+      <c r="R25" s="290"/>
+      <c r="S25" s="290"/>
+      <c r="T25" s="290"/>
+      <c r="U25" s="290"/>
+      <c r="V25" s="290"/>
+      <c r="W25" s="290"/>
       <c r="X25" s="31"/>
       <c r="Y25" s="31"/>
       <c r="Z25" s="31"/>
@@ -9456,13 +9456,13 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="208"/>
-      <c r="Q26" s="289"/>
-      <c r="R26" s="289"/>
-      <c r="S26" s="289"/>
-      <c r="T26" s="289"/>
-      <c r="U26" s="289"/>
-      <c r="V26" s="289"/>
-      <c r="W26" s="289"/>
+      <c r="Q26" s="291"/>
+      <c r="R26" s="291"/>
+      <c r="S26" s="291"/>
+      <c r="T26" s="291"/>
+      <c r="U26" s="291"/>
+      <c r="V26" s="291"/>
+      <c r="W26" s="291"/>
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
@@ -9542,11 +9542,11 @@
       <c r="P28" s="203"/>
       <c r="Q28" s="31"/>
       <c r="R28" s="31"/>
-      <c r="S28" s="253"/>
-      <c r="T28" s="253"/>
-      <c r="U28" s="253"/>
-      <c r="V28" s="253"/>
-      <c r="W28" s="253"/>
+      <c r="S28" s="258"/>
+      <c r="T28" s="258"/>
+      <c r="U28" s="258"/>
+      <c r="V28" s="258"/>
+      <c r="W28" s="258"/>
       <c r="X28" s="31"/>
       <c r="Y28" s="31"/>
       <c r="Z28" s="31"/>
@@ -9582,13 +9582,13 @@
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
       <c r="P29" s="203"/>
-      <c r="Q29" s="253"/>
-      <c r="R29" s="253"/>
-      <c r="S29" s="253"/>
-      <c r="T29" s="253"/>
-      <c r="U29" s="253"/>
-      <c r="V29" s="253"/>
-      <c r="W29" s="253"/>
+      <c r="Q29" s="258"/>
+      <c r="R29" s="258"/>
+      <c r="S29" s="258"/>
+      <c r="T29" s="258"/>
+      <c r="U29" s="258"/>
+      <c r="V29" s="258"/>
+      <c r="W29" s="258"/>
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
       <c r="Z29" s="31"/>
@@ -10486,6 +10486,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="Q29:W29"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="Q19:W19"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="C24:I24"/>
@@ -10495,13 +10502,6 @@
     <mergeCell ref="Q12:W12"/>
     <mergeCell ref="Q13:W13"/>
     <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="Q19:W19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" location="'04.ContactInfo'!A1" display="Thông Tin Liên Hệ"/>
@@ -10537,15 +10537,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="243"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="236"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -10983,14 +10983,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -11028,12 +11028,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="226"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -11072,12 +11072,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="226"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -11114,12 +11114,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="226"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>52</v>
@@ -11316,19 +11316,19 @@
         <v>299</v>
       </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="258">
+      <c r="N8" s="263">
         <v>7</v>
       </c>
-      <c r="O8" s="259"/>
-      <c r="P8" s="260"/>
+      <c r="O8" s="264"/>
+      <c r="P8" s="265"/>
       <c r="S8" s="197" t="s">
         <v>298</v>
       </c>
-      <c r="T8" s="255">
+      <c r="T8" s="260">
         <v>2015</v>
       </c>
-      <c r="U8" s="256"/>
-      <c r="V8" s="257"/>
+      <c r="U8" s="261"/>
+      <c r="V8" s="262"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
@@ -11616,11 +11616,11 @@
       <c r="Z18" s="31"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
-      <c r="AC18" s="291">
+      <c r="AC18" s="293">
         <v>20000</v>
       </c>
-      <c r="AD18" s="291"/>
-      <c r="AE18" s="291"/>
+      <c r="AD18" s="293"/>
+      <c r="AE18" s="293"/>
       <c r="AF18" s="31"/>
       <c r="AG18" s="31"/>
       <c r="AH18" s="31"/>
@@ -11708,12 +11708,12 @@
       <c r="Z20" s="216"/>
       <c r="AA20" s="216"/>
       <c r="AB20" s="216"/>
-      <c r="AC20" s="292">
+      <c r="AC20" s="294">
         <f>SUM(AC18:AE19)</f>
         <v>20000</v>
       </c>
-      <c r="AD20" s="292"/>
-      <c r="AE20" s="292"/>
+      <c r="AD20" s="294"/>
+      <c r="AE20" s="294"/>
       <c r="AF20" s="216"/>
       <c r="AG20" s="216"/>
       <c r="AH20" s="216"/>
@@ -11773,15 +11773,15 @@
     </row>
     <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
-      <c r="C22" s="251" t="s">
+      <c r="C22" s="256" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="251"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="251"/>
-      <c r="G22" s="251"/>
-      <c r="H22" s="251"/>
-      <c r="I22" s="251"/>
+      <c r="D22" s="256"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="256"/>
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63" t="s">
@@ -11821,15 +11821,15 @@
     </row>
     <row r="23" spans="2:48" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="252" t="s">
+      <c r="C23" s="257" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="252"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="252"/>
-      <c r="G23" s="252"/>
-      <c r="H23" s="252"/>
-      <c r="I23" s="252"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="257"/>
+      <c r="F23" s="257"/>
+      <c r="G23" s="257"/>
+      <c r="H23" s="257"/>
+      <c r="I23" s="257"/>
       <c r="J23" s="87"/>
       <c r="K23" s="31"/>
       <c r="L23" s="90" t="s">
@@ -11877,15 +11877,15 @@
     </row>
     <row r="24" spans="2:48" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="252" t="s">
+      <c r="C24" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="253"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="253"/>
+      <c r="D24" s="258"/>
+      <c r="E24" s="258"/>
+      <c r="F24" s="258"/>
+      <c r="G24" s="258"/>
+      <c r="H24" s="258"/>
+      <c r="I24" s="258"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="95">
@@ -11904,12 +11904,12 @@
       </c>
       <c r="Y24" s="36"/>
       <c r="Z24" s="31"/>
-      <c r="AA24" s="291">
+      <c r="AA24" s="293">
         <v>2000</v>
       </c>
-      <c r="AB24" s="291"/>
-      <c r="AC24" s="291"/>
-      <c r="AD24" s="291"/>
+      <c r="AB24" s="293"/>
+      <c r="AC24" s="293"/>
+      <c r="AD24" s="293"/>
       <c r="AE24" s="31"/>
       <c r="AF24" s="31"/>
       <c r="AG24" s="31"/>
@@ -11957,12 +11957,12 @@
       </c>
       <c r="Y25" s="31"/>
       <c r="Z25" s="31"/>
-      <c r="AA25" s="291">
+      <c r="AA25" s="293">
         <v>3000</v>
       </c>
-      <c r="AB25" s="291"/>
-      <c r="AC25" s="291"/>
-      <c r="AD25" s="291"/>
+      <c r="AB25" s="293"/>
+      <c r="AC25" s="293"/>
+      <c r="AD25" s="293"/>
       <c r="AE25" s="31"/>
       <c r="AF25" s="31"/>
       <c r="AG25" s="31"/>
@@ -12007,12 +12007,12 @@
       <c r="X26" s="220"/>
       <c r="Y26" s="216"/>
       <c r="Z26" s="216"/>
-      <c r="AA26" s="293">
+      <c r="AA26" s="295">
         <v>5000</v>
       </c>
-      <c r="AB26" s="293"/>
-      <c r="AC26" s="293"/>
-      <c r="AD26" s="293"/>
+      <c r="AB26" s="295"/>
+      <c r="AC26" s="295"/>
+      <c r="AD26" s="295"/>
       <c r="AE26" s="216"/>
       <c r="AF26" s="216"/>
       <c r="AG26" s="216"/>
@@ -12741,17 +12741,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="AA26:AD26"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="T8:V8"/>
     <mergeCell ref="B1:G4"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C23:I23"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="AA25:AD25"/>
-    <mergeCell ref="AA26:AD26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
@@ -12793,15 +12793,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="243"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="236"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -13341,7 +13341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -13360,15 +13360,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="243"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="236"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -13764,7 +13764,7 @@
   <dimension ref="B1:BJ48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J3"/>
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13773,43 +13773,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="223" t="s">
+      <c r="B1" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="223" t="s">
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="224"/>
-      <c r="AB1" s="224"/>
-      <c r="AC1" s="224"/>
-      <c r="AD1" s="224"/>
-      <c r="AE1" s="224"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="224"/>
-      <c r="AH1" s="225"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="238"/>
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="238"/>
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="238"/>
+      <c r="AG1" s="238"/>
+      <c r="AH1" s="239"/>
       <c r="AI1" s="20" t="s">
         <v>5</v>
       </c>
@@ -13842,39 +13842,39 @@
       <c r="BJ1" s="19"/>
     </row>
     <row r="2" spans="2:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="227"/>
-      <c r="M2" s="227"/>
-      <c r="N2" s="227"/>
-      <c r="O2" s="227"/>
-      <c r="P2" s="227"/>
-      <c r="Q2" s="227"/>
-      <c r="R2" s="227"/>
-      <c r="S2" s="227"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="227"/>
-      <c r="AB2" s="227"/>
-      <c r="AC2" s="227"/>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="227"/>
-      <c r="AG2" s="227"/>
-      <c r="AH2" s="228"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="225"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="225"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="225"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="225"/>
+      <c r="AC2" s="225"/>
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="225"/>
+      <c r="AF2" s="225"/>
+      <c r="AG2" s="225"/>
+      <c r="AH2" s="226"/>
       <c r="AI2" s="23" t="s">
         <v>3</v>
       </c>
@@ -13907,39 +13907,39 @@
       <c r="BJ2" s="19"/>
     </row>
     <row r="3" spans="2:62" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="229"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="230"/>
-      <c r="O3" s="230"/>
-      <c r="P3" s="230"/>
-      <c r="Q3" s="230"/>
-      <c r="R3" s="230"/>
-      <c r="S3" s="230"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="230"/>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="230"/>
-      <c r="AB3" s="230"/>
-      <c r="AC3" s="230"/>
-      <c r="AD3" s="230"/>
-      <c r="AE3" s="230"/>
-      <c r="AF3" s="230"/>
-      <c r="AG3" s="230"/>
-      <c r="AH3" s="231"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
+      <c r="N3" s="228"/>
+      <c r="O3" s="228"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="228"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="228"/>
+      <c r="AD3" s="228"/>
+      <c r="AE3" s="228"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="228"/>
+      <c r="AH3" s="229"/>
       <c r="AI3" s="25"/>
       <c r="AJ3" s="26"/>
       <c r="AK3" s="26"/>
@@ -13971,11 +13971,11 @@
       <c r="H4" s="76"/>
       <c r="I4" s="76"/>
       <c r="J4" s="77"/>
-      <c r="K4" s="232"/>
-      <c r="L4" s="233"/>
-      <c r="M4" s="233"/>
-      <c r="N4" s="233"/>
-      <c r="O4" s="234"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="242"/>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
@@ -14109,18 +14109,18 @@
       <c r="R7" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="S7" s="235"/>
-      <c r="T7" s="236"/>
-      <c r="U7" s="236"/>
-      <c r="V7" s="236"/>
-      <c r="W7" s="236"/>
-      <c r="X7" s="236"/>
-      <c r="Y7" s="236"/>
-      <c r="Z7" s="236"/>
-      <c r="AA7" s="236"/>
-      <c r="AB7" s="236"/>
-      <c r="AC7" s="236"/>
-      <c r="AD7" s="237"/>
+      <c r="S7" s="243"/>
+      <c r="T7" s="244"/>
+      <c r="U7" s="244"/>
+      <c r="V7" s="244"/>
+      <c r="W7" s="244"/>
+      <c r="X7" s="244"/>
+      <c r="Y7" s="244"/>
+      <c r="Z7" s="244"/>
+      <c r="AA7" s="244"/>
+      <c r="AB7" s="244"/>
+      <c r="AC7" s="244"/>
+      <c r="AD7" s="245"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
@@ -14152,25 +14152,25 @@
       <c r="R8" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="S8" s="235"/>
-      <c r="T8" s="236"/>
-      <c r="U8" s="236"/>
-      <c r="V8" s="236"/>
-      <c r="W8" s="236"/>
-      <c r="X8" s="236"/>
-      <c r="Y8" s="236"/>
-      <c r="Z8" s="236"/>
-      <c r="AA8" s="236"/>
-      <c r="AB8" s="236"/>
-      <c r="AC8" s="236"/>
-      <c r="AD8" s="237"/>
+      <c r="S8" s="243"/>
+      <c r="T8" s="244"/>
+      <c r="U8" s="244"/>
+      <c r="V8" s="244"/>
+      <c r="W8" s="244"/>
+      <c r="X8" s="244"/>
+      <c r="Y8" s="244"/>
+      <c r="Z8" s="244"/>
+      <c r="AA8" s="244"/>
+      <c r="AB8" s="244"/>
+      <c r="AC8" s="244"/>
+      <c r="AD8" s="245"/>
       <c r="AE8" s="7"/>
-      <c r="AF8" s="238" t="s">
+      <c r="AF8" s="246" t="s">
         <v>37</v>
       </c>
-      <c r="AG8" s="239"/>
-      <c r="AH8" s="239"/>
-      <c r="AI8" s="240"/>
+      <c r="AG8" s="247"/>
+      <c r="AH8" s="247"/>
+      <c r="AI8" s="248"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
@@ -15223,15 +15223,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="243"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="236"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -15734,17 +15734,17 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="246"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="251"/>
       <c r="K3" s="33" t="s">
         <v>6</v>
       </c>
@@ -15929,20 +15929,20 @@
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="247" t="s">
+      <c r="C15" s="252" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="248"/>
+      <c r="D15" s="253"/>
       <c r="E15" s="186"/>
-      <c r="F15" s="249" t="s">
+      <c r="F15" s="254" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="250"/>
+      <c r="G15" s="255"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="247" t="s">
+      <c r="I15" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="248"/>
+      <c r="J15" s="253"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16165,15 +16165,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="243"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="236"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -16691,8 +16691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16705,14 +16705,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -16750,12 +16750,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="226"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -16796,12 +16796,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="226"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -16838,12 +16838,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="226"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>174</v>
@@ -16984,36 +16984,36 @@
       <c r="I7" s="8"/>
       <c r="J7" s="86"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="254" t="s">
+      <c r="L7" s="259" t="s">
         <v>169</v>
       </c>
-      <c r="M7" s="254"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="254"/>
-      <c r="P7" s="254"/>
-      <c r="Q7" s="254"/>
-      <c r="R7" s="254"/>
-      <c r="S7" s="254"/>
-      <c r="T7" s="254"/>
-      <c r="U7" s="254"/>
-      <c r="V7" s="254"/>
-      <c r="W7" s="254"/>
-      <c r="X7" s="254"/>
-      <c r="Y7" s="254"/>
-      <c r="Z7" s="254"/>
-      <c r="AA7" s="254"/>
-      <c r="AB7" s="254"/>
-      <c r="AC7" s="254"/>
-      <c r="AD7" s="254"/>
-      <c r="AE7" s="254"/>
-      <c r="AF7" s="254"/>
-      <c r="AG7" s="254"/>
-      <c r="AH7" s="254"/>
-      <c r="AI7" s="254"/>
-      <c r="AJ7" s="254"/>
-      <c r="AK7" s="254"/>
-      <c r="AL7" s="254"/>
-      <c r="AM7" s="254"/>
+      <c r="M7" s="259"/>
+      <c r="N7" s="259"/>
+      <c r="O7" s="259"/>
+      <c r="P7" s="259"/>
+      <c r="Q7" s="259"/>
+      <c r="R7" s="259"/>
+      <c r="S7" s="259"/>
+      <c r="T7" s="259"/>
+      <c r="U7" s="259"/>
+      <c r="V7" s="259"/>
+      <c r="W7" s="259"/>
+      <c r="X7" s="259"/>
+      <c r="Y7" s="259"/>
+      <c r="Z7" s="259"/>
+      <c r="AA7" s="259"/>
+      <c r="AB7" s="259"/>
+      <c r="AC7" s="259"/>
+      <c r="AD7" s="259"/>
+      <c r="AE7" s="259"/>
+      <c r="AF7" s="259"/>
+      <c r="AG7" s="259"/>
+      <c r="AH7" s="259"/>
+      <c r="AI7" s="259"/>
+      <c r="AJ7" s="259"/>
+      <c r="AK7" s="259"/>
+      <c r="AL7" s="259"/>
+      <c r="AM7" s="259"/>
       <c r="AN7" s="8"/>
       <c r="AO7" s="12"/>
     </row>
@@ -17035,23 +17035,23 @@
       <c r="N8" s="197" t="s">
         <v>167</v>
       </c>
-      <c r="O8" s="255"/>
-      <c r="P8" s="256"/>
-      <c r="Q8" s="256"/>
-      <c r="R8" s="256"/>
-      <c r="S8" s="256"/>
-      <c r="T8" s="256"/>
-      <c r="U8" s="256"/>
-      <c r="V8" s="256"/>
-      <c r="W8" s="256"/>
-      <c r="X8" s="256"/>
-      <c r="Y8" s="256"/>
-      <c r="Z8" s="256"/>
-      <c r="AA8" s="256"/>
-      <c r="AB8" s="256"/>
-      <c r="AC8" s="256"/>
-      <c r="AD8" s="256"/>
-      <c r="AE8" s="257"/>
+      <c r="O8" s="260"/>
+      <c r="P8" s="261"/>
+      <c r="Q8" s="261"/>
+      <c r="R8" s="261"/>
+      <c r="S8" s="261"/>
+      <c r="T8" s="261"/>
+      <c r="U8" s="261"/>
+      <c r="V8" s="261"/>
+      <c r="W8" s="261"/>
+      <c r="X8" s="261"/>
+      <c r="Y8" s="261"/>
+      <c r="Z8" s="261"/>
+      <c r="AA8" s="261"/>
+      <c r="AB8" s="261"/>
+      <c r="AC8" s="261"/>
+      <c r="AD8" s="261"/>
+      <c r="AE8" s="262"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
@@ -17106,21 +17106,21 @@
       <c r="N10" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="255"/>
-      <c r="P10" s="256"/>
-      <c r="Q10" s="256"/>
-      <c r="R10" s="256"/>
-      <c r="S10" s="257"/>
+      <c r="O10" s="260"/>
+      <c r="P10" s="261"/>
+      <c r="Q10" s="261"/>
+      <c r="R10" s="261"/>
+      <c r="S10" s="262"/>
       <c r="X10" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="255"/>
-      <c r="Z10" s="256"/>
-      <c r="AA10" s="256"/>
-      <c r="AB10" s="256"/>
-      <c r="AC10" s="256"/>
-      <c r="AD10" s="256"/>
-      <c r="AE10" s="257"/>
+      <c r="Y10" s="260"/>
+      <c r="Z10" s="261"/>
+      <c r="AA10" s="261"/>
+      <c r="AB10" s="261"/>
+      <c r="AC10" s="261"/>
+      <c r="AD10" s="261"/>
+      <c r="AE10" s="262"/>
       <c r="AN10" s="8"/>
       <c r="AO10" s="12"/>
     </row>
@@ -17155,11 +17155,11 @@
         <v>56</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="258">
+      <c r="N12" s="263">
         <v>10</v>
       </c>
-      <c r="O12" s="259"/>
-      <c r="P12" s="260"/>
+      <c r="O12" s="264"/>
+      <c r="P12" s="265"/>
       <c r="Q12" s="78" t="s">
         <v>186</v>
       </c>
@@ -17652,15 +17652,15 @@
     </row>
     <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="251" t="s">
+      <c r="C23" s="256" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="251"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="251"/>
-      <c r="G23" s="251"/>
-      <c r="H23" s="251"/>
-      <c r="I23" s="251"/>
+      <c r="D23" s="256"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="256"/>
       <c r="J23" s="104"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -17696,15 +17696,15 @@
     </row>
     <row r="24" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="252" t="s">
+      <c r="C24" s="257" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="252"/>
-      <c r="E24" s="252"/>
-      <c r="F24" s="252"/>
-      <c r="G24" s="252"/>
-      <c r="H24" s="252"/>
-      <c r="I24" s="252"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="257"/>
+      <c r="F24" s="257"/>
+      <c r="G24" s="257"/>
+      <c r="H24" s="257"/>
+      <c r="I24" s="257"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -17740,15 +17740,15 @@
     </row>
     <row r="25" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="74"/>
-      <c r="C25" s="252" t="s">
+      <c r="C25" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="253"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="253"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="253"/>
+      <c r="D25" s="258"/>
+      <c r="E25" s="258"/>
+      <c r="F25" s="258"/>
+      <c r="G25" s="258"/>
+      <c r="H25" s="258"/>
+      <c r="I25" s="258"/>
       <c r="J25" s="87"/>
       <c r="K25" s="31"/>
       <c r="L25" s="31"/>
@@ -18629,15 +18629,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="243"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="236"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -19172,14 +19172,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -19217,12 +19217,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="226"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -19261,12 +19261,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="226"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -19303,12 +19303,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="226"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>174</v>
@@ -19554,15 +19554,15 @@
       <c r="AE9" s="31"/>
       <c r="AF9" s="31"/>
       <c r="AG9" s="31"/>
-      <c r="AH9" s="262" t="s">
+      <c r="AH9" s="267" t="s">
         <v>192</v>
       </c>
-      <c r="AI9" s="263"/>
-      <c r="AJ9" s="263"/>
-      <c r="AK9" s="263"/>
-      <c r="AL9" s="263"/>
-      <c r="AM9" s="263"/>
-      <c r="AN9" s="264"/>
+      <c r="AI9" s="268"/>
+      <c r="AJ9" s="268"/>
+      <c r="AK9" s="268"/>
+      <c r="AL9" s="268"/>
+      <c r="AM9" s="268"/>
+      <c r="AN9" s="269"/>
       <c r="AO9" s="12"/>
     </row>
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19604,13 +19604,13 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
       <c r="AG10" s="31"/>
-      <c r="AH10" s="265"/>
-      <c r="AI10" s="261"/>
-      <c r="AJ10" s="261"/>
-      <c r="AK10" s="261"/>
-      <c r="AL10" s="261"/>
-      <c r="AM10" s="261"/>
-      <c r="AN10" s="266"/>
+      <c r="AH10" s="270"/>
+      <c r="AI10" s="266"/>
+      <c r="AJ10" s="266"/>
+      <c r="AK10" s="266"/>
+      <c r="AL10" s="266"/>
+      <c r="AM10" s="266"/>
+      <c r="AN10" s="271"/>
       <c r="AO10" s="12"/>
     </row>
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19652,13 +19652,13 @@
       <c r="AE11" s="31"/>
       <c r="AF11" s="31"/>
       <c r="AG11" s="31"/>
-      <c r="AH11" s="265"/>
-      <c r="AI11" s="261"/>
-      <c r="AJ11" s="261"/>
-      <c r="AK11" s="261"/>
-      <c r="AL11" s="261"/>
-      <c r="AM11" s="261"/>
-      <c r="AN11" s="266"/>
+      <c r="AH11" s="270"/>
+      <c r="AI11" s="266"/>
+      <c r="AJ11" s="266"/>
+      <c r="AK11" s="266"/>
+      <c r="AL11" s="266"/>
+      <c r="AM11" s="266"/>
+      <c r="AN11" s="271"/>
       <c r="AO11" s="12"/>
     </row>
     <row r="12" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19694,13 +19694,13 @@
       <c r="AE12" s="31"/>
       <c r="AF12" s="31"/>
       <c r="AG12" s="31"/>
-      <c r="AH12" s="265"/>
-      <c r="AI12" s="261"/>
-      <c r="AJ12" s="261"/>
-      <c r="AK12" s="261"/>
-      <c r="AL12" s="261"/>
-      <c r="AM12" s="261"/>
-      <c r="AN12" s="266"/>
+      <c r="AH12" s="270"/>
+      <c r="AI12" s="266"/>
+      <c r="AJ12" s="266"/>
+      <c r="AK12" s="266"/>
+      <c r="AL12" s="266"/>
+      <c r="AM12" s="266"/>
+      <c r="AN12" s="271"/>
       <c r="AO12" s="12"/>
     </row>
     <row r="13" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19740,13 +19740,13 @@
       <c r="AE13" s="31"/>
       <c r="AF13" s="31"/>
       <c r="AG13" s="31"/>
-      <c r="AH13" s="265"/>
-      <c r="AI13" s="261"/>
-      <c r="AJ13" s="261"/>
-      <c r="AK13" s="261"/>
-      <c r="AL13" s="261"/>
-      <c r="AM13" s="261"/>
-      <c r="AN13" s="266"/>
+      <c r="AH13" s="270"/>
+      <c r="AI13" s="266"/>
+      <c r="AJ13" s="266"/>
+      <c r="AK13" s="266"/>
+      <c r="AL13" s="266"/>
+      <c r="AM13" s="266"/>
+      <c r="AN13" s="271"/>
       <c r="AO13" s="12"/>
     </row>
     <row r="14" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19782,13 +19782,13 @@
       <c r="AE14" s="31"/>
       <c r="AF14" s="31"/>
       <c r="AG14" s="31"/>
-      <c r="AH14" s="265"/>
-      <c r="AI14" s="261"/>
-      <c r="AJ14" s="261"/>
-      <c r="AK14" s="261"/>
-      <c r="AL14" s="261"/>
-      <c r="AM14" s="261"/>
-      <c r="AN14" s="266"/>
+      <c r="AH14" s="270"/>
+      <c r="AI14" s="266"/>
+      <c r="AJ14" s="266"/>
+      <c r="AK14" s="266"/>
+      <c r="AL14" s="266"/>
+      <c r="AM14" s="266"/>
+      <c r="AN14" s="271"/>
       <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19828,13 +19828,13 @@
       <c r="AE15" s="31"/>
       <c r="AF15" s="31"/>
       <c r="AG15" s="31"/>
-      <c r="AH15" s="267"/>
-      <c r="AI15" s="268"/>
-      <c r="AJ15" s="268"/>
-      <c r="AK15" s="268"/>
-      <c r="AL15" s="268"/>
-      <c r="AM15" s="268"/>
-      <c r="AN15" s="269"/>
+      <c r="AH15" s="272"/>
+      <c r="AI15" s="273"/>
+      <c r="AJ15" s="273"/>
+      <c r="AK15" s="273"/>
+      <c r="AL15" s="273"/>
+      <c r="AM15" s="273"/>
+      <c r="AN15" s="274"/>
       <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19890,11 +19890,11 @@
         <v>201</v>
       </c>
       <c r="R17" s="31"/>
-      <c r="S17" s="261">
+      <c r="S17" s="266">
         <v>912210727</v>
       </c>
-      <c r="T17" s="261"/>
-      <c r="U17" s="261"/>
+      <c r="T17" s="266"/>
+      <c r="U17" s="266"/>
       <c r="V17" s="31"/>
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
@@ -20092,15 +20092,15 @@
     </row>
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
-      <c r="C22" s="251" t="s">
+      <c r="C22" s="256" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="251"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="251"/>
-      <c r="G22" s="251"/>
-      <c r="H22" s="251"/>
-      <c r="I22" s="251"/>
+      <c r="D22" s="256"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="256"/>
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63" t="s">
@@ -20138,15 +20138,15 @@
     </row>
     <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="252" t="s">
+      <c r="C23" s="257" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="252"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="252"/>
-      <c r="G23" s="252"/>
-      <c r="H23" s="252"/>
-      <c r="I23" s="252"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="257"/>
+      <c r="F23" s="257"/>
+      <c r="G23" s="257"/>
+      <c r="H23" s="257"/>
+      <c r="I23" s="257"/>
       <c r="J23" s="87"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -20186,15 +20186,15 @@
     </row>
     <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="252" t="s">
+      <c r="C24" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="253"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="253"/>
+      <c r="D24" s="258"/>
+      <c r="E24" s="258"/>
+      <c r="F24" s="258"/>
+      <c r="G24" s="258"/>
+      <c r="H24" s="258"/>
+      <c r="I24" s="258"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -20303,11 +20303,11 @@
         <v>213</v>
       </c>
       <c r="R26" s="31"/>
-      <c r="S26" s="261">
+      <c r="S26" s="266">
         <v>912210727</v>
       </c>
-      <c r="T26" s="261"/>
-      <c r="U26" s="261"/>
+      <c r="T26" s="266"/>
+      <c r="U26" s="266"/>
       <c r="V26" s="31"/>
       <c r="W26" s="31"/>
       <c r="X26" s="31"/>

--- a/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Agent.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Agent.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="456">
   <si>
     <t>Logo</t>
   </si>
@@ -2008,6 +2008,12 @@
   </si>
   <si>
     <t>There's never been a better time to work with TaxiNet. Signing up is easy, and you'll be earning money with taxinet in no time.</t>
+  </si>
+  <si>
+    <t>Ha</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -2177,13 +2183,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2221,6 +2220,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3266,6 +3271,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3419,23 +3461,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3455,14 +3488,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3482,29 +3524,52 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3519,42 +3584,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3562,10 +3599,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3580,39 +3617,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5059,7 +5064,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5079,410 +5084,454 @@
       <c r="B1" s="148" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="302" t="s">
+      <c r="C1" s="228" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="226" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="298" t="s">
+      <c r="B3" s="226" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="298" t="s">
+      <c r="C3" s="226" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="298" t="s">
+      <c r="D3" s="226" t="s">
         <v>381</v>
       </c>
-      <c r="E3" s="298" t="s">
+      <c r="E3" s="226" t="s">
         <v>382</v>
       </c>
-      <c r="F3" s="298" t="s">
+      <c r="F3" s="226" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="344" t="s">
+      <c r="G3" s="238" t="s">
         <v>404</v>
       </c>
-      <c r="H3" s="344" t="s">
+      <c r="H3" s="238" t="s">
         <v>405</v>
       </c>
-      <c r="I3" s="344" t="s">
+      <c r="I3" s="238" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="299">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="227">
         <v>1</v>
       </c>
-      <c r="B4" s="300" t="s">
+      <c r="B4" s="240" t="s">
         <v>397</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="227" t="s">
         <v>384</v>
       </c>
-      <c r="D4" s="299" t="s">
+      <c r="D4" s="227" t="s">
         <v>368</v>
       </c>
-      <c r="E4" s="299" t="s">
+      <c r="E4" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="F4" s="299"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="345"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="H4" s="346" t="s">
+        <v>455</v>
+      </c>
       <c r="I4" s="142"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="299">
+      <c r="A5" s="227">
         <v>2</v>
       </c>
-      <c r="B5" s="301"/>
-      <c r="C5" s="299" t="s">
+      <c r="B5" s="241"/>
+      <c r="C5" s="227" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="299" t="s">
+      <c r="D5" s="227" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="299" t="s">
+      <c r="E5" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="F5" s="299"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="346"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="H5" s="239" t="s">
+        <v>455</v>
+      </c>
       <c r="I5" s="142"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="299">
+      <c r="A6" s="227">
         <v>3</v>
       </c>
-      <c r="B6" s="301"/>
-      <c r="C6" s="299" t="s">
+      <c r="B6" s="241"/>
+      <c r="C6" s="227" t="s">
         <v>386</v>
       </c>
-      <c r="D6" s="299" t="s">
+      <c r="D6" s="227" t="s">
         <v>401</v>
       </c>
-      <c r="E6" s="299" t="s">
+      <c r="E6" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="F6" s="299"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="H6" s="142" t="s">
+        <v>455</v>
+      </c>
       <c r="I6" s="142"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="299"/>
-      <c r="B7" s="301"/>
-      <c r="C7" s="299" t="s">
+      <c r="A7" s="227"/>
+      <c r="B7" s="241"/>
+      <c r="C7" s="227" t="s">
         <v>387</v>
       </c>
-      <c r="D7" s="299" t="s">
+      <c r="D7" s="227" t="s">
         <v>398</v>
       </c>
-      <c r="E7" s="299" t="s">
+      <c r="E7" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="F7" s="299"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="H7" s="142" t="s">
+        <v>455</v>
+      </c>
       <c r="I7" s="142"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="299"/>
-      <c r="B8" s="301"/>
-      <c r="C8" s="299" t="s">
+      <c r="A8" s="227"/>
+      <c r="B8" s="241"/>
+      <c r="C8" s="227" t="s">
         <v>388</v>
       </c>
-      <c r="D8" s="299" t="s">
+      <c r="D8" s="227" t="s">
         <v>400</v>
       </c>
-      <c r="E8" s="299" t="s">
+      <c r="E8" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="F8" s="299"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="H8" s="142" t="s">
+        <v>455</v>
+      </c>
       <c r="I8" s="142"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="299"/>
-      <c r="B9" s="301"/>
-      <c r="C9" s="299" t="s">
+      <c r="A9" s="227"/>
+      <c r="B9" s="241"/>
+      <c r="C9" s="227" t="s">
         <v>389</v>
       </c>
-      <c r="D9" s="299" t="s">
+      <c r="D9" s="227" t="s">
         <v>402</v>
       </c>
-      <c r="E9" s="299" t="s">
+      <c r="E9" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="F9" s="299"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="H9" s="142" t="s">
+        <v>455</v>
+      </c>
       <c r="I9" s="142" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="299"/>
-      <c r="B10" s="301"/>
-      <c r="C10" s="299" t="s">
+      <c r="A10" s="227"/>
+      <c r="B10" s="241"/>
+      <c r="C10" s="227" t="s">
         <v>390</v>
       </c>
-      <c r="D10" s="299" t="s">
+      <c r="D10" s="227" t="s">
         <v>407</v>
       </c>
-      <c r="E10" s="299" t="s">
+      <c r="E10" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="F10" s="299"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="H10" s="142" t="s">
+        <v>455</v>
+      </c>
       <c r="I10" s="142"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="299"/>
-      <c r="B11" s="301"/>
-      <c r="C11" s="299" t="s">
+      <c r="A11" s="227"/>
+      <c r="B11" s="241"/>
+      <c r="C11" s="227" t="s">
         <v>391</v>
       </c>
-      <c r="D11" s="299" t="s">
+      <c r="D11" s="227" t="s">
         <v>408</v>
       </c>
-      <c r="E11" s="299" t="s">
+      <c r="E11" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="F11" s="299"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
+      <c r="F11" s="227"/>
+      <c r="G11" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="H11" s="142" t="s">
+        <v>455</v>
+      </c>
       <c r="I11" s="142"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="299"/>
-      <c r="B12" s="301"/>
-      <c r="C12" s="299" t="s">
+      <c r="A12" s="227"/>
+      <c r="B12" s="241"/>
+      <c r="C12" s="227" t="s">
         <v>392</v>
       </c>
-      <c r="D12" s="299" t="s">
+      <c r="D12" s="227" t="s">
         <v>409</v>
       </c>
-      <c r="E12" s="299" t="s">
+      <c r="E12" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="F12" s="299"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="H12" s="142" t="s">
+        <v>455</v>
+      </c>
       <c r="I12" s="142"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="299"/>
-      <c r="B13" s="301"/>
-      <c r="C13" s="299" t="s">
+      <c r="A13" s="227"/>
+      <c r="B13" s="241"/>
+      <c r="C13" s="227" t="s">
         <v>393</v>
       </c>
-      <c r="D13" s="299" t="s">
+      <c r="D13" s="227" t="s">
         <v>411</v>
       </c>
-      <c r="E13" s="299" t="s">
+      <c r="E13" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="F13" s="299"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="H13" s="142" t="s">
+        <v>455</v>
+      </c>
       <c r="I13" s="142"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="299"/>
-      <c r="B14" s="301"/>
-      <c r="C14" s="299" t="s">
+      <c r="A14" s="227"/>
+      <c r="B14" s="241"/>
+      <c r="C14" s="227" t="s">
         <v>394</v>
       </c>
-      <c r="D14" s="299" t="s">
+      <c r="D14" s="227" t="s">
         <v>410</v>
       </c>
-      <c r="E14" s="299" t="s">
+      <c r="E14" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="F14" s="299"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
+      <c r="F14" s="227"/>
+      <c r="G14" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="H14" s="142" t="s">
+        <v>455</v>
+      </c>
       <c r="I14" s="142"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="299"/>
-      <c r="B15" s="301"/>
-      <c r="C15" s="299" t="s">
+      <c r="A15" s="227"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="227" t="s">
         <v>395</v>
       </c>
-      <c r="F15" s="299"/>
+      <c r="F15" s="227"/>
       <c r="G15" s="142"/>
       <c r="H15" s="142"/>
       <c r="I15" s="142"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="299"/>
-      <c r="B16" s="303"/>
-      <c r="C16" s="299" t="s">
+      <c r="A16" s="227"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="227" t="s">
         <v>396</v>
       </c>
-      <c r="D16" s="299"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="227"/>
+      <c r="F16" s="227"/>
       <c r="G16" s="142"/>
       <c r="H16" s="142"/>
       <c r="I16" s="142"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="299"/>
-      <c r="B17" s="299"/>
-      <c r="C17" s="299"/>
-      <c r="D17" s="299"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
+      <c r="A17" s="227"/>
+      <c r="B17" s="227"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="227"/>
+      <c r="F17" s="227"/>
       <c r="G17" s="142"/>
       <c r="H17" s="142"/>
       <c r="I17" s="142"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="299"/>
-      <c r="B18" s="299"/>
-      <c r="C18" s="299"/>
-      <c r="D18" s="299"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
+      <c r="A18" s="227"/>
+      <c r="B18" s="227"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="227"/>
+      <c r="E18" s="227"/>
+      <c r="F18" s="227"/>
       <c r="G18" s="142"/>
       <c r="H18" s="142"/>
       <c r="I18" s="142"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="299"/>
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
+      <c r="A19" s="227"/>
+      <c r="B19" s="227"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
       <c r="G19" s="142"/>
       <c r="H19" s="142"/>
       <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="299"/>
-      <c r="B20" s="299"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
+      <c r="A20" s="227"/>
+      <c r="B20" s="227"/>
+      <c r="C20" s="227"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="227"/>
+      <c r="F20" s="227"/>
       <c r="G20" s="142"/>
       <c r="H20" s="142"/>
       <c r="I20" s="142"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="299"/>
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
+      <c r="A21" s="227"/>
+      <c r="B21" s="227"/>
+      <c r="C21" s="227"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="227"/>
+      <c r="F21" s="227"/>
       <c r="G21" s="142"/>
       <c r="H21" s="142"/>
       <c r="I21" s="142"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="299"/>
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
+      <c r="A22" s="227"/>
+      <c r="B22" s="227"/>
+      <c r="C22" s="227"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="227"/>
+      <c r="F22" s="227"/>
       <c r="G22" s="142"/>
       <c r="H22" s="142"/>
       <c r="I22" s="142"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="299"/>
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
+      <c r="A23" s="227"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="227"/>
+      <c r="F23" s="227"/>
       <c r="G23" s="142"/>
       <c r="H23" s="142"/>
       <c r="I23" s="142"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="299"/>
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
+      <c r="A24" s="227"/>
+      <c r="B24" s="227"/>
+      <c r="C24" s="227"/>
+      <c r="D24" s="227"/>
+      <c r="E24" s="227"/>
+      <c r="F24" s="227"/>
       <c r="G24" s="142"/>
       <c r="H24" s="142"/>
       <c r="I24" s="142"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="299"/>
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
+      <c r="A25" s="227"/>
+      <c r="B25" s="227"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="227"/>
+      <c r="F25" s="227"/>
       <c r="G25" s="142"/>
       <c r="H25" s="142"/>
       <c r="I25" s="142"/>
     </row>
     <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="299"/>
-      <c r="B26" s="299"/>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
+      <c r="A26" s="227"/>
+      <c r="B26" s="227"/>
+      <c r="C26" s="227"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="227"/>
+      <c r="F26" s="227"/>
       <c r="G26" s="142"/>
       <c r="H26" s="142"/>
       <c r="I26" s="142"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="299"/>
-      <c r="B27" s="299"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
+      <c r="A27" s="227"/>
+      <c r="B27" s="227"/>
+      <c r="C27" s="227"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="227"/>
+      <c r="F27" s="227"/>
       <c r="G27" s="142"/>
       <c r="H27" s="142"/>
       <c r="I27" s="142"/>
     </row>
     <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="299"/>
-      <c r="B28" s="299"/>
-      <c r="C28" s="299"/>
-      <c r="D28" s="299"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="299"/>
+      <c r="A28" s="227"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="227"/>
       <c r="G28" s="142"/>
       <c r="H28" s="142"/>
       <c r="I28" s="142"/>
     </row>
     <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="299"/>
-      <c r="B29" s="299"/>
-      <c r="C29" s="299"/>
-      <c r="D29" s="299"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="299"/>
+      <c r="A29" s="227"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
+      <c r="E29" s="227"/>
+      <c r="F29" s="227"/>
       <c r="G29" s="142"/>
       <c r="H29" s="142"/>
       <c r="I29" s="142"/>
     </row>
     <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="299"/>
-      <c r="B30" s="299"/>
-      <c r="C30" s="299"/>
-      <c r="D30" s="299"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="299"/>
+      <c r="A30" s="227"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
       <c r="G30" s="142"/>
       <c r="H30" s="142"/>
       <c r="I30" s="142"/>
@@ -5492,6 +5541,7 @@
     <mergeCell ref="B4:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5513,14 +5563,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="245"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -5558,12 +5608,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="245"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -5602,12 +5652,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="245"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -5644,12 +5694,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="245"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>172</v>
@@ -5895,15 +5945,15 @@
       <c r="AE9" s="31"/>
       <c r="AF9" s="31"/>
       <c r="AG9" s="31"/>
-      <c r="AH9" s="269" t="s">
+      <c r="AH9" s="286" t="s">
         <v>190</v>
       </c>
-      <c r="AI9" s="270"/>
-      <c r="AJ9" s="270"/>
-      <c r="AK9" s="270"/>
-      <c r="AL9" s="270"/>
-      <c r="AM9" s="270"/>
-      <c r="AN9" s="271"/>
+      <c r="AI9" s="287"/>
+      <c r="AJ9" s="287"/>
+      <c r="AK9" s="287"/>
+      <c r="AL9" s="287"/>
+      <c r="AM9" s="287"/>
+      <c r="AN9" s="288"/>
       <c r="AO9" s="12"/>
     </row>
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5945,13 +5995,13 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
       <c r="AG10" s="31"/>
-      <c r="AH10" s="272"/>
-      <c r="AI10" s="268"/>
-      <c r="AJ10" s="268"/>
-      <c r="AK10" s="268"/>
-      <c r="AL10" s="268"/>
-      <c r="AM10" s="268"/>
-      <c r="AN10" s="273"/>
+      <c r="AH10" s="289"/>
+      <c r="AI10" s="285"/>
+      <c r="AJ10" s="285"/>
+      <c r="AK10" s="285"/>
+      <c r="AL10" s="285"/>
+      <c r="AM10" s="285"/>
+      <c r="AN10" s="290"/>
       <c r="AO10" s="12"/>
     </row>
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5993,13 +6043,13 @@
       <c r="AE11" s="31"/>
       <c r="AF11" s="31"/>
       <c r="AG11" s="31"/>
-      <c r="AH11" s="272"/>
-      <c r="AI11" s="268"/>
-      <c r="AJ11" s="268"/>
-      <c r="AK11" s="268"/>
-      <c r="AL11" s="268"/>
-      <c r="AM11" s="268"/>
-      <c r="AN11" s="273"/>
+      <c r="AH11" s="289"/>
+      <c r="AI11" s="285"/>
+      <c r="AJ11" s="285"/>
+      <c r="AK11" s="285"/>
+      <c r="AL11" s="285"/>
+      <c r="AM11" s="285"/>
+      <c r="AN11" s="290"/>
       <c r="AO11" s="12"/>
     </row>
     <row r="12" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6035,13 +6085,13 @@
       <c r="AE12" s="31"/>
       <c r="AF12" s="31"/>
       <c r="AG12" s="31"/>
-      <c r="AH12" s="272"/>
-      <c r="AI12" s="268"/>
-      <c r="AJ12" s="268"/>
-      <c r="AK12" s="268"/>
-      <c r="AL12" s="268"/>
-      <c r="AM12" s="268"/>
-      <c r="AN12" s="273"/>
+      <c r="AH12" s="289"/>
+      <c r="AI12" s="285"/>
+      <c r="AJ12" s="285"/>
+      <c r="AK12" s="285"/>
+      <c r="AL12" s="285"/>
+      <c r="AM12" s="285"/>
+      <c r="AN12" s="290"/>
       <c r="AO12" s="12"/>
     </row>
     <row r="13" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6081,13 +6131,13 @@
       <c r="AE13" s="31"/>
       <c r="AF13" s="31"/>
       <c r="AG13" s="31"/>
-      <c r="AH13" s="272"/>
-      <c r="AI13" s="268"/>
-      <c r="AJ13" s="268"/>
-      <c r="AK13" s="268"/>
-      <c r="AL13" s="268"/>
-      <c r="AM13" s="268"/>
-      <c r="AN13" s="273"/>
+      <c r="AH13" s="289"/>
+      <c r="AI13" s="285"/>
+      <c r="AJ13" s="285"/>
+      <c r="AK13" s="285"/>
+      <c r="AL13" s="285"/>
+      <c r="AM13" s="285"/>
+      <c r="AN13" s="290"/>
       <c r="AO13" s="12"/>
     </row>
     <row r="14" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6123,13 +6173,13 @@
       <c r="AE14" s="31"/>
       <c r="AF14" s="31"/>
       <c r="AG14" s="31"/>
-      <c r="AH14" s="272"/>
-      <c r="AI14" s="268"/>
-      <c r="AJ14" s="268"/>
-      <c r="AK14" s="268"/>
-      <c r="AL14" s="268"/>
-      <c r="AM14" s="268"/>
-      <c r="AN14" s="273"/>
+      <c r="AH14" s="289"/>
+      <c r="AI14" s="285"/>
+      <c r="AJ14" s="285"/>
+      <c r="AK14" s="285"/>
+      <c r="AL14" s="285"/>
+      <c r="AM14" s="285"/>
+      <c r="AN14" s="290"/>
       <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6169,13 +6219,13 @@
       <c r="AE15" s="31"/>
       <c r="AF15" s="31"/>
       <c r="AG15" s="31"/>
-      <c r="AH15" s="274"/>
-      <c r="AI15" s="275"/>
-      <c r="AJ15" s="275"/>
-      <c r="AK15" s="275"/>
-      <c r="AL15" s="275"/>
-      <c r="AM15" s="275"/>
-      <c r="AN15" s="276"/>
+      <c r="AH15" s="291"/>
+      <c r="AI15" s="292"/>
+      <c r="AJ15" s="292"/>
+      <c r="AK15" s="292"/>
+      <c r="AL15" s="292"/>
+      <c r="AM15" s="292"/>
+      <c r="AN15" s="293"/>
       <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6231,11 +6281,11 @@
         <v>199</v>
       </c>
       <c r="R17" s="31"/>
-      <c r="S17" s="268">
+      <c r="S17" s="285">
         <v>912210727</v>
       </c>
-      <c r="T17" s="268"/>
-      <c r="U17" s="268"/>
+      <c r="T17" s="285"/>
+      <c r="U17" s="285"/>
       <c r="V17" s="31"/>
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
@@ -6433,15 +6483,15 @@
     </row>
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
-      <c r="C22" s="258" t="s">
+      <c r="C22" s="275" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="258"/>
-      <c r="E22" s="258"/>
-      <c r="F22" s="258"/>
-      <c r="G22" s="258"/>
-      <c r="H22" s="258"/>
-      <c r="I22" s="258"/>
+      <c r="D22" s="275"/>
+      <c r="E22" s="275"/>
+      <c r="F22" s="275"/>
+      <c r="G22" s="275"/>
+      <c r="H22" s="275"/>
+      <c r="I22" s="275"/>
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63" t="s">
@@ -6479,15 +6529,15 @@
     </row>
     <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="259" t="s">
+      <c r="C23" s="276" t="s">
         <v>229</v>
       </c>
-      <c r="D23" s="259"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="259"/>
-      <c r="G23" s="259"/>
-      <c r="H23" s="259"/>
-      <c r="I23" s="259"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="276"/>
+      <c r="G23" s="276"/>
+      <c r="H23" s="276"/>
+      <c r="I23" s="276"/>
       <c r="J23" s="87"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -6527,15 +6577,15 @@
     </row>
     <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="259" t="s">
+      <c r="C24" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="260"/>
-      <c r="I24" s="260"/>
+      <c r="D24" s="277"/>
+      <c r="E24" s="277"/>
+      <c r="F24" s="277"/>
+      <c r="G24" s="277"/>
+      <c r="H24" s="277"/>
+      <c r="I24" s="277"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -6644,11 +6694,11 @@
         <v>211</v>
       </c>
       <c r="R26" s="31"/>
-      <c r="S26" s="268">
+      <c r="S26" s="285">
         <v>912210727</v>
       </c>
-      <c r="T26" s="268"/>
-      <c r="U26" s="268"/>
+      <c r="T26" s="285"/>
+      <c r="U26" s="285"/>
       <c r="V26" s="31"/>
       <c r="W26" s="31"/>
       <c r="X26" s="31"/>
@@ -7653,15 +7703,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="238"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="255"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -8272,14 +8322,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="245"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -8317,12 +8367,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="245"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -8361,12 +8411,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="245"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -8403,12 +8453,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="245"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>172</v>
@@ -8635,15 +8685,15 @@
       <c r="P9" s="203" t="s">
         <v>274</v>
       </c>
-      <c r="Q9" s="233" t="s">
+      <c r="Q9" s="250" t="s">
         <v>189</v>
       </c>
-      <c r="R9" s="234"/>
-      <c r="S9" s="234"/>
-      <c r="T9" s="234"/>
-      <c r="U9" s="234"/>
-      <c r="V9" s="234"/>
-      <c r="W9" s="235"/>
+      <c r="R9" s="251"/>
+      <c r="S9" s="251"/>
+      <c r="T9" s="251"/>
+      <c r="U9" s="251"/>
+      <c r="V9" s="251"/>
+      <c r="W9" s="252"/>
       <c r="X9" s="120" t="s">
         <v>275</v>
       </c>
@@ -8656,15 +8706,15 @@
       <c r="AE9" s="31"/>
       <c r="AF9" s="31"/>
       <c r="AG9" s="31"/>
-      <c r="AH9" s="269" t="s">
+      <c r="AH9" s="286" t="s">
         <v>190</v>
       </c>
-      <c r="AI9" s="270"/>
-      <c r="AJ9" s="270"/>
-      <c r="AK9" s="270"/>
-      <c r="AL9" s="270"/>
-      <c r="AM9" s="270"/>
-      <c r="AN9" s="271"/>
+      <c r="AI9" s="287"/>
+      <c r="AJ9" s="287"/>
+      <c r="AK9" s="287"/>
+      <c r="AL9" s="287"/>
+      <c r="AM9" s="287"/>
+      <c r="AN9" s="288"/>
       <c r="AO9" s="12"/>
     </row>
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8687,15 +8737,15 @@
       <c r="P10" s="203" t="s">
         <v>191</v>
       </c>
-      <c r="Q10" s="233" t="s">
+      <c r="Q10" s="250" t="s">
         <v>192</v>
       </c>
-      <c r="R10" s="234"/>
-      <c r="S10" s="234"/>
-      <c r="T10" s="234"/>
-      <c r="U10" s="234"/>
-      <c r="V10" s="234"/>
-      <c r="W10" s="235"/>
+      <c r="R10" s="251"/>
+      <c r="S10" s="251"/>
+      <c r="T10" s="251"/>
+      <c r="U10" s="251"/>
+      <c r="V10" s="251"/>
+      <c r="W10" s="252"/>
       <c r="X10" s="209" t="s">
         <v>275</v>
       </c>
@@ -8708,13 +8758,13 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
       <c r="AG10" s="31"/>
-      <c r="AH10" s="272"/>
-      <c r="AI10" s="268"/>
-      <c r="AJ10" s="268"/>
-      <c r="AK10" s="268"/>
-      <c r="AL10" s="268"/>
-      <c r="AM10" s="268"/>
-      <c r="AN10" s="273"/>
+      <c r="AH10" s="289"/>
+      <c r="AI10" s="285"/>
+      <c r="AJ10" s="285"/>
+      <c r="AK10" s="285"/>
+      <c r="AL10" s="285"/>
+      <c r="AM10" s="285"/>
+      <c r="AN10" s="290"/>
       <c r="AO10" s="12"/>
     </row>
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8737,13 +8787,13 @@
       <c r="P11" s="203" t="s">
         <v>219</v>
       </c>
-      <c r="Q11" s="233"/>
-      <c r="R11" s="234"/>
-      <c r="S11" s="234"/>
-      <c r="T11" s="234"/>
-      <c r="U11" s="234"/>
-      <c r="V11" s="234"/>
-      <c r="W11" s="235"/>
+      <c r="Q11" s="250"/>
+      <c r="R11" s="251"/>
+      <c r="S11" s="251"/>
+      <c r="T11" s="251"/>
+      <c r="U11" s="251"/>
+      <c r="V11" s="251"/>
+      <c r="W11" s="252"/>
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
@@ -8754,13 +8804,13 @@
       <c r="AE11" s="31"/>
       <c r="AF11" s="31"/>
       <c r="AG11" s="31"/>
-      <c r="AH11" s="272"/>
-      <c r="AI11" s="268"/>
-      <c r="AJ11" s="268"/>
-      <c r="AK11" s="268"/>
-      <c r="AL11" s="268"/>
-      <c r="AM11" s="268"/>
-      <c r="AN11" s="273"/>
+      <c r="AH11" s="289"/>
+      <c r="AI11" s="285"/>
+      <c r="AJ11" s="285"/>
+      <c r="AK11" s="285"/>
+      <c r="AL11" s="285"/>
+      <c r="AM11" s="285"/>
+      <c r="AN11" s="290"/>
       <c r="AO11" s="12"/>
     </row>
     <row r="12" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8781,15 +8831,15 @@
       <c r="P12" s="203" t="s">
         <v>220</v>
       </c>
-      <c r="Q12" s="289" t="s">
+      <c r="Q12" s="294" t="s">
         <v>221</v>
       </c>
-      <c r="R12" s="290"/>
-      <c r="S12" s="290"/>
-      <c r="T12" s="290"/>
-      <c r="U12" s="290"/>
-      <c r="V12" s="290"/>
-      <c r="W12" s="291"/>
+      <c r="R12" s="295"/>
+      <c r="S12" s="295"/>
+      <c r="T12" s="295"/>
+      <c r="U12" s="295"/>
+      <c r="V12" s="295"/>
+      <c r="W12" s="296"/>
       <c r="X12" s="209" t="s">
         <v>275</v>
       </c>
@@ -8802,13 +8852,13 @@
       <c r="AE12" s="31"/>
       <c r="AF12" s="31"/>
       <c r="AG12" s="31"/>
-      <c r="AH12" s="272"/>
-      <c r="AI12" s="268"/>
-      <c r="AJ12" s="268"/>
-      <c r="AK12" s="268"/>
-      <c r="AL12" s="268"/>
-      <c r="AM12" s="268"/>
-      <c r="AN12" s="273"/>
+      <c r="AH12" s="289"/>
+      <c r="AI12" s="285"/>
+      <c r="AJ12" s="285"/>
+      <c r="AK12" s="285"/>
+      <c r="AL12" s="285"/>
+      <c r="AM12" s="285"/>
+      <c r="AN12" s="290"/>
       <c r="AO12" s="12"/>
     </row>
     <row r="13" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8829,15 +8879,15 @@
       <c r="P13" s="203" t="s">
         <v>193</v>
       </c>
-      <c r="Q13" s="233" t="s">
+      <c r="Q13" s="250" t="s">
         <v>194</v>
       </c>
-      <c r="R13" s="234"/>
-      <c r="S13" s="234"/>
-      <c r="T13" s="234"/>
-      <c r="U13" s="234"/>
-      <c r="V13" s="234"/>
-      <c r="W13" s="235"/>
+      <c r="R13" s="251"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="251"/>
+      <c r="W13" s="252"/>
       <c r="X13" s="209" t="s">
         <v>275</v>
       </c>
@@ -8850,13 +8900,13 @@
       <c r="AE13" s="31"/>
       <c r="AF13" s="31"/>
       <c r="AG13" s="31"/>
-      <c r="AH13" s="272"/>
-      <c r="AI13" s="268"/>
-      <c r="AJ13" s="268"/>
-      <c r="AK13" s="268"/>
-      <c r="AL13" s="268"/>
-      <c r="AM13" s="268"/>
-      <c r="AN13" s="273"/>
+      <c r="AH13" s="289"/>
+      <c r="AI13" s="285"/>
+      <c r="AJ13" s="285"/>
+      <c r="AK13" s="285"/>
+      <c r="AL13" s="285"/>
+      <c r="AM13" s="285"/>
+      <c r="AN13" s="290"/>
       <c r="AO13" s="12"/>
     </row>
     <row r="14" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8877,13 +8927,13 @@
       <c r="P14" s="203" t="s">
         <v>222</v>
       </c>
-      <c r="Q14" s="289"/>
-      <c r="R14" s="290"/>
-      <c r="S14" s="290"/>
-      <c r="T14" s="290"/>
-      <c r="U14" s="290"/>
-      <c r="V14" s="290"/>
-      <c r="W14" s="291"/>
+      <c r="Q14" s="294"/>
+      <c r="R14" s="295"/>
+      <c r="S14" s="295"/>
+      <c r="T14" s="295"/>
+      <c r="U14" s="295"/>
+      <c r="V14" s="295"/>
+      <c r="W14" s="296"/>
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
@@ -8894,13 +8944,13 @@
       <c r="AE14" s="31"/>
       <c r="AF14" s="31"/>
       <c r="AG14" s="31"/>
-      <c r="AH14" s="272"/>
-      <c r="AI14" s="268"/>
-      <c r="AJ14" s="268"/>
-      <c r="AK14" s="268"/>
-      <c r="AL14" s="268"/>
-      <c r="AM14" s="268"/>
-      <c r="AN14" s="273"/>
+      <c r="AH14" s="289"/>
+      <c r="AI14" s="285"/>
+      <c r="AJ14" s="285"/>
+      <c r="AK14" s="285"/>
+      <c r="AL14" s="285"/>
+      <c r="AM14" s="285"/>
+      <c r="AN14" s="290"/>
       <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8921,15 +8971,15 @@
       <c r="P15" s="203" t="s">
         <v>195</v>
       </c>
-      <c r="Q15" s="283" t="s">
+      <c r="Q15" s="297" t="s">
         <v>196</v>
       </c>
-      <c r="R15" s="284"/>
-      <c r="S15" s="284"/>
-      <c r="T15" s="284"/>
-      <c r="U15" s="284"/>
-      <c r="V15" s="284"/>
-      <c r="W15" s="285"/>
+      <c r="R15" s="298"/>
+      <c r="S15" s="298"/>
+      <c r="T15" s="298"/>
+      <c r="U15" s="298"/>
+      <c r="V15" s="298"/>
+      <c r="W15" s="299"/>
       <c r="X15" s="209" t="s">
         <v>275</v>
       </c>
@@ -8942,13 +8992,13 @@
       <c r="AE15" s="31"/>
       <c r="AF15" s="31"/>
       <c r="AG15" s="31"/>
-      <c r="AH15" s="274"/>
-      <c r="AI15" s="275"/>
-      <c r="AJ15" s="275"/>
-      <c r="AK15" s="275"/>
-      <c r="AL15" s="275"/>
-      <c r="AM15" s="275"/>
-      <c r="AN15" s="276"/>
+      <c r="AH15" s="291"/>
+      <c r="AI15" s="292"/>
+      <c r="AJ15" s="292"/>
+      <c r="AK15" s="292"/>
+      <c r="AL15" s="292"/>
+      <c r="AM15" s="292"/>
+      <c r="AN15" s="293"/>
       <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9003,14 +9053,14 @@
       <c r="Q17" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="R17" s="233">
+      <c r="R17" s="250">
         <v>912210727</v>
       </c>
-      <c r="S17" s="234"/>
-      <c r="T17" s="234"/>
-      <c r="U17" s="234"/>
-      <c r="V17" s="234"/>
-      <c r="W17" s="235"/>
+      <c r="S17" s="251"/>
+      <c r="T17" s="251"/>
+      <c r="U17" s="251"/>
+      <c r="V17" s="251"/>
+      <c r="W17" s="252"/>
       <c r="X17" s="209" t="s">
         <v>275</v>
       </c>
@@ -9092,15 +9142,15 @@
       <c r="P19" s="203" t="s">
         <v>200</v>
       </c>
-      <c r="Q19" s="283" t="s">
+      <c r="Q19" s="297" t="s">
         <v>201</v>
       </c>
-      <c r="R19" s="284"/>
-      <c r="S19" s="284"/>
-      <c r="T19" s="284"/>
-      <c r="U19" s="284"/>
-      <c r="V19" s="284"/>
-      <c r="W19" s="285"/>
+      <c r="R19" s="298"/>
+      <c r="S19" s="298"/>
+      <c r="T19" s="298"/>
+      <c r="U19" s="298"/>
+      <c r="V19" s="298"/>
+      <c r="W19" s="299"/>
       <c r="X19" s="209" t="s">
         <v>275</v>
       </c>
@@ -9210,15 +9260,15 @@
     </row>
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
-      <c r="C22" s="258" t="s">
+      <c r="C22" s="275" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="258"/>
-      <c r="E22" s="258"/>
-      <c r="F22" s="258"/>
-      <c r="G22" s="258"/>
-      <c r="H22" s="258"/>
-      <c r="I22" s="258"/>
+      <c r="D22" s="275"/>
+      <c r="E22" s="275"/>
+      <c r="F22" s="275"/>
+      <c r="G22" s="275"/>
+      <c r="H22" s="275"/>
+      <c r="I22" s="275"/>
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63" t="s">
@@ -9256,15 +9306,15 @@
     </row>
     <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="259" t="s">
+      <c r="C23" s="276" t="s">
         <v>229</v>
       </c>
-      <c r="D23" s="259"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="259"/>
-      <c r="G23" s="259"/>
-      <c r="H23" s="259"/>
-      <c r="I23" s="259"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="276"/>
+      <c r="G23" s="276"/>
+      <c r="H23" s="276"/>
+      <c r="I23" s="276"/>
       <c r="J23" s="87"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -9304,15 +9354,15 @@
     </row>
     <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="259" t="s">
+      <c r="C24" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="260"/>
-      <c r="I24" s="260"/>
+      <c r="D24" s="277"/>
+      <c r="E24" s="277"/>
+      <c r="F24" s="277"/>
+      <c r="G24" s="277"/>
+      <c r="H24" s="277"/>
+      <c r="I24" s="277"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -9370,15 +9420,15 @@
       <c r="P25" s="203" t="s">
         <v>208</v>
       </c>
-      <c r="Q25" s="286" t="s">
+      <c r="Q25" s="300" t="s">
         <v>209</v>
       </c>
-      <c r="R25" s="287"/>
-      <c r="S25" s="287"/>
-      <c r="T25" s="287"/>
-      <c r="U25" s="287"/>
-      <c r="V25" s="287"/>
-      <c r="W25" s="288"/>
+      <c r="R25" s="301"/>
+      <c r="S25" s="301"/>
+      <c r="T25" s="301"/>
+      <c r="U25" s="301"/>
+      <c r="V25" s="301"/>
+      <c r="W25" s="302"/>
       <c r="X25" s="209" t="s">
         <v>275</v>
       </c>
@@ -9418,15 +9468,15 @@
       <c r="P26" s="197" t="s">
         <v>220</v>
       </c>
-      <c r="Q26" s="277" t="s">
+      <c r="Q26" s="303" t="s">
         <v>223</v>
       </c>
-      <c r="R26" s="278"/>
-      <c r="S26" s="278"/>
-      <c r="T26" s="278"/>
-      <c r="U26" s="278"/>
-      <c r="V26" s="278"/>
-      <c r="W26" s="279"/>
+      <c r="R26" s="304"/>
+      <c r="S26" s="304"/>
+      <c r="T26" s="304"/>
+      <c r="U26" s="304"/>
+      <c r="V26" s="304"/>
+      <c r="W26" s="305"/>
       <c r="X26" s="31" t="s">
         <v>224</v>
       </c>
@@ -9512,13 +9562,13 @@
         <v>211</v>
       </c>
       <c r="R28" s="31"/>
-      <c r="S28" s="280">
+      <c r="S28" s="306">
         <v>912210727</v>
       </c>
-      <c r="T28" s="281"/>
-      <c r="U28" s="281"/>
-      <c r="V28" s="281"/>
-      <c r="W28" s="282"/>
+      <c r="T28" s="307"/>
+      <c r="U28" s="307"/>
+      <c r="V28" s="307"/>
+      <c r="W28" s="308"/>
       <c r="X28" s="209" t="s">
         <v>275</v>
       </c>
@@ -9558,15 +9608,15 @@
       <c r="P29" s="203" t="s">
         <v>212</v>
       </c>
-      <c r="Q29" s="233" t="s">
+      <c r="Q29" s="250" t="s">
         <v>213</v>
       </c>
-      <c r="R29" s="234"/>
-      <c r="S29" s="234"/>
-      <c r="T29" s="234"/>
-      <c r="U29" s="234"/>
-      <c r="V29" s="234"/>
-      <c r="W29" s="235"/>
+      <c r="R29" s="251"/>
+      <c r="S29" s="251"/>
+      <c r="T29" s="251"/>
+      <c r="U29" s="251"/>
+      <c r="V29" s="251"/>
+      <c r="W29" s="252"/>
       <c r="X29" s="31" t="s">
         <v>224</v>
       </c>
@@ -10476,6 +10526,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="Q29:W29"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="Q9:W9"/>
     <mergeCell ref="AH9:AN15"/>
     <mergeCell ref="Q10:W10"/>
     <mergeCell ref="Q11:W11"/>
@@ -10483,17 +10544,6 @@
     <mergeCell ref="Q13:W13"/>
     <mergeCell ref="Q14:W14"/>
     <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="B1:G4"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="Q19:W19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
@@ -10537,15 +10587,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="238"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="255"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -11160,14 +11210,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="245"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -11205,12 +11255,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="245"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -11249,12 +11299,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="245"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -11291,12 +11341,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="245"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>235</v>
@@ -11492,13 +11542,13 @@
       <c r="P8" s="203" t="s">
         <v>231</v>
       </c>
-      <c r="Q8" s="233"/>
-      <c r="R8" s="234"/>
-      <c r="S8" s="234"/>
-      <c r="T8" s="234"/>
-      <c r="U8" s="234"/>
-      <c r="V8" s="234"/>
-      <c r="W8" s="235"/>
+      <c r="Q8" s="250"/>
+      <c r="R8" s="251"/>
+      <c r="S8" s="251"/>
+      <c r="T8" s="251"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="251"/>
+      <c r="W8" s="252"/>
       <c r="X8" s="120" t="s">
         <v>275</v>
       </c>
@@ -11568,13 +11618,13 @@
       <c r="P10" s="203" t="s">
         <v>232</v>
       </c>
-      <c r="Q10" s="233"/>
-      <c r="R10" s="234"/>
-      <c r="S10" s="234"/>
-      <c r="T10" s="234"/>
-      <c r="U10" s="234"/>
-      <c r="V10" s="234"/>
-      <c r="W10" s="235"/>
+      <c r="Q10" s="250"/>
+      <c r="R10" s="251"/>
+      <c r="S10" s="251"/>
+      <c r="T10" s="251"/>
+      <c r="U10" s="251"/>
+      <c r="V10" s="251"/>
+      <c r="W10" s="252"/>
       <c r="X10" s="120" t="s">
         <v>275</v>
       </c>
@@ -11648,13 +11698,13 @@
       <c r="P12" s="203" t="s">
         <v>233</v>
       </c>
-      <c r="Q12" s="233"/>
-      <c r="R12" s="234"/>
-      <c r="S12" s="234"/>
-      <c r="T12" s="234"/>
-      <c r="U12" s="234"/>
-      <c r="V12" s="234"/>
-      <c r="W12" s="235"/>
+      <c r="Q12" s="250"/>
+      <c r="R12" s="251"/>
+      <c r="S12" s="251"/>
+      <c r="T12" s="251"/>
+      <c r="U12" s="251"/>
+      <c r="V12" s="251"/>
+      <c r="W12" s="252"/>
       <c r="X12" s="120" t="s">
         <v>275</v>
       </c>
@@ -11692,13 +11742,13 @@
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
       <c r="P13" s="203"/>
-      <c r="Q13" s="260"/>
-      <c r="R13" s="260"/>
-      <c r="S13" s="260"/>
-      <c r="T13" s="260"/>
-      <c r="U13" s="260"/>
-      <c r="V13" s="260"/>
-      <c r="W13" s="260"/>
+      <c r="Q13" s="277"/>
+      <c r="R13" s="277"/>
+      <c r="S13" s="277"/>
+      <c r="T13" s="277"/>
+      <c r="U13" s="277"/>
+      <c r="V13" s="277"/>
+      <c r="W13" s="277"/>
       <c r="X13" s="31"/>
       <c r="Y13" s="31"/>
       <c r="Z13" s="31"/>
@@ -11734,13 +11784,13 @@
       <c r="N14" s="31"/>
       <c r="O14" s="31"/>
       <c r="P14" s="203"/>
-      <c r="Q14" s="268"/>
-      <c r="R14" s="268"/>
-      <c r="S14" s="268"/>
-      <c r="T14" s="268"/>
-      <c r="U14" s="268"/>
-      <c r="V14" s="268"/>
-      <c r="W14" s="268"/>
+      <c r="Q14" s="285"/>
+      <c r="R14" s="285"/>
+      <c r="S14" s="285"/>
+      <c r="T14" s="285"/>
+      <c r="U14" s="285"/>
+      <c r="V14" s="285"/>
+      <c r="W14" s="285"/>
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
@@ -11776,13 +11826,13 @@
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="203"/>
-      <c r="Q15" s="294"/>
-      <c r="R15" s="294"/>
-      <c r="S15" s="294"/>
-      <c r="T15" s="294"/>
-      <c r="U15" s="294"/>
-      <c r="V15" s="294"/>
-      <c r="W15" s="294"/>
+      <c r="Q15" s="311"/>
+      <c r="R15" s="311"/>
+      <c r="S15" s="311"/>
+      <c r="T15" s="311"/>
+      <c r="U15" s="311"/>
+      <c r="V15" s="311"/>
+      <c r="W15" s="311"/>
       <c r="X15" s="36"/>
       <c r="Y15" s="36"/>
       <c r="Z15" s="36"/>
@@ -11855,12 +11905,12 @@
       <c r="O17" s="31"/>
       <c r="P17" s="203"/>
       <c r="Q17" s="96"/>
-      <c r="R17" s="260"/>
-      <c r="S17" s="260"/>
-      <c r="T17" s="260"/>
-      <c r="U17" s="260"/>
-      <c r="V17" s="260"/>
-      <c r="W17" s="260"/>
+      <c r="R17" s="277"/>
+      <c r="S17" s="277"/>
+      <c r="T17" s="277"/>
+      <c r="U17" s="277"/>
+      <c r="V17" s="277"/>
+      <c r="W17" s="277"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
       <c r="Z17" s="31"/>
@@ -11938,13 +11988,13 @@
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="203"/>
-      <c r="Q19" s="294"/>
-      <c r="R19" s="294"/>
-      <c r="S19" s="294"/>
-      <c r="T19" s="294"/>
-      <c r="U19" s="294"/>
-      <c r="V19" s="294"/>
-      <c r="W19" s="294"/>
+      <c r="Q19" s="311"/>
+      <c r="R19" s="311"/>
+      <c r="S19" s="311"/>
+      <c r="T19" s="311"/>
+      <c r="U19" s="311"/>
+      <c r="V19" s="311"/>
+      <c r="W19" s="311"/>
       <c r="X19" s="31"/>
       <c r="Y19" s="31"/>
       <c r="Z19" s="31"/>
@@ -12050,15 +12100,15 @@
     </row>
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
-      <c r="C22" s="258" t="s">
+      <c r="C22" s="275" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="258"/>
-      <c r="E22" s="258"/>
-      <c r="F22" s="258"/>
-      <c r="G22" s="258"/>
-      <c r="H22" s="258"/>
-      <c r="I22" s="258"/>
+      <c r="D22" s="275"/>
+      <c r="E22" s="275"/>
+      <c r="F22" s="275"/>
+      <c r="G22" s="275"/>
+      <c r="H22" s="275"/>
+      <c r="I22" s="275"/>
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63"/>
@@ -12094,15 +12144,15 @@
     </row>
     <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="259" t="s">
+      <c r="C23" s="276" t="s">
         <v>229</v>
       </c>
-      <c r="D23" s="259"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="259"/>
-      <c r="G23" s="259"/>
-      <c r="H23" s="259"/>
-      <c r="I23" s="259"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="276"/>
+      <c r="G23" s="276"/>
+      <c r="H23" s="276"/>
+      <c r="I23" s="276"/>
       <c r="J23" s="87"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -12138,15 +12188,15 @@
     </row>
     <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="259" t="s">
+      <c r="C24" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="260"/>
-      <c r="I24" s="260"/>
+      <c r="D24" s="277"/>
+      <c r="E24" s="277"/>
+      <c r="F24" s="277"/>
+      <c r="G24" s="277"/>
+      <c r="H24" s="277"/>
+      <c r="I24" s="277"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -12198,13 +12248,13 @@
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
       <c r="P25" s="203"/>
-      <c r="Q25" s="292"/>
-      <c r="R25" s="292"/>
-      <c r="S25" s="292"/>
-      <c r="T25" s="292"/>
-      <c r="U25" s="292"/>
-      <c r="V25" s="292"/>
-      <c r="W25" s="292"/>
+      <c r="Q25" s="309"/>
+      <c r="R25" s="309"/>
+      <c r="S25" s="309"/>
+      <c r="T25" s="309"/>
+      <c r="U25" s="309"/>
+      <c r="V25" s="309"/>
+      <c r="W25" s="309"/>
       <c r="X25" s="31"/>
       <c r="Y25" s="31"/>
       <c r="Z25" s="31"/>
@@ -12242,13 +12292,13 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="208"/>
-      <c r="Q26" s="293"/>
-      <c r="R26" s="293"/>
-      <c r="S26" s="293"/>
-      <c r="T26" s="293"/>
-      <c r="U26" s="293"/>
-      <c r="V26" s="293"/>
-      <c r="W26" s="293"/>
+      <c r="Q26" s="310"/>
+      <c r="R26" s="310"/>
+      <c r="S26" s="310"/>
+      <c r="T26" s="310"/>
+      <c r="U26" s="310"/>
+      <c r="V26" s="310"/>
+      <c r="W26" s="310"/>
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
@@ -12328,11 +12378,11 @@
       <c r="P28" s="203"/>
       <c r="Q28" s="31"/>
       <c r="R28" s="31"/>
-      <c r="S28" s="260"/>
-      <c r="T28" s="260"/>
-      <c r="U28" s="260"/>
-      <c r="V28" s="260"/>
-      <c r="W28" s="260"/>
+      <c r="S28" s="277"/>
+      <c r="T28" s="277"/>
+      <c r="U28" s="277"/>
+      <c r="V28" s="277"/>
+      <c r="W28" s="277"/>
       <c r="X28" s="31"/>
       <c r="Y28" s="31"/>
       <c r="Z28" s="31"/>
@@ -12368,13 +12418,13 @@
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
       <c r="P29" s="203"/>
-      <c r="Q29" s="260"/>
-      <c r="R29" s="260"/>
-      <c r="S29" s="260"/>
-      <c r="T29" s="260"/>
-      <c r="U29" s="260"/>
-      <c r="V29" s="260"/>
-      <c r="W29" s="260"/>
+      <c r="Q29" s="277"/>
+      <c r="R29" s="277"/>
+      <c r="S29" s="277"/>
+      <c r="T29" s="277"/>
+      <c r="U29" s="277"/>
+      <c r="V29" s="277"/>
+      <c r="W29" s="277"/>
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
       <c r="Z29" s="31"/>
@@ -13272,6 +13322,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="Q29:W29"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="Q19:W19"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="C24:I24"/>
@@ -13281,13 +13338,6 @@
     <mergeCell ref="Q12:W12"/>
     <mergeCell ref="Q13:W13"/>
     <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="Q19:W19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" location="'04.ContactInfo'!A1" display="Thông Tin Liên Hệ"/>
@@ -13323,15 +13373,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="238"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="255"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -13769,14 +13819,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="245"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -13814,12 +13864,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="245"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -13858,12 +13908,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="245"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -13900,12 +13950,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="245"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>52</v>
@@ -14102,19 +14152,19 @@
         <v>297</v>
       </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="265">
+      <c r="N8" s="282">
         <v>7</v>
       </c>
-      <c r="O8" s="266"/>
-      <c r="P8" s="267"/>
+      <c r="O8" s="283"/>
+      <c r="P8" s="284"/>
       <c r="S8" s="197" t="s">
         <v>296</v>
       </c>
-      <c r="T8" s="262">
+      <c r="T8" s="279">
         <v>2015</v>
       </c>
-      <c r="U8" s="263"/>
-      <c r="V8" s="264"/>
+      <c r="U8" s="280"/>
+      <c r="V8" s="281"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
@@ -14402,11 +14452,11 @@
       <c r="Z18" s="31"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
-      <c r="AC18" s="295">
+      <c r="AC18" s="312">
         <v>20000</v>
       </c>
-      <c r="AD18" s="295"/>
-      <c r="AE18" s="295"/>
+      <c r="AD18" s="312"/>
+      <c r="AE18" s="312"/>
       <c r="AF18" s="31"/>
       <c r="AG18" s="31"/>
       <c r="AH18" s="31"/>
@@ -14494,12 +14544,12 @@
       <c r="Z20" s="216"/>
       <c r="AA20" s="216"/>
       <c r="AB20" s="216"/>
-      <c r="AC20" s="296">
+      <c r="AC20" s="313">
         <f>SUM(AC18:AE19)</f>
         <v>20000</v>
       </c>
-      <c r="AD20" s="296"/>
-      <c r="AE20" s="296"/>
+      <c r="AD20" s="313"/>
+      <c r="AE20" s="313"/>
       <c r="AF20" s="216"/>
       <c r="AG20" s="216"/>
       <c r="AH20" s="216"/>
@@ -14559,15 +14609,15 @@
     </row>
     <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
-      <c r="C22" s="258" t="s">
+      <c r="C22" s="275" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="258"/>
-      <c r="E22" s="258"/>
-      <c r="F22" s="258"/>
-      <c r="G22" s="258"/>
-      <c r="H22" s="258"/>
-      <c r="I22" s="258"/>
+      <c r="D22" s="275"/>
+      <c r="E22" s="275"/>
+      <c r="F22" s="275"/>
+      <c r="G22" s="275"/>
+      <c r="H22" s="275"/>
+      <c r="I22" s="275"/>
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63" t="s">
@@ -14607,15 +14657,15 @@
     </row>
     <row r="23" spans="2:48" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="259" t="s">
+      <c r="C23" s="276" t="s">
         <v>229</v>
       </c>
-      <c r="D23" s="259"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="259"/>
-      <c r="G23" s="259"/>
-      <c r="H23" s="259"/>
-      <c r="I23" s="259"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="276"/>
+      <c r="G23" s="276"/>
+      <c r="H23" s="276"/>
+      <c r="I23" s="276"/>
       <c r="J23" s="87"/>
       <c r="K23" s="31"/>
       <c r="L23" s="90" t="s">
@@ -14663,15 +14713,15 @@
     </row>
     <row r="24" spans="2:48" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="259" t="s">
+      <c r="C24" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="260"/>
-      <c r="I24" s="260"/>
+      <c r="D24" s="277"/>
+      <c r="E24" s="277"/>
+      <c r="F24" s="277"/>
+      <c r="G24" s="277"/>
+      <c r="H24" s="277"/>
+      <c r="I24" s="277"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="95">
@@ -14690,12 +14740,12 @@
       </c>
       <c r="Y24" s="36"/>
       <c r="Z24" s="31"/>
-      <c r="AA24" s="295">
+      <c r="AA24" s="312">
         <v>2000</v>
       </c>
-      <c r="AB24" s="295"/>
-      <c r="AC24" s="295"/>
-      <c r="AD24" s="295"/>
+      <c r="AB24" s="312"/>
+      <c r="AC24" s="312"/>
+      <c r="AD24" s="312"/>
       <c r="AE24" s="31"/>
       <c r="AF24" s="31"/>
       <c r="AG24" s="31"/>
@@ -14743,12 +14793,12 @@
       </c>
       <c r="Y25" s="31"/>
       <c r="Z25" s="31"/>
-      <c r="AA25" s="295">
+      <c r="AA25" s="312">
         <v>3000</v>
       </c>
-      <c r="AB25" s="295"/>
-      <c r="AC25" s="295"/>
-      <c r="AD25" s="295"/>
+      <c r="AB25" s="312"/>
+      <c r="AC25" s="312"/>
+      <c r="AD25" s="312"/>
       <c r="AE25" s="31"/>
       <c r="AF25" s="31"/>
       <c r="AG25" s="31"/>
@@ -14793,12 +14843,12 @@
       <c r="X26" s="220"/>
       <c r="Y26" s="216"/>
       <c r="Z26" s="216"/>
-      <c r="AA26" s="297">
+      <c r="AA26" s="314">
         <v>5000</v>
       </c>
-      <c r="AB26" s="297"/>
-      <c r="AC26" s="297"/>
-      <c r="AD26" s="297"/>
+      <c r="AB26" s="314"/>
+      <c r="AC26" s="314"/>
+      <c r="AD26" s="314"/>
       <c r="AE26" s="216"/>
       <c r="AF26" s="216"/>
       <c r="AG26" s="216"/>
@@ -15527,17 +15577,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="AA26:AD26"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="T8:V8"/>
     <mergeCell ref="B1:G4"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C23:I23"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="AA25:AD25"/>
-    <mergeCell ref="AA26:AD26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
@@ -15579,15 +15629,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="238"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="255"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -16137,14 +16187,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="245"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -16181,12 +16231,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="245"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -16225,12 +16275,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="245"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -16267,12 +16317,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="245"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -16302,19 +16352,19 @@
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
-      <c r="AK4" s="232"/>
-      <c r="AL4" s="232"/>
-      <c r="AM4" s="232"/>
-      <c r="AN4" s="232"/>
+      <c r="AK4" s="249"/>
+      <c r="AL4" s="249"/>
+      <c r="AM4" s="249"/>
+      <c r="AN4" s="249"/>
       <c r="AO4" s="12"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="229"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="231"/>
+      <c r="B5" s="246"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="248"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -16405,26 +16455,26 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="335" t="s">
+      <c r="N7" s="319" t="s">
         <v>445</v>
       </c>
-      <c r="O7" s="335"/>
-      <c r="P7" s="335"/>
-      <c r="Q7" s="335"/>
-      <c r="R7" s="335"/>
-      <c r="S7" s="335"/>
-      <c r="T7" s="335"/>
-      <c r="U7" s="335"/>
-      <c r="V7" s="335"/>
-      <c r="W7" s="335"/>
-      <c r="X7" s="335"/>
-      <c r="Y7" s="335"/>
-      <c r="Z7" s="335"/>
-      <c r="AA7" s="335"/>
-      <c r="AB7" s="335"/>
-      <c r="AC7" s="335"/>
-      <c r="AD7" s="335"/>
-      <c r="AE7" s="335"/>
+      <c r="O7" s="319"/>
+      <c r="P7" s="319"/>
+      <c r="Q7" s="319"/>
+      <c r="R7" s="319"/>
+      <c r="S7" s="319"/>
+      <c r="T7" s="319"/>
+      <c r="U7" s="319"/>
+      <c r="V7" s="319"/>
+      <c r="W7" s="319"/>
+      <c r="X7" s="319"/>
+      <c r="Y7" s="319"/>
+      <c r="Z7" s="319"/>
+      <c r="AA7" s="319"/>
+      <c r="AB7" s="319"/>
+      <c r="AC7" s="319"/>
+      <c r="AD7" s="319"/>
+      <c r="AE7" s="319"/>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
@@ -16449,26 +16499,26 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="325" t="s">
+      <c r="N8" s="320" t="s">
         <v>453</v>
       </c>
-      <c r="O8" s="325"/>
-      <c r="P8" s="325"/>
-      <c r="Q8" s="325"/>
-      <c r="R8" s="325"/>
-      <c r="S8" s="325"/>
-      <c r="T8" s="325"/>
-      <c r="U8" s="325"/>
-      <c r="V8" s="325"/>
-      <c r="W8" s="325"/>
-      <c r="X8" s="325"/>
-      <c r="Y8" s="325"/>
-      <c r="Z8" s="325"/>
-      <c r="AA8" s="325"/>
-      <c r="AB8" s="325"/>
-      <c r="AC8" s="325"/>
-      <c r="AD8" s="325"/>
-      <c r="AE8" s="325"/>
+      <c r="O8" s="320"/>
+      <c r="P8" s="320"/>
+      <c r="Q8" s="320"/>
+      <c r="R8" s="320"/>
+      <c r="S8" s="320"/>
+      <c r="T8" s="320"/>
+      <c r="U8" s="320"/>
+      <c r="V8" s="320"/>
+      <c r="W8" s="320"/>
+      <c r="X8" s="320"/>
+      <c r="Y8" s="320"/>
+      <c r="Z8" s="320"/>
+      <c r="AA8" s="320"/>
+      <c r="AB8" s="320"/>
+      <c r="AC8" s="320"/>
+      <c r="AD8" s="320"/>
+      <c r="AE8" s="320"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
@@ -16495,20 +16545,20 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="306"/>
-      <c r="Q9" s="306"/>
-      <c r="R9" s="306"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="306"/>
-      <c r="V9" s="306"/>
-      <c r="W9" s="306"/>
-      <c r="X9" s="306"/>
-      <c r="Y9" s="306"/>
-      <c r="Z9" s="306"/>
-      <c r="AA9" s="306"/>
-      <c r="AB9" s="306"/>
-      <c r="AC9" s="306"/>
+      <c r="P9" s="229"/>
+      <c r="Q9" s="229"/>
+      <c r="R9" s="229"/>
+      <c r="S9" s="229"/>
+      <c r="T9" s="229"/>
+      <c r="U9" s="229"/>
+      <c r="V9" s="229"/>
+      <c r="W9" s="229"/>
+      <c r="X9" s="229"/>
+      <c r="Y9" s="229"/>
+      <c r="Z9" s="229"/>
+      <c r="AA9" s="229"/>
+      <c r="AB9" s="229"/>
+      <c r="AC9" s="229"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
@@ -16579,24 +16629,24 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="336" t="s">
+      <c r="N11" s="321" t="s">
         <v>238</v>
       </c>
-      <c r="O11" s="337"/>
-      <c r="P11" s="337"/>
-      <c r="Q11" s="337"/>
-      <c r="R11" s="337"/>
-      <c r="S11" s="337"/>
-      <c r="T11" s="337"/>
-      <c r="U11" s="337"/>
-      <c r="V11" s="337"/>
-      <c r="W11" s="337"/>
-      <c r="X11" s="337"/>
-      <c r="Y11" s="337"/>
-      <c r="Z11" s="337"/>
-      <c r="AA11" s="337"/>
-      <c r="AB11" s="337"/>
-      <c r="AC11" s="338"/>
+      <c r="O11" s="322"/>
+      <c r="P11" s="322"/>
+      <c r="Q11" s="322"/>
+      <c r="R11" s="322"/>
+      <c r="S11" s="322"/>
+      <c r="T11" s="322"/>
+      <c r="U11" s="322"/>
+      <c r="V11" s="322"/>
+      <c r="W11" s="322"/>
+      <c r="X11" s="322"/>
+      <c r="Y11" s="322"/>
+      <c r="Z11" s="322"/>
+      <c r="AA11" s="322"/>
+      <c r="AB11" s="322"/>
+      <c r="AC11" s="323"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
       <c r="AF11" s="8"/>
@@ -16623,22 +16673,22 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="306"/>
-      <c r="O12" s="306"/>
-      <c r="P12" s="306"/>
-      <c r="Q12" s="306"/>
-      <c r="R12" s="306"/>
-      <c r="S12" s="306"/>
-      <c r="T12" s="306"/>
-      <c r="U12" s="306"/>
-      <c r="V12" s="306"/>
-      <c r="W12" s="306"/>
-      <c r="X12" s="306"/>
-      <c r="Y12" s="306"/>
-      <c r="Z12" s="306"/>
-      <c r="AA12" s="306"/>
-      <c r="AB12" s="306"/>
-      <c r="AC12" s="306"/>
+      <c r="N12" s="229"/>
+      <c r="O12" s="229"/>
+      <c r="P12" s="229"/>
+      <c r="Q12" s="229"/>
+      <c r="R12" s="229"/>
+      <c r="S12" s="229"/>
+      <c r="T12" s="229"/>
+      <c r="U12" s="229"/>
+      <c r="V12" s="229"/>
+      <c r="W12" s="229"/>
+      <c r="X12" s="229"/>
+      <c r="Y12" s="229"/>
+      <c r="Z12" s="229"/>
+      <c r="AA12" s="229"/>
+      <c r="AB12" s="229"/>
+      <c r="AC12" s="229"/>
       <c r="AD12" s="8"/>
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
@@ -16665,22 +16715,22 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="339"/>
-      <c r="O13" s="340"/>
-      <c r="P13" s="340"/>
-      <c r="Q13" s="340"/>
-      <c r="R13" s="340"/>
-      <c r="S13" s="340"/>
-      <c r="T13" s="340"/>
-      <c r="U13" s="340"/>
-      <c r="V13" s="340"/>
-      <c r="W13" s="340"/>
-      <c r="X13" s="340"/>
-      <c r="Y13" s="340"/>
-      <c r="Z13" s="340"/>
-      <c r="AA13" s="340"/>
-      <c r="AB13" s="340"/>
-      <c r="AC13" s="340"/>
+      <c r="N13" s="236"/>
+      <c r="O13" s="237"/>
+      <c r="P13" s="237"/>
+      <c r="Q13" s="237"/>
+      <c r="R13" s="237"/>
+      <c r="S13" s="237"/>
+      <c r="T13" s="237"/>
+      <c r="U13" s="237"/>
+      <c r="V13" s="237"/>
+      <c r="W13" s="237"/>
+      <c r="X13" s="237"/>
+      <c r="Y13" s="237"/>
+      <c r="Z13" s="237"/>
+      <c r="AA13" s="237"/>
+      <c r="AB13" s="237"/>
+      <c r="AC13" s="237"/>
       <c r="AD13" s="31"/>
       <c r="AE13" s="31"/>
       <c r="AF13" s="36"/>
@@ -16707,24 +16757,24 @@
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
-      <c r="N14" s="317" t="s">
+      <c r="N14" s="232" t="s">
         <v>446</v>
       </c>
-      <c r="O14" s="340"/>
-      <c r="P14" s="340"/>
-      <c r="Q14" s="340"/>
-      <c r="R14" s="340"/>
-      <c r="S14" s="340"/>
-      <c r="T14" s="340"/>
-      <c r="U14" s="340"/>
-      <c r="V14" s="340"/>
-      <c r="W14" s="340"/>
-      <c r="X14" s="340"/>
-      <c r="Y14" s="340"/>
-      <c r="Z14" s="340"/>
-      <c r="AA14" s="340"/>
-      <c r="AB14" s="340"/>
-      <c r="AC14" s="340"/>
+      <c r="O14" s="237"/>
+      <c r="P14" s="237"/>
+      <c r="Q14" s="237"/>
+      <c r="R14" s="237"/>
+      <c r="S14" s="237"/>
+      <c r="T14" s="237"/>
+      <c r="U14" s="237"/>
+      <c r="V14" s="237"/>
+      <c r="W14" s="237"/>
+      <c r="X14" s="237"/>
+      <c r="Y14" s="237"/>
+      <c r="Z14" s="237"/>
+      <c r="AA14" s="237"/>
+      <c r="AB14" s="237"/>
+      <c r="AC14" s="237"/>
       <c r="AD14" s="31"/>
       <c r="AE14" s="31"/>
       <c r="AF14" s="31"/>
@@ -16751,24 +16801,24 @@
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
-      <c r="N15" s="341" t="s">
+      <c r="N15" s="315" t="s">
         <v>452</v>
       </c>
-      <c r="O15" s="342"/>
-      <c r="P15" s="342"/>
-      <c r="Q15" s="342"/>
-      <c r="R15" s="342"/>
-      <c r="S15" s="342"/>
-      <c r="T15" s="342"/>
-      <c r="U15" s="342"/>
-      <c r="V15" s="342"/>
-      <c r="W15" s="342"/>
-      <c r="X15" s="342"/>
-      <c r="Y15" s="342"/>
-      <c r="Z15" s="342"/>
-      <c r="AA15" s="342"/>
-      <c r="AB15" s="342"/>
-      <c r="AC15" s="343"/>
+      <c r="O15" s="316"/>
+      <c r="P15" s="316"/>
+      <c r="Q15" s="316"/>
+      <c r="R15" s="316"/>
+      <c r="S15" s="316"/>
+      <c r="T15" s="316"/>
+      <c r="U15" s="316"/>
+      <c r="V15" s="316"/>
+      <c r="W15" s="316"/>
+      <c r="X15" s="316"/>
+      <c r="Y15" s="316"/>
+      <c r="Z15" s="316"/>
+      <c r="AA15" s="316"/>
+      <c r="AB15" s="316"/>
+      <c r="AC15" s="317"/>
       <c r="AD15" s="31"/>
       <c r="AE15" s="31"/>
       <c r="AF15" s="31"/>
@@ -16931,24 +16981,24 @@
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
-      <c r="N20" s="268" t="s">
+      <c r="N20" s="285" t="s">
         <v>447</v>
       </c>
-      <c r="O20" s="268"/>
-      <c r="P20" s="268"/>
-      <c r="Q20" s="268"/>
-      <c r="R20" s="268"/>
-      <c r="S20" s="268"/>
-      <c r="T20" s="268"/>
-      <c r="U20" s="268"/>
-      <c r="V20" s="268"/>
-      <c r="W20" s="268"/>
-      <c r="X20" s="268"/>
-      <c r="Y20" s="268"/>
-      <c r="Z20" s="268"/>
-      <c r="AA20" s="268"/>
-      <c r="AB20" s="268"/>
-      <c r="AC20" s="268"/>
+      <c r="O20" s="285"/>
+      <c r="P20" s="285"/>
+      <c r="Q20" s="285"/>
+      <c r="R20" s="285"/>
+      <c r="S20" s="285"/>
+      <c r="T20" s="285"/>
+      <c r="U20" s="285"/>
+      <c r="V20" s="285"/>
+      <c r="W20" s="285"/>
+      <c r="X20" s="285"/>
+      <c r="Y20" s="285"/>
+      <c r="Z20" s="285"/>
+      <c r="AA20" s="285"/>
+      <c r="AB20" s="285"/>
+      <c r="AC20" s="285"/>
       <c r="AD20" s="31"/>
       <c r="AE20" s="31"/>
       <c r="AF20" s="31"/>
@@ -17017,22 +17067,22 @@
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="308"/>
-      <c r="O22" s="308"/>
-      <c r="P22" s="308"/>
-      <c r="Q22" s="308"/>
-      <c r="R22" s="308"/>
-      <c r="S22" s="308"/>
-      <c r="T22" s="308"/>
-      <c r="U22" s="308"/>
-      <c r="V22" s="308"/>
-      <c r="W22" s="308"/>
-      <c r="X22" s="308"/>
-      <c r="Y22" s="308"/>
-      <c r="Z22" s="308"/>
-      <c r="AA22" s="308"/>
-      <c r="AB22" s="308"/>
-      <c r="AC22" s="308"/>
+      <c r="N22" s="318"/>
+      <c r="O22" s="318"/>
+      <c r="P22" s="318"/>
+      <c r="Q22" s="318"/>
+      <c r="R22" s="318"/>
+      <c r="S22" s="318"/>
+      <c r="T22" s="318"/>
+      <c r="U22" s="318"/>
+      <c r="V22" s="318"/>
+      <c r="W22" s="318"/>
+      <c r="X22" s="318"/>
+      <c r="Y22" s="318"/>
+      <c r="Z22" s="318"/>
+      <c r="AA22" s="318"/>
+      <c r="AB22" s="318"/>
+      <c r="AC22" s="318"/>
       <c r="AD22" s="31"/>
       <c r="AE22" s="31"/>
       <c r="AF22" s="31"/>
@@ -17062,7 +17112,7 @@
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
       <c r="P23" s="31"/>
-      <c r="Q23" s="320"/>
+      <c r="Q23" s="234"/>
       <c r="R23" s="31"/>
       <c r="S23" s="31"/>
       <c r="T23" s="31"/>
@@ -17876,14 +17926,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="245"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -17920,12 +17970,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="245"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -17964,12 +18014,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="245"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -18006,12 +18056,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="245"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -18041,19 +18091,19 @@
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
-      <c r="AK4" s="232"/>
-      <c r="AL4" s="232"/>
-      <c r="AM4" s="232"/>
-      <c r="AN4" s="232"/>
+      <c r="AK4" s="249"/>
+      <c r="AL4" s="249"/>
+      <c r="AM4" s="249"/>
+      <c r="AN4" s="249"/>
       <c r="AO4" s="12"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="229"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="231"/>
+      <c r="B5" s="246"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="248"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -18144,24 +18194,24 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="304" t="s">
+      <c r="N7" s="335" t="s">
         <v>413</v>
       </c>
-      <c r="O7" s="304"/>
-      <c r="P7" s="304"/>
-      <c r="Q7" s="304"/>
-      <c r="R7" s="304"/>
-      <c r="S7" s="304"/>
-      <c r="T7" s="304"/>
-      <c r="U7" s="304"/>
-      <c r="V7" s="304"/>
-      <c r="W7" s="304"/>
-      <c r="X7" s="304"/>
-      <c r="Y7" s="304"/>
-      <c r="Z7" s="304"/>
-      <c r="AA7" s="304"/>
-      <c r="AB7" s="304"/>
-      <c r="AC7" s="304"/>
+      <c r="O7" s="335"/>
+      <c r="P7" s="335"/>
+      <c r="Q7" s="335"/>
+      <c r="R7" s="335"/>
+      <c r="S7" s="335"/>
+      <c r="T7" s="335"/>
+      <c r="U7" s="335"/>
+      <c r="V7" s="335"/>
+      <c r="W7" s="335"/>
+      <c r="X7" s="335"/>
+      <c r="Y7" s="335"/>
+      <c r="Z7" s="335"/>
+      <c r="AA7" s="335"/>
+      <c r="AB7" s="335"/>
+      <c r="AC7" s="335"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
@@ -18188,24 +18238,24 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="305" t="s">
+      <c r="N8" s="336" t="s">
         <v>414</v>
       </c>
-      <c r="O8" s="305"/>
-      <c r="P8" s="305"/>
-      <c r="Q8" s="305"/>
-      <c r="R8" s="305"/>
-      <c r="S8" s="305"/>
-      <c r="T8" s="305"/>
-      <c r="U8" s="305"/>
-      <c r="V8" s="305"/>
-      <c r="W8" s="305"/>
-      <c r="X8" s="305"/>
-      <c r="Y8" s="305"/>
-      <c r="Z8" s="305"/>
-      <c r="AA8" s="305"/>
-      <c r="AB8" s="305"/>
-      <c r="AC8" s="305"/>
+      <c r="O8" s="336"/>
+      <c r="P8" s="336"/>
+      <c r="Q8" s="336"/>
+      <c r="R8" s="336"/>
+      <c r="S8" s="336"/>
+      <c r="T8" s="336"/>
+      <c r="U8" s="336"/>
+      <c r="V8" s="336"/>
+      <c r="W8" s="336"/>
+      <c r="X8" s="336"/>
+      <c r="Y8" s="336"/>
+      <c r="Z8" s="336"/>
+      <c r="AA8" s="336"/>
+      <c r="AB8" s="336"/>
+      <c r="AC8" s="336"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
@@ -18234,20 +18284,20 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="306"/>
-      <c r="Q9" s="306"/>
-      <c r="R9" s="306"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="306"/>
-      <c r="V9" s="306"/>
-      <c r="W9" s="306"/>
-      <c r="X9" s="306"/>
-      <c r="Y9" s="306"/>
-      <c r="Z9" s="306"/>
-      <c r="AA9" s="306"/>
-      <c r="AB9" s="306"/>
-      <c r="AC9" s="306"/>
+      <c r="P9" s="229"/>
+      <c r="Q9" s="229"/>
+      <c r="R9" s="229"/>
+      <c r="S9" s="229"/>
+      <c r="T9" s="229"/>
+      <c r="U9" s="229"/>
+      <c r="V9" s="229"/>
+      <c r="W9" s="229"/>
+      <c r="X9" s="229"/>
+      <c r="Y9" s="229"/>
+      <c r="Z9" s="229"/>
+      <c r="AA9" s="229"/>
+      <c r="AB9" s="229"/>
+      <c r="AC9" s="229"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
@@ -18274,24 +18324,24 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="304" t="s">
+      <c r="N10" s="335" t="s">
         <v>415</v>
       </c>
-      <c r="O10" s="304"/>
-      <c r="P10" s="304"/>
-      <c r="Q10" s="304"/>
-      <c r="R10" s="304"/>
-      <c r="S10" s="304"/>
-      <c r="T10" s="304"/>
-      <c r="U10" s="304"/>
-      <c r="V10" s="304"/>
-      <c r="W10" s="304"/>
-      <c r="X10" s="304"/>
-      <c r="Y10" s="304"/>
-      <c r="Z10" s="304"/>
-      <c r="AA10" s="304"/>
-      <c r="AB10" s="304"/>
-      <c r="AC10" s="304"/>
+      <c r="O10" s="335"/>
+      <c r="P10" s="335"/>
+      <c r="Q10" s="335"/>
+      <c r="R10" s="335"/>
+      <c r="S10" s="335"/>
+      <c r="T10" s="335"/>
+      <c r="U10" s="335"/>
+      <c r="V10" s="335"/>
+      <c r="W10" s="335"/>
+      <c r="X10" s="335"/>
+      <c r="Y10" s="335"/>
+      <c r="Z10" s="335"/>
+      <c r="AA10" s="335"/>
+      <c r="AB10" s="335"/>
+      <c r="AC10" s="335"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
@@ -18318,7 +18368,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="307"/>
+      <c r="N11" s="230"/>
       <c r="Z11" s="31" t="s">
         <v>416</v>
       </c>
@@ -18377,25 +18427,25 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="277" t="s">
+      <c r="N13" s="303" t="s">
         <v>246</v>
       </c>
-      <c r="O13" s="278"/>
-      <c r="P13" s="278"/>
-      <c r="Q13" s="278"/>
-      <c r="R13" s="278"/>
-      <c r="S13" s="279"/>
-      <c r="U13" s="277" t="s">
+      <c r="O13" s="304"/>
+      <c r="P13" s="304"/>
+      <c r="Q13" s="304"/>
+      <c r="R13" s="304"/>
+      <c r="S13" s="305"/>
+      <c r="U13" s="303" t="s">
         <v>248</v>
       </c>
-      <c r="V13" s="278"/>
-      <c r="W13" s="278"/>
-      <c r="X13" s="278"/>
-      <c r="Y13" s="278"/>
-      <c r="Z13" s="278"/>
-      <c r="AA13" s="278"/>
-      <c r="AB13" s="278"/>
-      <c r="AC13" s="279"/>
+      <c r="V13" s="304"/>
+      <c r="W13" s="304"/>
+      <c r="X13" s="304"/>
+      <c r="Y13" s="304"/>
+      <c r="Z13" s="304"/>
+      <c r="AA13" s="304"/>
+      <c r="AB13" s="304"/>
+      <c r="AC13" s="305"/>
       <c r="AD13" s="31"/>
       <c r="AE13" s="31"/>
       <c r="AF13" s="31"/>
@@ -18477,12 +18527,12 @@
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
-      <c r="N16" s="308"/>
-      <c r="O16" s="308"/>
-      <c r="P16" s="308"/>
-      <c r="Q16" s="308"/>
-      <c r="R16" s="308"/>
-      <c r="S16" s="308"/>
+      <c r="N16" s="318"/>
+      <c r="O16" s="318"/>
+      <c r="P16" s="318"/>
+      <c r="Q16" s="318"/>
+      <c r="R16" s="318"/>
+      <c r="S16" s="318"/>
       <c r="AD16" s="31"/>
       <c r="AE16" s="31"/>
       <c r="AF16" s="31"/>
@@ -18616,24 +18666,24 @@
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="309" t="s">
+      <c r="N21" s="331" t="s">
         <v>420</v>
       </c>
-      <c r="O21" s="309"/>
-      <c r="P21" s="309"/>
-      <c r="Q21" s="309"/>
-      <c r="R21" s="309"/>
-      <c r="S21" s="309"/>
-      <c r="T21" s="309"/>
-      <c r="U21" s="309"/>
-      <c r="V21" s="309"/>
-      <c r="W21" s="309"/>
-      <c r="X21" s="309"/>
-      <c r="Y21" s="309"/>
-      <c r="Z21" s="309"/>
-      <c r="AA21" s="309"/>
-      <c r="AB21" s="309"/>
-      <c r="AC21" s="309"/>
+      <c r="O21" s="331"/>
+      <c r="P21" s="331"/>
+      <c r="Q21" s="331"/>
+      <c r="R21" s="331"/>
+      <c r="S21" s="331"/>
+      <c r="T21" s="331"/>
+      <c r="U21" s="331"/>
+      <c r="V21" s="331"/>
+      <c r="W21" s="331"/>
+      <c r="X21" s="331"/>
+      <c r="Y21" s="331"/>
+      <c r="Z21" s="331"/>
+      <c r="AA21" s="331"/>
+      <c r="AB21" s="331"/>
+      <c r="AC21" s="331"/>
       <c r="AD21" s="31"/>
       <c r="AE21" s="31"/>
       <c r="AF21" s="31"/>
@@ -18704,24 +18754,24 @@
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
-      <c r="N23" s="233" t="s">
+      <c r="N23" s="250" t="s">
         <v>361</v>
       </c>
-      <c r="O23" s="234"/>
-      <c r="P23" s="234"/>
-      <c r="Q23" s="234"/>
-      <c r="R23" s="234"/>
-      <c r="S23" s="234"/>
-      <c r="T23" s="234"/>
-      <c r="U23" s="234"/>
-      <c r="V23" s="234"/>
-      <c r="W23" s="234"/>
-      <c r="X23" s="234"/>
-      <c r="Y23" s="234"/>
-      <c r="Z23" s="234"/>
-      <c r="AA23" s="234"/>
-      <c r="AB23" s="234"/>
-      <c r="AC23" s="235"/>
+      <c r="O23" s="251"/>
+      <c r="P23" s="251"/>
+      <c r="Q23" s="251"/>
+      <c r="R23" s="251"/>
+      <c r="S23" s="251"/>
+      <c r="T23" s="251"/>
+      <c r="U23" s="251"/>
+      <c r="V23" s="251"/>
+      <c r="W23" s="251"/>
+      <c r="X23" s="251"/>
+      <c r="Y23" s="251"/>
+      <c r="Z23" s="251"/>
+      <c r="AA23" s="251"/>
+      <c r="AB23" s="251"/>
+      <c r="AC23" s="252"/>
       <c r="AD23" s="31"/>
       <c r="AE23" s="31"/>
       <c r="AF23" s="31"/>
@@ -18818,24 +18868,24 @@
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
-      <c r="N26" s="233" t="s">
+      <c r="N26" s="250" t="s">
         <v>423</v>
       </c>
-      <c r="O26" s="234"/>
-      <c r="P26" s="234"/>
-      <c r="Q26" s="234"/>
-      <c r="R26" s="234"/>
-      <c r="S26" s="234"/>
-      <c r="T26" s="234"/>
-      <c r="U26" s="234"/>
-      <c r="V26" s="234"/>
-      <c r="W26" s="234"/>
-      <c r="X26" s="234"/>
-      <c r="Y26" s="234"/>
-      <c r="Z26" s="234"/>
-      <c r="AA26" s="234"/>
-      <c r="AB26" s="234"/>
-      <c r="AC26" s="235"/>
+      <c r="O26" s="251"/>
+      <c r="P26" s="251"/>
+      <c r="Q26" s="251"/>
+      <c r="R26" s="251"/>
+      <c r="S26" s="251"/>
+      <c r="T26" s="251"/>
+      <c r="U26" s="251"/>
+      <c r="V26" s="251"/>
+      <c r="W26" s="251"/>
+      <c r="X26" s="251"/>
+      <c r="Y26" s="251"/>
+      <c r="Z26" s="251"/>
+      <c r="AA26" s="251"/>
+      <c r="AB26" s="251"/>
+      <c r="AC26" s="252"/>
       <c r="AD26" s="31"/>
       <c r="AE26" s="31"/>
       <c r="AF26" s="31"/>
@@ -18888,24 +18938,24 @@
       <c r="K28" s="31"/>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
-      <c r="N28" s="309" t="s">
+      <c r="N28" s="331" t="s">
         <v>444</v>
       </c>
-      <c r="O28" s="309"/>
-      <c r="P28" s="309"/>
-      <c r="Q28" s="309"/>
-      <c r="R28" s="309"/>
-      <c r="S28" s="309"/>
-      <c r="T28" s="309"/>
-      <c r="U28" s="309"/>
-      <c r="V28" s="309"/>
-      <c r="W28" s="309"/>
-      <c r="X28" s="309"/>
-      <c r="Y28" s="309"/>
-      <c r="Z28" s="309"/>
-      <c r="AA28" s="309"/>
-      <c r="AB28" s="309"/>
-      <c r="AC28" s="309"/>
+      <c r="O28" s="331"/>
+      <c r="P28" s="331"/>
+      <c r="Q28" s="331"/>
+      <c r="R28" s="331"/>
+      <c r="S28" s="331"/>
+      <c r="T28" s="331"/>
+      <c r="U28" s="331"/>
+      <c r="V28" s="331"/>
+      <c r="W28" s="331"/>
+      <c r="X28" s="331"/>
+      <c r="Y28" s="331"/>
+      <c r="Z28" s="331"/>
+      <c r="AA28" s="331"/>
+      <c r="AB28" s="331"/>
+      <c r="AC28" s="331"/>
       <c r="AD28" s="31"/>
       <c r="AE28" s="31"/>
       <c r="AF28" s="31"/>
@@ -18961,22 +19011,22 @@
       <c r="K30" s="31"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
-      <c r="N30" s="310"/>
-      <c r="O30" s="311"/>
-      <c r="P30" s="311"/>
-      <c r="Q30" s="311"/>
-      <c r="R30" s="311"/>
-      <c r="S30" s="311"/>
-      <c r="T30" s="311"/>
-      <c r="U30" s="311"/>
-      <c r="V30" s="311"/>
-      <c r="W30" s="311"/>
-      <c r="X30" s="311"/>
-      <c r="Y30" s="311"/>
-      <c r="Z30" s="311"/>
-      <c r="AA30" s="311"/>
-      <c r="AB30" s="311"/>
-      <c r="AC30" s="312"/>
+      <c r="N30" s="332"/>
+      <c r="O30" s="333"/>
+      <c r="P30" s="333"/>
+      <c r="Q30" s="333"/>
+      <c r="R30" s="333"/>
+      <c r="S30" s="333"/>
+      <c r="T30" s="333"/>
+      <c r="U30" s="333"/>
+      <c r="V30" s="333"/>
+      <c r="W30" s="333"/>
+      <c r="X30" s="333"/>
+      <c r="Y30" s="333"/>
+      <c r="Z30" s="333"/>
+      <c r="AA30" s="333"/>
+      <c r="AB30" s="333"/>
+      <c r="AC30" s="334"/>
       <c r="AD30" s="31"/>
       <c r="AE30" s="31"/>
       <c r="AF30" s="31"/>
@@ -19061,24 +19111,24 @@
       <c r="K33" s="31"/>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
-      <c r="N33" s="277" t="s">
+      <c r="N33" s="303" t="s">
         <v>426</v>
       </c>
-      <c r="O33" s="278"/>
-      <c r="P33" s="278"/>
-      <c r="Q33" s="278"/>
-      <c r="R33" s="278"/>
-      <c r="S33" s="278"/>
-      <c r="T33" s="278"/>
-      <c r="U33" s="278"/>
-      <c r="V33" s="278"/>
-      <c r="W33" s="278"/>
-      <c r="X33" s="278"/>
-      <c r="Y33" s="278"/>
-      <c r="Z33" s="278"/>
-      <c r="AA33" s="278"/>
-      <c r="AB33" s="278"/>
-      <c r="AC33" s="279"/>
+      <c r="O33" s="304"/>
+      <c r="P33" s="304"/>
+      <c r="Q33" s="304"/>
+      <c r="R33" s="304"/>
+      <c r="S33" s="304"/>
+      <c r="T33" s="304"/>
+      <c r="U33" s="304"/>
+      <c r="V33" s="304"/>
+      <c r="W33" s="304"/>
+      <c r="X33" s="304"/>
+      <c r="Y33" s="304"/>
+      <c r="Z33" s="304"/>
+      <c r="AA33" s="304"/>
+      <c r="AB33" s="304"/>
+      <c r="AC33" s="305"/>
       <c r="AD33" s="31"/>
       <c r="AE33" s="31"/>
       <c r="AF33" s="31"/>
@@ -19149,24 +19199,24 @@
       <c r="K35" s="31"/>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
-      <c r="N35" s="277" t="s">
+      <c r="N35" s="303" t="s">
         <v>428</v>
       </c>
-      <c r="O35" s="278"/>
-      <c r="P35" s="278"/>
-      <c r="Q35" s="278"/>
-      <c r="R35" s="278"/>
-      <c r="S35" s="278"/>
-      <c r="T35" s="278"/>
-      <c r="U35" s="278"/>
-      <c r="V35" s="278"/>
-      <c r="W35" s="278"/>
-      <c r="X35" s="278"/>
-      <c r="Y35" s="278"/>
-      <c r="Z35" s="278"/>
-      <c r="AA35" s="278"/>
-      <c r="AB35" s="278"/>
-      <c r="AC35" s="279"/>
+      <c r="O35" s="304"/>
+      <c r="P35" s="304"/>
+      <c r="Q35" s="304"/>
+      <c r="R35" s="304"/>
+      <c r="S35" s="304"/>
+      <c r="T35" s="304"/>
+      <c r="U35" s="304"/>
+      <c r="V35" s="304"/>
+      <c r="W35" s="304"/>
+      <c r="X35" s="304"/>
+      <c r="Y35" s="304"/>
+      <c r="Z35" s="304"/>
+      <c r="AA35" s="304"/>
+      <c r="AB35" s="304"/>
+      <c r="AC35" s="305"/>
       <c r="AD35" s="31"/>
       <c r="AE35" s="31"/>
       <c r="AF35" s="31"/>
@@ -19200,16 +19250,16 @@
       <c r="P36" s="225"/>
       <c r="Q36" s="225"/>
       <c r="R36" s="225"/>
-      <c r="T36" s="313"/>
-      <c r="U36" s="313"/>
-      <c r="V36" s="313"/>
-      <c r="W36" s="313"/>
-      <c r="X36" s="313"/>
-      <c r="Y36" s="313"/>
-      <c r="Z36" s="313"/>
-      <c r="AA36" s="313"/>
-      <c r="AB36" s="313"/>
-      <c r="AC36" s="313"/>
+      <c r="T36" s="231"/>
+      <c r="U36" s="231"/>
+      <c r="V36" s="231"/>
+      <c r="W36" s="231"/>
+      <c r="X36" s="231"/>
+      <c r="Y36" s="231"/>
+      <c r="Z36" s="231"/>
+      <c r="AA36" s="231"/>
+      <c r="AB36" s="231"/>
+      <c r="AC36" s="231"/>
       <c r="AD36" s="31"/>
       <c r="AE36" s="31"/>
       <c r="AF36" s="31"/>
@@ -19236,24 +19286,24 @@
       <c r="K37" s="31"/>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
-      <c r="N37" s="277" t="s">
+      <c r="N37" s="303" t="s">
         <v>430</v>
       </c>
-      <c r="O37" s="278"/>
-      <c r="P37" s="278"/>
-      <c r="Q37" s="278"/>
-      <c r="R37" s="278"/>
-      <c r="S37" s="278"/>
-      <c r="T37" s="278"/>
-      <c r="U37" s="278"/>
-      <c r="V37" s="278"/>
-      <c r="W37" s="278"/>
-      <c r="X37" s="278"/>
-      <c r="Y37" s="278"/>
-      <c r="Z37" s="278"/>
-      <c r="AA37" s="278"/>
-      <c r="AB37" s="278"/>
-      <c r="AC37" s="279"/>
+      <c r="O37" s="304"/>
+      <c r="P37" s="304"/>
+      <c r="Q37" s="304"/>
+      <c r="R37" s="304"/>
+      <c r="S37" s="304"/>
+      <c r="T37" s="304"/>
+      <c r="U37" s="304"/>
+      <c r="V37" s="304"/>
+      <c r="W37" s="304"/>
+      <c r="X37" s="304"/>
+      <c r="Y37" s="304"/>
+      <c r="Z37" s="304"/>
+      <c r="AA37" s="304"/>
+      <c r="AB37" s="304"/>
+      <c r="AC37" s="305"/>
       <c r="AD37" s="31"/>
       <c r="AE37" s="31"/>
       <c r="AF37" s="31"/>
@@ -19324,24 +19374,24 @@
       <c r="K39" s="31"/>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
-      <c r="N39" s="314" t="s">
+      <c r="N39" s="328" t="s">
         <v>221</v>
       </c>
-      <c r="O39" s="315"/>
-      <c r="P39" s="315"/>
-      <c r="Q39" s="315"/>
-      <c r="R39" s="315"/>
-      <c r="S39" s="315"/>
-      <c r="T39" s="315"/>
-      <c r="U39" s="315"/>
-      <c r="V39" s="315"/>
-      <c r="W39" s="315"/>
-      <c r="X39" s="315"/>
-      <c r="Y39" s="315"/>
-      <c r="Z39" s="315"/>
-      <c r="AA39" s="315"/>
-      <c r="AB39" s="315"/>
-      <c r="AC39" s="316"/>
+      <c r="O39" s="329"/>
+      <c r="P39" s="329"/>
+      <c r="Q39" s="329"/>
+      <c r="R39" s="329"/>
+      <c r="S39" s="329"/>
+      <c r="T39" s="329"/>
+      <c r="U39" s="329"/>
+      <c r="V39" s="329"/>
+      <c r="W39" s="329"/>
+      <c r="X39" s="329"/>
+      <c r="Y39" s="329"/>
+      <c r="Z39" s="329"/>
+      <c r="AA39" s="329"/>
+      <c r="AB39" s="329"/>
+      <c r="AC39" s="330"/>
       <c r="AD39" s="31"/>
       <c r="AE39" s="31"/>
       <c r="AF39" s="31"/>
@@ -19371,21 +19421,21 @@
       <c r="N40" s="224" t="s">
         <v>432</v>
       </c>
-      <c r="O40" s="318"/>
-      <c r="P40" s="318"/>
-      <c r="Q40" s="318"/>
-      <c r="R40" s="318"/>
-      <c r="S40" s="318"/>
-      <c r="T40" s="318"/>
-      <c r="U40" s="318"/>
-      <c r="V40" s="318"/>
-      <c r="W40" s="318"/>
-      <c r="X40" s="318"/>
-      <c r="Y40" s="318"/>
-      <c r="Z40" s="318"/>
-      <c r="AA40" s="318"/>
-      <c r="AB40" s="318"/>
-      <c r="AC40" s="318"/>
+      <c r="O40" s="233"/>
+      <c r="P40" s="233"/>
+      <c r="Q40" s="233"/>
+      <c r="R40" s="233"/>
+      <c r="S40" s="233"/>
+      <c r="T40" s="233"/>
+      <c r="U40" s="233"/>
+      <c r="V40" s="233"/>
+      <c r="W40" s="233"/>
+      <c r="X40" s="233"/>
+      <c r="Y40" s="233"/>
+      <c r="Z40" s="233"/>
+      <c r="AA40" s="233"/>
+      <c r="AB40" s="233"/>
+      <c r="AC40" s="233"/>
       <c r="AD40" s="31"/>
       <c r="AE40" s="31"/>
       <c r="AF40" s="31"/>
@@ -19412,24 +19462,24 @@
       <c r="K41" s="31"/>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
-      <c r="N41" s="283" t="s">
+      <c r="N41" s="297" t="s">
         <v>433</v>
       </c>
-      <c r="O41" s="234"/>
-      <c r="P41" s="234"/>
-      <c r="Q41" s="234"/>
-      <c r="R41" s="234"/>
-      <c r="S41" s="234"/>
-      <c r="T41" s="234"/>
-      <c r="U41" s="234"/>
-      <c r="V41" s="234"/>
-      <c r="W41" s="234"/>
-      <c r="X41" s="234"/>
-      <c r="Y41" s="234"/>
-      <c r="Z41" s="234"/>
-      <c r="AA41" s="234"/>
-      <c r="AB41" s="234"/>
-      <c r="AC41" s="235"/>
+      <c r="O41" s="251"/>
+      <c r="P41" s="251"/>
+      <c r="Q41" s="251"/>
+      <c r="R41" s="251"/>
+      <c r="S41" s="251"/>
+      <c r="T41" s="251"/>
+      <c r="U41" s="251"/>
+      <c r="V41" s="251"/>
+      <c r="W41" s="251"/>
+      <c r="X41" s="251"/>
+      <c r="Y41" s="251"/>
+      <c r="Z41" s="251"/>
+      <c r="AA41" s="251"/>
+      <c r="AB41" s="251"/>
+      <c r="AC41" s="252"/>
       <c r="AD41" s="31"/>
       <c r="AE41" s="31"/>
       <c r="AF41" s="31"/>
@@ -19581,24 +19631,24 @@
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
-      <c r="N45" s="319" t="s">
+      <c r="N45" s="324" t="s">
         <v>434</v>
       </c>
-      <c r="O45" s="319"/>
-      <c r="P45" s="319"/>
-      <c r="Q45" s="319"/>
-      <c r="R45" s="319"/>
-      <c r="S45" s="319"/>
-      <c r="T45" s="319"/>
-      <c r="U45" s="319"/>
-      <c r="V45" s="319"/>
-      <c r="W45" s="319"/>
-      <c r="X45" s="319"/>
-      <c r="Y45" s="319"/>
-      <c r="Z45" s="319"/>
-      <c r="AA45" s="319"/>
-      <c r="AB45" s="319"/>
-      <c r="AC45" s="319"/>
+      <c r="O45" s="324"/>
+      <c r="P45" s="324"/>
+      <c r="Q45" s="324"/>
+      <c r="R45" s="324"/>
+      <c r="S45" s="324"/>
+      <c r="T45" s="324"/>
+      <c r="U45" s="324"/>
+      <c r="V45" s="324"/>
+      <c r="W45" s="324"/>
+      <c r="X45" s="324"/>
+      <c r="Y45" s="324"/>
+      <c r="Z45" s="324"/>
+      <c r="AA45" s="324"/>
+      <c r="AB45" s="324"/>
+      <c r="AC45" s="324"/>
       <c r="AD45" s="31"/>
       <c r="AE45" s="31"/>
       <c r="AF45" s="31"/>
@@ -19625,24 +19675,24 @@
       <c r="K46" s="31"/>
       <c r="L46" s="31"/>
       <c r="M46" s="31"/>
-      <c r="N46" s="308" t="s">
+      <c r="N46" s="318" t="s">
         <v>435</v>
       </c>
-      <c r="O46" s="308"/>
-      <c r="P46" s="308"/>
-      <c r="Q46" s="308"/>
-      <c r="R46" s="308"/>
-      <c r="S46" s="308"/>
-      <c r="T46" s="308"/>
-      <c r="U46" s="308"/>
-      <c r="V46" s="308"/>
-      <c r="W46" s="308"/>
-      <c r="X46" s="308"/>
-      <c r="Y46" s="308"/>
-      <c r="Z46" s="308"/>
-      <c r="AA46" s="308"/>
-      <c r="AB46" s="308"/>
-      <c r="AC46" s="308"/>
+      <c r="O46" s="318"/>
+      <c r="P46" s="318"/>
+      <c r="Q46" s="318"/>
+      <c r="R46" s="318"/>
+      <c r="S46" s="318"/>
+      <c r="T46" s="318"/>
+      <c r="U46" s="318"/>
+      <c r="V46" s="318"/>
+      <c r="W46" s="318"/>
+      <c r="X46" s="318"/>
+      <c r="Y46" s="318"/>
+      <c r="Z46" s="318"/>
+      <c r="AA46" s="318"/>
+      <c r="AB46" s="318"/>
+      <c r="AC46" s="318"/>
       <c r="AD46" s="31"/>
       <c r="AE46" s="31"/>
       <c r="AF46" s="31"/>
@@ -19672,7 +19722,7 @@
       <c r="N47" s="31"/>
       <c r="O47" s="31"/>
       <c r="P47" s="31"/>
-      <c r="Q47" s="320" t="s">
+      <c r="Q47" s="234" t="s">
         <v>436</v>
       </c>
       <c r="R47" s="31"/>
@@ -19995,50 +20045,50 @@
       <c r="B57" s="118">
         <v>2</v>
       </c>
-      <c r="C57" s="321" t="s">
+      <c r="C57" s="325" t="s">
         <v>438</v>
       </c>
-      <c r="D57" s="322"/>
-      <c r="E57" s="322"/>
-      <c r="F57" s="322"/>
-      <c r="G57" s="322"/>
-      <c r="H57" s="322"/>
-      <c r="I57" s="322"/>
-      <c r="J57" s="322"/>
-      <c r="K57" s="322"/>
-      <c r="L57" s="322"/>
-      <c r="M57" s="322"/>
-      <c r="N57" s="322"/>
-      <c r="O57" s="322"/>
-      <c r="P57" s="322"/>
-      <c r="Q57" s="322"/>
-      <c r="R57" s="322"/>
-      <c r="S57" s="322"/>
-      <c r="T57" s="322"/>
-      <c r="U57" s="322"/>
-      <c r="V57" s="322"/>
-      <c r="W57" s="322"/>
-      <c r="X57" s="322"/>
-      <c r="Y57" s="322"/>
-      <c r="Z57" s="322"/>
-      <c r="AA57" s="322"/>
-      <c r="AB57" s="322"/>
-      <c r="AC57" s="322"/>
-      <c r="AD57" s="322"/>
-      <c r="AE57" s="322"/>
-      <c r="AF57" s="322"/>
-      <c r="AG57" s="322"/>
-      <c r="AH57" s="322"/>
-      <c r="AI57" s="322"/>
-      <c r="AJ57" s="322"/>
-      <c r="AK57" s="322"/>
-      <c r="AL57" s="322"/>
-      <c r="AM57" s="322"/>
-      <c r="AN57" s="322"/>
-      <c r="AO57" s="322"/>
-      <c r="AP57" s="322"/>
-      <c r="AQ57" s="322"/>
-      <c r="AR57" s="323"/>
+      <c r="D57" s="326"/>
+      <c r="E57" s="326"/>
+      <c r="F57" s="326"/>
+      <c r="G57" s="326"/>
+      <c r="H57" s="326"/>
+      <c r="I57" s="326"/>
+      <c r="J57" s="326"/>
+      <c r="K57" s="326"/>
+      <c r="L57" s="326"/>
+      <c r="M57" s="326"/>
+      <c r="N57" s="326"/>
+      <c r="O57" s="326"/>
+      <c r="P57" s="326"/>
+      <c r="Q57" s="326"/>
+      <c r="R57" s="326"/>
+      <c r="S57" s="326"/>
+      <c r="T57" s="326"/>
+      <c r="U57" s="326"/>
+      <c r="V57" s="326"/>
+      <c r="W57" s="326"/>
+      <c r="X57" s="326"/>
+      <c r="Y57" s="326"/>
+      <c r="Z57" s="326"/>
+      <c r="AA57" s="326"/>
+      <c r="AB57" s="326"/>
+      <c r="AC57" s="326"/>
+      <c r="AD57" s="326"/>
+      <c r="AE57" s="326"/>
+      <c r="AF57" s="326"/>
+      <c r="AG57" s="326"/>
+      <c r="AH57" s="326"/>
+      <c r="AI57" s="326"/>
+      <c r="AJ57" s="326"/>
+      <c r="AK57" s="326"/>
+      <c r="AL57" s="326"/>
+      <c r="AM57" s="326"/>
+      <c r="AN57" s="326"/>
+      <c r="AO57" s="326"/>
+      <c r="AP57" s="326"/>
+      <c r="AQ57" s="326"/>
+      <c r="AR57" s="327"/>
       <c r="AS57" s="120"/>
     </row>
     <row r="58" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20461,6 +20511,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N30:AC30"/>
+    <mergeCell ref="B1:G5"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="N7:AC7"/>
+    <mergeCell ref="N8:AC8"/>
+    <mergeCell ref="N10:AC10"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="U13:AC13"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N21:AC21"/>
+    <mergeCell ref="N23:AC23"/>
+    <mergeCell ref="N26:AC26"/>
+    <mergeCell ref="N28:AC28"/>
     <mergeCell ref="N45:AC45"/>
     <mergeCell ref="N46:AC46"/>
     <mergeCell ref="C57:AR57"/>
@@ -20469,19 +20532,6 @@
     <mergeCell ref="N37:AC37"/>
     <mergeCell ref="N39:AC39"/>
     <mergeCell ref="N41:AC41"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="N21:AC21"/>
-    <mergeCell ref="N23:AC23"/>
-    <mergeCell ref="N26:AC26"/>
-    <mergeCell ref="N28:AC28"/>
-    <mergeCell ref="N30:AC30"/>
-    <mergeCell ref="B1:G5"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="N7:AC7"/>
-    <mergeCell ref="N8:AC8"/>
-    <mergeCell ref="N10:AC10"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="U13:AC13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20501,14 +20551,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="245"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -20545,12 +20595,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="245"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -20587,12 +20637,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="245"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -20622,19 +20672,19 @@
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
-      <c r="AK3" s="232"/>
-      <c r="AL3" s="232"/>
-      <c r="AM3" s="232"/>
-      <c r="AN3" s="232"/>
+      <c r="AK3" s="249"/>
+      <c r="AL3" s="249"/>
+      <c r="AM3" s="249"/>
+      <c r="AN3" s="249"/>
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="229"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="231"/>
+      <c r="B4" s="246"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="248"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -20881,24 +20931,24 @@
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="233" t="s">
+      <c r="N10" s="250" t="s">
         <v>361</v>
       </c>
-      <c r="O10" s="234"/>
-      <c r="P10" s="234"/>
-      <c r="Q10" s="234"/>
-      <c r="R10" s="234"/>
-      <c r="S10" s="234"/>
-      <c r="T10" s="234"/>
-      <c r="U10" s="234"/>
-      <c r="V10" s="234"/>
-      <c r="W10" s="234"/>
-      <c r="X10" s="234"/>
-      <c r="Y10" s="234"/>
-      <c r="Z10" s="234"/>
-      <c r="AA10" s="234"/>
-      <c r="AB10" s="234"/>
-      <c r="AC10" s="235"/>
+      <c r="O10" s="251"/>
+      <c r="P10" s="251"/>
+      <c r="Q10" s="251"/>
+      <c r="R10" s="251"/>
+      <c r="S10" s="251"/>
+      <c r="T10" s="251"/>
+      <c r="U10" s="251"/>
+      <c r="V10" s="251"/>
+      <c r="W10" s="251"/>
+      <c r="X10" s="251"/>
+      <c r="Y10" s="251"/>
+      <c r="Z10" s="251"/>
+      <c r="AA10" s="251"/>
+      <c r="AB10" s="251"/>
+      <c r="AC10" s="252"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
@@ -20995,24 +21045,24 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="233" t="s">
+      <c r="N13" s="250" t="s">
         <v>362</v>
       </c>
-      <c r="O13" s="234"/>
-      <c r="P13" s="234"/>
-      <c r="Q13" s="234"/>
-      <c r="R13" s="234"/>
-      <c r="S13" s="234"/>
-      <c r="T13" s="234"/>
-      <c r="U13" s="234"/>
-      <c r="V13" s="234"/>
-      <c r="W13" s="234"/>
-      <c r="X13" s="234"/>
-      <c r="Y13" s="234"/>
-      <c r="Z13" s="234"/>
-      <c r="AA13" s="234"/>
-      <c r="AB13" s="234"/>
-      <c r="AC13" s="235"/>
+      <c r="O13" s="251"/>
+      <c r="P13" s="251"/>
+      <c r="Q13" s="251"/>
+      <c r="R13" s="251"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="251"/>
+      <c r="W13" s="251"/>
+      <c r="X13" s="251"/>
+      <c r="Y13" s="251"/>
+      <c r="Z13" s="251"/>
+      <c r="AA13" s="251"/>
+      <c r="AB13" s="251"/>
+      <c r="AC13" s="252"/>
       <c r="AD13" s="31"/>
       <c r="AE13" s="31"/>
       <c r="AF13" s="31"/>
@@ -21555,14 +21605,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="245"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -21599,12 +21649,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="245"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -21643,12 +21693,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="245"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -21685,12 +21735,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="245"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -21720,19 +21770,19 @@
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
-      <c r="AK4" s="232"/>
-      <c r="AL4" s="232"/>
-      <c r="AM4" s="232"/>
-      <c r="AN4" s="232"/>
+      <c r="AK4" s="249"/>
+      <c r="AL4" s="249"/>
+      <c r="AM4" s="249"/>
+      <c r="AN4" s="249"/>
       <c r="AO4" s="12"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="229"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="231"/>
+      <c r="B5" s="246"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="248"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -21823,24 +21873,24 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="324" t="s">
+      <c r="N7" s="337" t="s">
         <v>440</v>
       </c>
-      <c r="O7" s="324"/>
-      <c r="P7" s="324"/>
-      <c r="Q7" s="324"/>
-      <c r="R7" s="324"/>
-      <c r="S7" s="324"/>
-      <c r="T7" s="324"/>
-      <c r="U7" s="324"/>
-      <c r="V7" s="324"/>
-      <c r="W7" s="324"/>
-      <c r="X7" s="324"/>
-      <c r="Y7" s="324"/>
-      <c r="Z7" s="324"/>
-      <c r="AA7" s="324"/>
-      <c r="AB7" s="324"/>
-      <c r="AC7" s="324"/>
+      <c r="O7" s="337"/>
+      <c r="P7" s="337"/>
+      <c r="Q7" s="337"/>
+      <c r="R7" s="337"/>
+      <c r="S7" s="337"/>
+      <c r="T7" s="337"/>
+      <c r="U7" s="337"/>
+      <c r="V7" s="337"/>
+      <c r="W7" s="337"/>
+      <c r="X7" s="337"/>
+      <c r="Y7" s="337"/>
+      <c r="Z7" s="337"/>
+      <c r="AA7" s="337"/>
+      <c r="AB7" s="337"/>
+      <c r="AC7" s="337"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
@@ -21867,24 +21917,24 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="325" t="s">
+      <c r="N8" s="320" t="s">
         <v>441</v>
       </c>
-      <c r="O8" s="325"/>
-      <c r="P8" s="325"/>
-      <c r="Q8" s="325"/>
-      <c r="R8" s="325"/>
-      <c r="S8" s="325"/>
-      <c r="T8" s="325"/>
-      <c r="U8" s="325"/>
-      <c r="V8" s="325"/>
-      <c r="W8" s="325"/>
-      <c r="X8" s="325"/>
-      <c r="Y8" s="325"/>
-      <c r="Z8" s="325"/>
-      <c r="AA8" s="325"/>
-      <c r="AB8" s="325"/>
-      <c r="AC8" s="325"/>
+      <c r="O8" s="320"/>
+      <c r="P8" s="320"/>
+      <c r="Q8" s="320"/>
+      <c r="R8" s="320"/>
+      <c r="S8" s="320"/>
+      <c r="T8" s="320"/>
+      <c r="U8" s="320"/>
+      <c r="V8" s="320"/>
+      <c r="W8" s="320"/>
+      <c r="X8" s="320"/>
+      <c r="Y8" s="320"/>
+      <c r="Z8" s="320"/>
+      <c r="AA8" s="320"/>
+      <c r="AB8" s="320"/>
+      <c r="AC8" s="320"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
@@ -21911,22 +21961,22 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="325"/>
-      <c r="O9" s="325"/>
-      <c r="P9" s="325"/>
-      <c r="Q9" s="325"/>
-      <c r="R9" s="325"/>
-      <c r="S9" s="325"/>
-      <c r="T9" s="325"/>
-      <c r="U9" s="325"/>
-      <c r="V9" s="325"/>
-      <c r="W9" s="325"/>
-      <c r="X9" s="325"/>
-      <c r="Y9" s="325"/>
-      <c r="Z9" s="325"/>
-      <c r="AA9" s="325"/>
-      <c r="AB9" s="325"/>
-      <c r="AC9" s="325"/>
+      <c r="N9" s="320"/>
+      <c r="O9" s="320"/>
+      <c r="P9" s="320"/>
+      <c r="Q9" s="320"/>
+      <c r="R9" s="320"/>
+      <c r="S9" s="320"/>
+      <c r="T9" s="320"/>
+      <c r="U9" s="320"/>
+      <c r="V9" s="320"/>
+      <c r="W9" s="320"/>
+      <c r="X9" s="320"/>
+      <c r="Y9" s="320"/>
+      <c r="Z9" s="320"/>
+      <c r="AA9" s="320"/>
+      <c r="AB9" s="320"/>
+      <c r="AC9" s="320"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
@@ -21953,22 +22003,22 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="304"/>
-      <c r="O10" s="304"/>
-      <c r="P10" s="304"/>
-      <c r="Q10" s="304"/>
-      <c r="R10" s="304"/>
-      <c r="S10" s="304"/>
-      <c r="T10" s="304"/>
-      <c r="U10" s="304"/>
-      <c r="V10" s="304"/>
-      <c r="W10" s="304"/>
-      <c r="X10" s="304"/>
-      <c r="Y10" s="304"/>
-      <c r="Z10" s="304"/>
-      <c r="AA10" s="304"/>
-      <c r="AB10" s="304"/>
-      <c r="AC10" s="304"/>
+      <c r="N10" s="335"/>
+      <c r="O10" s="335"/>
+      <c r="P10" s="335"/>
+      <c r="Q10" s="335"/>
+      <c r="R10" s="335"/>
+      <c r="S10" s="335"/>
+      <c r="T10" s="335"/>
+      <c r="U10" s="335"/>
+      <c r="V10" s="335"/>
+      <c r="W10" s="335"/>
+      <c r="X10" s="335"/>
+      <c r="Y10" s="335"/>
+      <c r="Z10" s="335"/>
+      <c r="AA10" s="335"/>
+      <c r="AB10" s="335"/>
+      <c r="AC10" s="335"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
@@ -21995,7 +22045,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="307"/>
+      <c r="N11" s="230"/>
       <c r="Z11" s="31"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
@@ -22017,42 +22067,42 @@
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="326" t="s">
+      <c r="H12" s="338" t="s">
         <v>443</v>
       </c>
-      <c r="I12" s="258"/>
-      <c r="J12" s="258"/>
-      <c r="K12" s="258"/>
-      <c r="L12" s="258"/>
-      <c r="M12" s="258"/>
-      <c r="N12" s="258"/>
-      <c r="O12" s="258"/>
-      <c r="P12" s="258"/>
-      <c r="Q12" s="258"/>
-      <c r="R12" s="258"/>
-      <c r="S12" s="258"/>
-      <c r="T12" s="258"/>
-      <c r="U12" s="258"/>
-      <c r="V12" s="258"/>
-      <c r="W12" s="258"/>
-      <c r="X12" s="258"/>
-      <c r="Y12" s="258"/>
-      <c r="Z12" s="258"/>
-      <c r="AA12" s="258"/>
-      <c r="AB12" s="258"/>
-      <c r="AC12" s="327"/>
+      <c r="I12" s="275"/>
+      <c r="J12" s="275"/>
+      <c r="K12" s="275"/>
+      <c r="L12" s="275"/>
+      <c r="M12" s="275"/>
+      <c r="N12" s="275"/>
+      <c r="O12" s="275"/>
+      <c r="P12" s="275"/>
+      <c r="Q12" s="275"/>
+      <c r="R12" s="275"/>
+      <c r="S12" s="275"/>
+      <c r="T12" s="275"/>
+      <c r="U12" s="275"/>
+      <c r="V12" s="275"/>
+      <c r="W12" s="275"/>
+      <c r="X12" s="275"/>
+      <c r="Y12" s="275"/>
+      <c r="Z12" s="275"/>
+      <c r="AA12" s="275"/>
+      <c r="AB12" s="275"/>
+      <c r="AC12" s="339"/>
       <c r="AD12" s="31"/>
-      <c r="AE12" s="328" t="s">
+      <c r="AE12" s="341" t="s">
         <v>442</v>
       </c>
-      <c r="AF12" s="328"/>
-      <c r="AG12" s="328"/>
-      <c r="AH12" s="328"/>
-      <c r="AI12" s="328"/>
-      <c r="AJ12" s="328"/>
-      <c r="AK12" s="328"/>
-      <c r="AL12" s="328"/>
-      <c r="AM12" s="328"/>
+      <c r="AF12" s="341"/>
+      <c r="AG12" s="341"/>
+      <c r="AH12" s="341"/>
+      <c r="AI12" s="341"/>
+      <c r="AJ12" s="341"/>
+      <c r="AK12" s="341"/>
+      <c r="AL12" s="341"/>
+      <c r="AM12" s="341"/>
       <c r="AN12" s="31"/>
       <c r="AO12" s="12"/>
     </row>
@@ -22063,40 +22113,40 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="329"/>
-      <c r="I13" s="328"/>
-      <c r="J13" s="328"/>
-      <c r="K13" s="328"/>
-      <c r="L13" s="328"/>
-      <c r="M13" s="328"/>
-      <c r="N13" s="328"/>
-      <c r="O13" s="328"/>
-      <c r="P13" s="328"/>
-      <c r="Q13" s="328"/>
-      <c r="R13" s="328"/>
-      <c r="S13" s="328"/>
-      <c r="T13" s="328"/>
-      <c r="U13" s="328"/>
-      <c r="V13" s="328"/>
-      <c r="W13" s="328"/>
-      <c r="X13" s="328"/>
-      <c r="Y13" s="328"/>
-      <c r="Z13" s="328"/>
-      <c r="AA13" s="328"/>
-      <c r="AB13" s="328"/>
-      <c r="AC13" s="330"/>
+      <c r="H13" s="340"/>
+      <c r="I13" s="341"/>
+      <c r="J13" s="341"/>
+      <c r="K13" s="341"/>
+      <c r="L13" s="341"/>
+      <c r="M13" s="341"/>
+      <c r="N13" s="341"/>
+      <c r="O13" s="341"/>
+      <c r="P13" s="341"/>
+      <c r="Q13" s="341"/>
+      <c r="R13" s="341"/>
+      <c r="S13" s="341"/>
+      <c r="T13" s="341"/>
+      <c r="U13" s="341"/>
+      <c r="V13" s="341"/>
+      <c r="W13" s="341"/>
+      <c r="X13" s="341"/>
+      <c r="Y13" s="341"/>
+      <c r="Z13" s="341"/>
+      <c r="AA13" s="341"/>
+      <c r="AB13" s="341"/>
+      <c r="AC13" s="342"/>
       <c r="AD13" s="31"/>
-      <c r="AE13" s="259" t="s">
+      <c r="AE13" s="276" t="s">
         <v>441</v>
       </c>
-      <c r="AF13" s="259"/>
-      <c r="AG13" s="259"/>
-      <c r="AH13" s="259"/>
-      <c r="AI13" s="259"/>
-      <c r="AJ13" s="259"/>
-      <c r="AK13" s="259"/>
-      <c r="AL13" s="259"/>
-      <c r="AM13" s="259"/>
+      <c r="AF13" s="276"/>
+      <c r="AG13" s="276"/>
+      <c r="AH13" s="276"/>
+      <c r="AI13" s="276"/>
+      <c r="AJ13" s="276"/>
+      <c r="AK13" s="276"/>
+      <c r="AL13" s="276"/>
+      <c r="AM13" s="276"/>
       <c r="AN13" s="31"/>
       <c r="AO13" s="12"/>
     </row>
@@ -22107,38 +22157,38 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="329"/>
-      <c r="I14" s="328"/>
-      <c r="J14" s="328"/>
-      <c r="K14" s="328"/>
-      <c r="L14" s="328"/>
-      <c r="M14" s="328"/>
-      <c r="N14" s="328"/>
-      <c r="O14" s="328"/>
-      <c r="P14" s="328"/>
-      <c r="Q14" s="328"/>
-      <c r="R14" s="328"/>
-      <c r="S14" s="328"/>
-      <c r="T14" s="328"/>
-      <c r="U14" s="328"/>
-      <c r="V14" s="328"/>
-      <c r="W14" s="328"/>
-      <c r="X14" s="328"/>
-      <c r="Y14" s="328"/>
-      <c r="Z14" s="328"/>
-      <c r="AA14" s="328"/>
-      <c r="AB14" s="328"/>
-      <c r="AC14" s="330"/>
+      <c r="H14" s="340"/>
+      <c r="I14" s="341"/>
+      <c r="J14" s="341"/>
+      <c r="K14" s="341"/>
+      <c r="L14" s="341"/>
+      <c r="M14" s="341"/>
+      <c r="N14" s="341"/>
+      <c r="O14" s="341"/>
+      <c r="P14" s="341"/>
+      <c r="Q14" s="341"/>
+      <c r="R14" s="341"/>
+      <c r="S14" s="341"/>
+      <c r="T14" s="341"/>
+      <c r="U14" s="341"/>
+      <c r="V14" s="341"/>
+      <c r="W14" s="341"/>
+      <c r="X14" s="341"/>
+      <c r="Y14" s="341"/>
+      <c r="Z14" s="341"/>
+      <c r="AA14" s="341"/>
+      <c r="AB14" s="341"/>
+      <c r="AC14" s="342"/>
       <c r="AD14" s="31"/>
-      <c r="AE14" s="259"/>
-      <c r="AF14" s="259"/>
-      <c r="AG14" s="259"/>
-      <c r="AH14" s="259"/>
-      <c r="AI14" s="259"/>
-      <c r="AJ14" s="259"/>
-      <c r="AK14" s="259"/>
-      <c r="AL14" s="259"/>
-      <c r="AM14" s="259"/>
+      <c r="AE14" s="276"/>
+      <c r="AF14" s="276"/>
+      <c r="AG14" s="276"/>
+      <c r="AH14" s="276"/>
+      <c r="AI14" s="276"/>
+      <c r="AJ14" s="276"/>
+      <c r="AK14" s="276"/>
+      <c r="AL14" s="276"/>
+      <c r="AM14" s="276"/>
       <c r="AN14" s="31"/>
       <c r="AO14" s="12"/>
     </row>
@@ -22149,38 +22199,38 @@
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
-      <c r="H15" s="329"/>
-      <c r="I15" s="328"/>
-      <c r="J15" s="328"/>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
-      <c r="M15" s="328"/>
-      <c r="N15" s="328"/>
-      <c r="O15" s="328"/>
-      <c r="P15" s="328"/>
-      <c r="Q15" s="328"/>
-      <c r="R15" s="328"/>
-      <c r="S15" s="328"/>
-      <c r="T15" s="328"/>
-      <c r="U15" s="328"/>
-      <c r="V15" s="328"/>
-      <c r="W15" s="328"/>
-      <c r="X15" s="328"/>
-      <c r="Y15" s="328"/>
-      <c r="Z15" s="328"/>
-      <c r="AA15" s="328"/>
-      <c r="AB15" s="328"/>
-      <c r="AC15" s="330"/>
+      <c r="H15" s="340"/>
+      <c r="I15" s="341"/>
+      <c r="J15" s="341"/>
+      <c r="K15" s="341"/>
+      <c r="L15" s="341"/>
+      <c r="M15" s="341"/>
+      <c r="N15" s="341"/>
+      <c r="O15" s="341"/>
+      <c r="P15" s="341"/>
+      <c r="Q15" s="341"/>
+      <c r="R15" s="341"/>
+      <c r="S15" s="341"/>
+      <c r="T15" s="341"/>
+      <c r="U15" s="341"/>
+      <c r="V15" s="341"/>
+      <c r="W15" s="341"/>
+      <c r="X15" s="341"/>
+      <c r="Y15" s="341"/>
+      <c r="Z15" s="341"/>
+      <c r="AA15" s="341"/>
+      <c r="AB15" s="341"/>
+      <c r="AC15" s="342"/>
       <c r="AD15" s="31"/>
-      <c r="AE15" s="259"/>
-      <c r="AF15" s="259"/>
-      <c r="AG15" s="259"/>
-      <c r="AH15" s="259"/>
-      <c r="AI15" s="259"/>
-      <c r="AJ15" s="259"/>
-      <c r="AK15" s="259"/>
-      <c r="AL15" s="259"/>
-      <c r="AM15" s="259"/>
+      <c r="AE15" s="276"/>
+      <c r="AF15" s="276"/>
+      <c r="AG15" s="276"/>
+      <c r="AH15" s="276"/>
+      <c r="AI15" s="276"/>
+      <c r="AJ15" s="276"/>
+      <c r="AK15" s="276"/>
+      <c r="AL15" s="276"/>
+      <c r="AM15" s="276"/>
       <c r="AN15" s="31"/>
       <c r="AO15" s="12"/>
     </row>
@@ -22191,38 +22241,38 @@
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
-      <c r="H16" s="329"/>
-      <c r="I16" s="328"/>
-      <c r="J16" s="328"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
-      <c r="M16" s="328"/>
-      <c r="N16" s="328"/>
-      <c r="O16" s="328"/>
-      <c r="P16" s="328"/>
-      <c r="Q16" s="328"/>
-      <c r="R16" s="328"/>
-      <c r="S16" s="328"/>
-      <c r="T16" s="328"/>
-      <c r="U16" s="328"/>
-      <c r="V16" s="328"/>
-      <c r="W16" s="328"/>
-      <c r="X16" s="328"/>
-      <c r="Y16" s="328"/>
-      <c r="Z16" s="328"/>
-      <c r="AA16" s="328"/>
-      <c r="AB16" s="328"/>
-      <c r="AC16" s="330"/>
+      <c r="H16" s="340"/>
+      <c r="I16" s="341"/>
+      <c r="J16" s="341"/>
+      <c r="K16" s="341"/>
+      <c r="L16" s="341"/>
+      <c r="M16" s="341"/>
+      <c r="N16" s="341"/>
+      <c r="O16" s="341"/>
+      <c r="P16" s="341"/>
+      <c r="Q16" s="341"/>
+      <c r="R16" s="341"/>
+      <c r="S16" s="341"/>
+      <c r="T16" s="341"/>
+      <c r="U16" s="341"/>
+      <c r="V16" s="341"/>
+      <c r="W16" s="341"/>
+      <c r="X16" s="341"/>
+      <c r="Y16" s="341"/>
+      <c r="Z16" s="341"/>
+      <c r="AA16" s="341"/>
+      <c r="AB16" s="341"/>
+      <c r="AC16" s="342"/>
       <c r="AD16" s="31"/>
-      <c r="AE16" s="259"/>
-      <c r="AF16" s="259"/>
-      <c r="AG16" s="259"/>
-      <c r="AH16" s="259"/>
-      <c r="AI16" s="259"/>
-      <c r="AJ16" s="259"/>
-      <c r="AK16" s="259"/>
-      <c r="AL16" s="259"/>
-      <c r="AM16" s="259"/>
+      <c r="AE16" s="276"/>
+      <c r="AF16" s="276"/>
+      <c r="AG16" s="276"/>
+      <c r="AH16" s="276"/>
+      <c r="AI16" s="276"/>
+      <c r="AJ16" s="276"/>
+      <c r="AK16" s="276"/>
+      <c r="AL16" s="276"/>
+      <c r="AM16" s="276"/>
       <c r="AN16" s="31"/>
       <c r="AO16" s="12"/>
     </row>
@@ -22233,38 +22283,38 @@
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
-      <c r="H17" s="329"/>
-      <c r="I17" s="328"/>
-      <c r="J17" s="328"/>
-      <c r="K17" s="328"/>
-      <c r="L17" s="328"/>
-      <c r="M17" s="328"/>
-      <c r="N17" s="328"/>
-      <c r="O17" s="328"/>
-      <c r="P17" s="328"/>
-      <c r="Q17" s="328"/>
-      <c r="R17" s="328"/>
-      <c r="S17" s="328"/>
-      <c r="T17" s="328"/>
-      <c r="U17" s="328"/>
-      <c r="V17" s="328"/>
-      <c r="W17" s="328"/>
-      <c r="X17" s="328"/>
-      <c r="Y17" s="328"/>
-      <c r="Z17" s="328"/>
-      <c r="AA17" s="328"/>
-      <c r="AB17" s="328"/>
-      <c r="AC17" s="330"/>
+      <c r="H17" s="340"/>
+      <c r="I17" s="341"/>
+      <c r="J17" s="341"/>
+      <c r="K17" s="341"/>
+      <c r="L17" s="341"/>
+      <c r="M17" s="341"/>
+      <c r="N17" s="341"/>
+      <c r="O17" s="341"/>
+      <c r="P17" s="341"/>
+      <c r="Q17" s="341"/>
+      <c r="R17" s="341"/>
+      <c r="S17" s="341"/>
+      <c r="T17" s="341"/>
+      <c r="U17" s="341"/>
+      <c r="V17" s="341"/>
+      <c r="W17" s="341"/>
+      <c r="X17" s="341"/>
+      <c r="Y17" s="341"/>
+      <c r="Z17" s="341"/>
+      <c r="AA17" s="341"/>
+      <c r="AB17" s="341"/>
+      <c r="AC17" s="342"/>
       <c r="AD17" s="31"/>
-      <c r="AE17" s="259"/>
-      <c r="AF17" s="259"/>
-      <c r="AG17" s="259"/>
-      <c r="AH17" s="259"/>
-      <c r="AI17" s="259"/>
-      <c r="AJ17" s="259"/>
-      <c r="AK17" s="259"/>
-      <c r="AL17" s="259"/>
-      <c r="AM17" s="259"/>
+      <c r="AE17" s="276"/>
+      <c r="AF17" s="276"/>
+      <c r="AG17" s="276"/>
+      <c r="AH17" s="276"/>
+      <c r="AI17" s="276"/>
+      <c r="AJ17" s="276"/>
+      <c r="AK17" s="276"/>
+      <c r="AL17" s="276"/>
+      <c r="AM17" s="276"/>
       <c r="AN17" s="31"/>
       <c r="AO17" s="12"/>
     </row>
@@ -22275,28 +22325,28 @@
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
-      <c r="H18" s="329"/>
-      <c r="I18" s="328"/>
-      <c r="J18" s="328"/>
-      <c r="K18" s="328"/>
-      <c r="L18" s="328"/>
-      <c r="M18" s="328"/>
-      <c r="N18" s="328"/>
-      <c r="O18" s="328"/>
-      <c r="P18" s="328"/>
-      <c r="Q18" s="328"/>
-      <c r="R18" s="328"/>
-      <c r="S18" s="328"/>
-      <c r="T18" s="328"/>
-      <c r="U18" s="328"/>
-      <c r="V18" s="328"/>
-      <c r="W18" s="328"/>
-      <c r="X18" s="328"/>
-      <c r="Y18" s="328"/>
-      <c r="Z18" s="328"/>
-      <c r="AA18" s="328"/>
-      <c r="AB18" s="328"/>
-      <c r="AC18" s="330"/>
+      <c r="H18" s="340"/>
+      <c r="I18" s="341"/>
+      <c r="J18" s="341"/>
+      <c r="K18" s="341"/>
+      <c r="L18" s="341"/>
+      <c r="M18" s="341"/>
+      <c r="N18" s="341"/>
+      <c r="O18" s="341"/>
+      <c r="P18" s="341"/>
+      <c r="Q18" s="341"/>
+      <c r="R18" s="341"/>
+      <c r="S18" s="341"/>
+      <c r="T18" s="341"/>
+      <c r="U18" s="341"/>
+      <c r="V18" s="341"/>
+      <c r="W18" s="341"/>
+      <c r="X18" s="341"/>
+      <c r="Y18" s="341"/>
+      <c r="Z18" s="341"/>
+      <c r="AA18" s="341"/>
+      <c r="AB18" s="341"/>
+      <c r="AC18" s="342"/>
       <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
       <c r="AF18" s="31"/>
@@ -22317,28 +22367,28 @@
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
-      <c r="H19" s="329"/>
-      <c r="I19" s="328"/>
-      <c r="J19" s="328"/>
-      <c r="K19" s="328"/>
-      <c r="L19" s="328"/>
-      <c r="M19" s="328"/>
-      <c r="N19" s="328"/>
-      <c r="O19" s="328"/>
-      <c r="P19" s="328"/>
-      <c r="Q19" s="328"/>
-      <c r="R19" s="328"/>
-      <c r="S19" s="328"/>
-      <c r="T19" s="328"/>
-      <c r="U19" s="328"/>
-      <c r="V19" s="328"/>
-      <c r="W19" s="328"/>
-      <c r="X19" s="328"/>
-      <c r="Y19" s="328"/>
-      <c r="Z19" s="328"/>
-      <c r="AA19" s="328"/>
-      <c r="AB19" s="328"/>
-      <c r="AC19" s="330"/>
+      <c r="H19" s="340"/>
+      <c r="I19" s="341"/>
+      <c r="J19" s="341"/>
+      <c r="K19" s="341"/>
+      <c r="L19" s="341"/>
+      <c r="M19" s="341"/>
+      <c r="N19" s="341"/>
+      <c r="O19" s="341"/>
+      <c r="P19" s="341"/>
+      <c r="Q19" s="341"/>
+      <c r="R19" s="341"/>
+      <c r="S19" s="341"/>
+      <c r="T19" s="341"/>
+      <c r="U19" s="341"/>
+      <c r="V19" s="341"/>
+      <c r="W19" s="341"/>
+      <c r="X19" s="341"/>
+      <c r="Y19" s="341"/>
+      <c r="Z19" s="341"/>
+      <c r="AA19" s="341"/>
+      <c r="AB19" s="341"/>
+      <c r="AC19" s="342"/>
       <c r="AD19" s="31"/>
       <c r="AE19" s="31"/>
       <c r="AF19" s="31"/>
@@ -22359,28 +22409,28 @@
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
-      <c r="H20" s="329"/>
-      <c r="I20" s="328"/>
-      <c r="J20" s="328"/>
-      <c r="K20" s="328"/>
-      <c r="L20" s="328"/>
-      <c r="M20" s="328"/>
-      <c r="N20" s="328"/>
-      <c r="O20" s="328"/>
-      <c r="P20" s="328"/>
-      <c r="Q20" s="328"/>
-      <c r="R20" s="328"/>
-      <c r="S20" s="328"/>
-      <c r="T20" s="328"/>
-      <c r="U20" s="328"/>
-      <c r="V20" s="328"/>
-      <c r="W20" s="328"/>
-      <c r="X20" s="328"/>
-      <c r="Y20" s="328"/>
-      <c r="Z20" s="328"/>
-      <c r="AA20" s="328"/>
-      <c r="AB20" s="328"/>
-      <c r="AC20" s="330"/>
+      <c r="H20" s="340"/>
+      <c r="I20" s="341"/>
+      <c r="J20" s="341"/>
+      <c r="K20" s="341"/>
+      <c r="L20" s="341"/>
+      <c r="M20" s="341"/>
+      <c r="N20" s="341"/>
+      <c r="O20" s="341"/>
+      <c r="P20" s="341"/>
+      <c r="Q20" s="341"/>
+      <c r="R20" s="341"/>
+      <c r="S20" s="341"/>
+      <c r="T20" s="341"/>
+      <c r="U20" s="341"/>
+      <c r="V20" s="341"/>
+      <c r="W20" s="341"/>
+      <c r="X20" s="341"/>
+      <c r="Y20" s="341"/>
+      <c r="Z20" s="341"/>
+      <c r="AA20" s="341"/>
+      <c r="AB20" s="341"/>
+      <c r="AC20" s="342"/>
       <c r="AD20" s="31"/>
       <c r="AE20" s="31"/>
       <c r="AF20" s="31"/>
@@ -22401,28 +22451,28 @@
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="329"/>
-      <c r="I21" s="328"/>
-      <c r="J21" s="328"/>
-      <c r="K21" s="328"/>
-      <c r="L21" s="328"/>
-      <c r="M21" s="328"/>
-      <c r="N21" s="328"/>
-      <c r="O21" s="328"/>
-      <c r="P21" s="328"/>
-      <c r="Q21" s="328"/>
-      <c r="R21" s="328"/>
-      <c r="S21" s="328"/>
-      <c r="T21" s="328"/>
-      <c r="U21" s="328"/>
-      <c r="V21" s="328"/>
-      <c r="W21" s="328"/>
-      <c r="X21" s="328"/>
-      <c r="Y21" s="328"/>
-      <c r="Z21" s="328"/>
-      <c r="AA21" s="328"/>
-      <c r="AB21" s="328"/>
-      <c r="AC21" s="330"/>
+      <c r="H21" s="340"/>
+      <c r="I21" s="341"/>
+      <c r="J21" s="341"/>
+      <c r="K21" s="341"/>
+      <c r="L21" s="341"/>
+      <c r="M21" s="341"/>
+      <c r="N21" s="341"/>
+      <c r="O21" s="341"/>
+      <c r="P21" s="341"/>
+      <c r="Q21" s="341"/>
+      <c r="R21" s="341"/>
+      <c r="S21" s="341"/>
+      <c r="T21" s="341"/>
+      <c r="U21" s="341"/>
+      <c r="V21" s="341"/>
+      <c r="W21" s="341"/>
+      <c r="X21" s="341"/>
+      <c r="Y21" s="341"/>
+      <c r="Z21" s="341"/>
+      <c r="AA21" s="341"/>
+      <c r="AB21" s="341"/>
+      <c r="AC21" s="342"/>
       <c r="AD21" s="31"/>
       <c r="AE21" s="31"/>
       <c r="AF21" s="31"/>
@@ -22443,28 +22493,28 @@
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="329"/>
-      <c r="I22" s="328"/>
-      <c r="J22" s="328"/>
-      <c r="K22" s="328"/>
-      <c r="L22" s="328"/>
-      <c r="M22" s="328"/>
-      <c r="N22" s="328"/>
-      <c r="O22" s="328"/>
-      <c r="P22" s="328"/>
-      <c r="Q22" s="328"/>
-      <c r="R22" s="328"/>
-      <c r="S22" s="328"/>
-      <c r="T22" s="328"/>
-      <c r="U22" s="328"/>
-      <c r="V22" s="328"/>
-      <c r="W22" s="328"/>
-      <c r="X22" s="328"/>
-      <c r="Y22" s="328"/>
-      <c r="Z22" s="328"/>
-      <c r="AA22" s="328"/>
-      <c r="AB22" s="328"/>
-      <c r="AC22" s="330"/>
+      <c r="H22" s="340"/>
+      <c r="I22" s="341"/>
+      <c r="J22" s="341"/>
+      <c r="K22" s="341"/>
+      <c r="L22" s="341"/>
+      <c r="M22" s="341"/>
+      <c r="N22" s="341"/>
+      <c r="O22" s="341"/>
+      <c r="P22" s="341"/>
+      <c r="Q22" s="341"/>
+      <c r="R22" s="341"/>
+      <c r="S22" s="341"/>
+      <c r="T22" s="341"/>
+      <c r="U22" s="341"/>
+      <c r="V22" s="341"/>
+      <c r="W22" s="341"/>
+      <c r="X22" s="341"/>
+      <c r="Y22" s="341"/>
+      <c r="Z22" s="341"/>
+      <c r="AA22" s="341"/>
+      <c r="AB22" s="341"/>
+      <c r="AC22" s="342"/>
       <c r="AD22" s="31"/>
       <c r="AE22" s="31"/>
       <c r="AF22" s="31"/>
@@ -22485,28 +22535,28 @@
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="329"/>
-      <c r="I23" s="328"/>
-      <c r="J23" s="328"/>
-      <c r="K23" s="328"/>
-      <c r="L23" s="328"/>
-      <c r="M23" s="328"/>
-      <c r="N23" s="328"/>
-      <c r="O23" s="328"/>
-      <c r="P23" s="328"/>
-      <c r="Q23" s="328"/>
-      <c r="R23" s="328"/>
-      <c r="S23" s="328"/>
-      <c r="T23" s="328"/>
-      <c r="U23" s="328"/>
-      <c r="V23" s="328"/>
-      <c r="W23" s="328"/>
-      <c r="X23" s="328"/>
-      <c r="Y23" s="328"/>
-      <c r="Z23" s="328"/>
-      <c r="AA23" s="328"/>
-      <c r="AB23" s="328"/>
-      <c r="AC23" s="330"/>
+      <c r="H23" s="340"/>
+      <c r="I23" s="341"/>
+      <c r="J23" s="341"/>
+      <c r="K23" s="341"/>
+      <c r="L23" s="341"/>
+      <c r="M23" s="341"/>
+      <c r="N23" s="341"/>
+      <c r="O23" s="341"/>
+      <c r="P23" s="341"/>
+      <c r="Q23" s="341"/>
+      <c r="R23" s="341"/>
+      <c r="S23" s="341"/>
+      <c r="T23" s="341"/>
+      <c r="U23" s="341"/>
+      <c r="V23" s="341"/>
+      <c r="W23" s="341"/>
+      <c r="X23" s="341"/>
+      <c r="Y23" s="341"/>
+      <c r="Z23" s="341"/>
+      <c r="AA23" s="341"/>
+      <c r="AB23" s="341"/>
+      <c r="AC23" s="342"/>
       <c r="AD23" s="31"/>
       <c r="AE23" s="31"/>
       <c r="AF23" s="31"/>
@@ -22527,28 +22577,28 @@
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="329"/>
-      <c r="I24" s="328"/>
-      <c r="J24" s="328"/>
-      <c r="K24" s="328"/>
-      <c r="L24" s="328"/>
-      <c r="M24" s="328"/>
-      <c r="N24" s="328"/>
-      <c r="O24" s="328"/>
-      <c r="P24" s="328"/>
-      <c r="Q24" s="328"/>
-      <c r="R24" s="328"/>
-      <c r="S24" s="328"/>
-      <c r="T24" s="328"/>
-      <c r="U24" s="328"/>
-      <c r="V24" s="328"/>
-      <c r="W24" s="328"/>
-      <c r="X24" s="328"/>
-      <c r="Y24" s="328"/>
-      <c r="Z24" s="328"/>
-      <c r="AA24" s="328"/>
-      <c r="AB24" s="328"/>
-      <c r="AC24" s="330"/>
+      <c r="H24" s="340"/>
+      <c r="I24" s="341"/>
+      <c r="J24" s="341"/>
+      <c r="K24" s="341"/>
+      <c r="L24" s="341"/>
+      <c r="M24" s="341"/>
+      <c r="N24" s="341"/>
+      <c r="O24" s="341"/>
+      <c r="P24" s="341"/>
+      <c r="Q24" s="341"/>
+      <c r="R24" s="341"/>
+      <c r="S24" s="341"/>
+      <c r="T24" s="341"/>
+      <c r="U24" s="341"/>
+      <c r="V24" s="341"/>
+      <c r="W24" s="341"/>
+      <c r="X24" s="341"/>
+      <c r="Y24" s="341"/>
+      <c r="Z24" s="341"/>
+      <c r="AA24" s="341"/>
+      <c r="AB24" s="341"/>
+      <c r="AC24" s="342"/>
       <c r="AD24" s="31"/>
       <c r="AE24" s="31"/>
       <c r="AF24" s="31"/>
@@ -22569,28 +22619,28 @@
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="329"/>
-      <c r="I25" s="328"/>
-      <c r="J25" s="328"/>
-      <c r="K25" s="328"/>
-      <c r="L25" s="328"/>
-      <c r="M25" s="328"/>
-      <c r="N25" s="328"/>
-      <c r="O25" s="328"/>
-      <c r="P25" s="328"/>
-      <c r="Q25" s="328"/>
-      <c r="R25" s="328"/>
-      <c r="S25" s="328"/>
-      <c r="T25" s="328"/>
-      <c r="U25" s="328"/>
-      <c r="V25" s="328"/>
-      <c r="W25" s="328"/>
-      <c r="X25" s="328"/>
-      <c r="Y25" s="328"/>
-      <c r="Z25" s="328"/>
-      <c r="AA25" s="328"/>
-      <c r="AB25" s="328"/>
-      <c r="AC25" s="330"/>
+      <c r="H25" s="340"/>
+      <c r="I25" s="341"/>
+      <c r="J25" s="341"/>
+      <c r="K25" s="341"/>
+      <c r="L25" s="341"/>
+      <c r="M25" s="341"/>
+      <c r="N25" s="341"/>
+      <c r="O25" s="341"/>
+      <c r="P25" s="341"/>
+      <c r="Q25" s="341"/>
+      <c r="R25" s="341"/>
+      <c r="S25" s="341"/>
+      <c r="T25" s="341"/>
+      <c r="U25" s="341"/>
+      <c r="V25" s="341"/>
+      <c r="W25" s="341"/>
+      <c r="X25" s="341"/>
+      <c r="Y25" s="341"/>
+      <c r="Z25" s="341"/>
+      <c r="AA25" s="341"/>
+      <c r="AB25" s="341"/>
+      <c r="AC25" s="342"/>
       <c r="AD25" s="31"/>
       <c r="AE25" s="31"/>
       <c r="AF25" s="31"/>
@@ -22611,28 +22661,28 @@
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="329"/>
-      <c r="I26" s="328"/>
-      <c r="J26" s="328"/>
-      <c r="K26" s="328"/>
-      <c r="L26" s="328"/>
-      <c r="M26" s="328"/>
-      <c r="N26" s="328"/>
-      <c r="O26" s="328"/>
-      <c r="P26" s="328"/>
-      <c r="Q26" s="328"/>
-      <c r="R26" s="328"/>
-      <c r="S26" s="328"/>
-      <c r="T26" s="328"/>
-      <c r="U26" s="328"/>
-      <c r="V26" s="328"/>
-      <c r="W26" s="328"/>
-      <c r="X26" s="328"/>
-      <c r="Y26" s="328"/>
-      <c r="Z26" s="328"/>
-      <c r="AA26" s="328"/>
-      <c r="AB26" s="328"/>
-      <c r="AC26" s="330"/>
+      <c r="H26" s="340"/>
+      <c r="I26" s="341"/>
+      <c r="J26" s="341"/>
+      <c r="K26" s="341"/>
+      <c r="L26" s="341"/>
+      <c r="M26" s="341"/>
+      <c r="N26" s="341"/>
+      <c r="O26" s="341"/>
+      <c r="P26" s="341"/>
+      <c r="Q26" s="341"/>
+      <c r="R26" s="341"/>
+      <c r="S26" s="341"/>
+      <c r="T26" s="341"/>
+      <c r="U26" s="341"/>
+      <c r="V26" s="341"/>
+      <c r="W26" s="341"/>
+      <c r="X26" s="341"/>
+      <c r="Y26" s="341"/>
+      <c r="Z26" s="341"/>
+      <c r="AA26" s="341"/>
+      <c r="AB26" s="341"/>
+      <c r="AC26" s="342"/>
       <c r="AD26" s="31"/>
       <c r="AE26" s="31"/>
       <c r="AF26" s="31"/>
@@ -22653,28 +22703,28 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="329"/>
-      <c r="I27" s="328"/>
-      <c r="J27" s="328"/>
-      <c r="K27" s="328"/>
-      <c r="L27" s="328"/>
-      <c r="M27" s="328"/>
-      <c r="N27" s="328"/>
-      <c r="O27" s="328"/>
-      <c r="P27" s="328"/>
-      <c r="Q27" s="328"/>
-      <c r="R27" s="328"/>
-      <c r="S27" s="328"/>
-      <c r="T27" s="328"/>
-      <c r="U27" s="328"/>
-      <c r="V27" s="328"/>
-      <c r="W27" s="328"/>
-      <c r="X27" s="328"/>
-      <c r="Y27" s="328"/>
-      <c r="Z27" s="328"/>
-      <c r="AA27" s="328"/>
-      <c r="AB27" s="328"/>
-      <c r="AC27" s="330"/>
+      <c r="H27" s="340"/>
+      <c r="I27" s="341"/>
+      <c r="J27" s="341"/>
+      <c r="K27" s="341"/>
+      <c r="L27" s="341"/>
+      <c r="M27" s="341"/>
+      <c r="N27" s="341"/>
+      <c r="O27" s="341"/>
+      <c r="P27" s="341"/>
+      <c r="Q27" s="341"/>
+      <c r="R27" s="341"/>
+      <c r="S27" s="341"/>
+      <c r="T27" s="341"/>
+      <c r="U27" s="341"/>
+      <c r="V27" s="341"/>
+      <c r="W27" s="341"/>
+      <c r="X27" s="341"/>
+      <c r="Y27" s="341"/>
+      <c r="Z27" s="341"/>
+      <c r="AA27" s="341"/>
+      <c r="AB27" s="341"/>
+      <c r="AC27" s="342"/>
       <c r="AD27" s="31"/>
       <c r="AE27" s="31"/>
       <c r="AF27" s="31"/>
@@ -22695,28 +22745,28 @@
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="329"/>
-      <c r="I28" s="328"/>
-      <c r="J28" s="328"/>
-      <c r="K28" s="328"/>
-      <c r="L28" s="328"/>
-      <c r="M28" s="328"/>
-      <c r="N28" s="328"/>
-      <c r="O28" s="328"/>
-      <c r="P28" s="328"/>
-      <c r="Q28" s="328"/>
-      <c r="R28" s="328"/>
-      <c r="S28" s="328"/>
-      <c r="T28" s="328"/>
-      <c r="U28" s="328"/>
-      <c r="V28" s="328"/>
-      <c r="W28" s="328"/>
-      <c r="X28" s="328"/>
-      <c r="Y28" s="328"/>
-      <c r="Z28" s="328"/>
-      <c r="AA28" s="328"/>
-      <c r="AB28" s="328"/>
-      <c r="AC28" s="330"/>
+      <c r="H28" s="340"/>
+      <c r="I28" s="341"/>
+      <c r="J28" s="341"/>
+      <c r="K28" s="341"/>
+      <c r="L28" s="341"/>
+      <c r="M28" s="341"/>
+      <c r="N28" s="341"/>
+      <c r="O28" s="341"/>
+      <c r="P28" s="341"/>
+      <c r="Q28" s="341"/>
+      <c r="R28" s="341"/>
+      <c r="S28" s="341"/>
+      <c r="T28" s="341"/>
+      <c r="U28" s="341"/>
+      <c r="V28" s="341"/>
+      <c r="W28" s="341"/>
+      <c r="X28" s="341"/>
+      <c r="Y28" s="341"/>
+      <c r="Z28" s="341"/>
+      <c r="AA28" s="341"/>
+      <c r="AB28" s="341"/>
+      <c r="AC28" s="342"/>
       <c r="AD28" s="31"/>
       <c r="AE28" s="31"/>
       <c r="AF28" s="31"/>
@@ -22737,28 +22787,28 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="331"/>
-      <c r="I29" s="332"/>
-      <c r="J29" s="332"/>
-      <c r="K29" s="332"/>
-      <c r="L29" s="332"/>
-      <c r="M29" s="332"/>
-      <c r="N29" s="332"/>
-      <c r="O29" s="332"/>
-      <c r="P29" s="332"/>
-      <c r="Q29" s="332"/>
-      <c r="R29" s="332"/>
-      <c r="S29" s="332"/>
-      <c r="T29" s="332"/>
-      <c r="U29" s="332"/>
-      <c r="V29" s="332"/>
-      <c r="W29" s="332"/>
-      <c r="X29" s="332"/>
-      <c r="Y29" s="332"/>
-      <c r="Z29" s="332"/>
-      <c r="AA29" s="332"/>
-      <c r="AB29" s="332"/>
-      <c r="AC29" s="333"/>
+      <c r="H29" s="343"/>
+      <c r="I29" s="344"/>
+      <c r="J29" s="344"/>
+      <c r="K29" s="344"/>
+      <c r="L29" s="344"/>
+      <c r="M29" s="344"/>
+      <c r="N29" s="344"/>
+      <c r="O29" s="344"/>
+      <c r="P29" s="344"/>
+      <c r="Q29" s="344"/>
+      <c r="R29" s="344"/>
+      <c r="S29" s="344"/>
+      <c r="T29" s="344"/>
+      <c r="U29" s="344"/>
+      <c r="V29" s="344"/>
+      <c r="W29" s="344"/>
+      <c r="X29" s="344"/>
+      <c r="Y29" s="344"/>
+      <c r="Z29" s="344"/>
+      <c r="AA29" s="344"/>
+      <c r="AB29" s="344"/>
+      <c r="AC29" s="345"/>
       <c r="AD29" s="31"/>
       <c r="AE29" s="31"/>
       <c r="AF29" s="31"/>
@@ -22785,22 +22835,22 @@
       <c r="K30" s="31"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
-      <c r="N30" s="304"/>
-      <c r="O30" s="304"/>
-      <c r="P30" s="304"/>
-      <c r="Q30" s="304"/>
-      <c r="R30" s="304"/>
-      <c r="S30" s="304"/>
-      <c r="T30" s="304"/>
-      <c r="U30" s="304"/>
-      <c r="V30" s="304"/>
-      <c r="W30" s="304"/>
-      <c r="X30" s="304"/>
-      <c r="Y30" s="304"/>
-      <c r="Z30" s="304"/>
-      <c r="AA30" s="304"/>
-      <c r="AB30" s="304"/>
-      <c r="AC30" s="304"/>
+      <c r="N30" s="335"/>
+      <c r="O30" s="335"/>
+      <c r="P30" s="335"/>
+      <c r="Q30" s="335"/>
+      <c r="R30" s="335"/>
+      <c r="S30" s="335"/>
+      <c r="T30" s="335"/>
+      <c r="U30" s="335"/>
+      <c r="V30" s="335"/>
+      <c r="W30" s="335"/>
+      <c r="X30" s="335"/>
+      <c r="Y30" s="335"/>
+      <c r="Z30" s="335"/>
+      <c r="AA30" s="335"/>
+      <c r="AB30" s="335"/>
+      <c r="AC30" s="335"/>
       <c r="AD30" s="31"/>
       <c r="AE30" s="31"/>
       <c r="AF30" s="31"/>
@@ -22827,22 +22877,22 @@
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="334"/>
-      <c r="O31" s="334"/>
-      <c r="P31" s="334"/>
-      <c r="Q31" s="334"/>
-      <c r="R31" s="334"/>
-      <c r="S31" s="334"/>
-      <c r="T31" s="334"/>
-      <c r="U31" s="334"/>
-      <c r="V31" s="334"/>
-      <c r="W31" s="334"/>
-      <c r="X31" s="334"/>
-      <c r="Y31" s="334"/>
-      <c r="Z31" s="334"/>
-      <c r="AA31" s="334"/>
-      <c r="AB31" s="334"/>
-      <c r="AC31" s="334"/>
+      <c r="N31" s="235"/>
+      <c r="O31" s="235"/>
+      <c r="P31" s="235"/>
+      <c r="Q31" s="235"/>
+      <c r="R31" s="235"/>
+      <c r="S31" s="235"/>
+      <c r="T31" s="235"/>
+      <c r="U31" s="235"/>
+      <c r="V31" s="235"/>
+      <c r="W31" s="235"/>
+      <c r="X31" s="235"/>
+      <c r="Y31" s="235"/>
+      <c r="Z31" s="235"/>
+      <c r="AA31" s="235"/>
+      <c r="AB31" s="235"/>
+      <c r="AC31" s="235"/>
       <c r="AD31" s="31"/>
       <c r="AE31" s="31"/>
       <c r="AF31" s="31"/>
@@ -22869,22 +22919,22 @@
       <c r="K32" s="31"/>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
-      <c r="N32" s="308"/>
-      <c r="O32" s="308"/>
-      <c r="P32" s="308"/>
-      <c r="Q32" s="308"/>
-      <c r="R32" s="308"/>
-      <c r="S32" s="308"/>
-      <c r="T32" s="308"/>
-      <c r="U32" s="308"/>
-      <c r="V32" s="308"/>
-      <c r="W32" s="308"/>
-      <c r="X32" s="308"/>
-      <c r="Y32" s="308"/>
-      <c r="Z32" s="308"/>
-      <c r="AA32" s="308"/>
-      <c r="AB32" s="308"/>
-      <c r="AC32" s="308"/>
+      <c r="N32" s="318"/>
+      <c r="O32" s="318"/>
+      <c r="P32" s="318"/>
+      <c r="Q32" s="318"/>
+      <c r="R32" s="318"/>
+      <c r="S32" s="318"/>
+      <c r="T32" s="318"/>
+      <c r="U32" s="318"/>
+      <c r="V32" s="318"/>
+      <c r="W32" s="318"/>
+      <c r="X32" s="318"/>
+      <c r="Y32" s="318"/>
+      <c r="Z32" s="318"/>
+      <c r="AA32" s="318"/>
+      <c r="AB32" s="318"/>
+      <c r="AC32" s="318"/>
       <c r="AD32" s="31"/>
       <c r="AE32" s="31"/>
       <c r="AF32" s="31"/>
@@ -22914,7 +22964,7 @@
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
-      <c r="Q33" s="320"/>
+      <c r="Q33" s="234"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31"/>
       <c r="T33" s="31"/>
@@ -23729,15 +23779,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="238"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="255"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -24142,43 +24192,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="239" t="s">
+      <c r="B1" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="239" t="s">
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240"/>
-      <c r="O1" s="240"/>
-      <c r="P1" s="240"/>
-      <c r="Q1" s="240"/>
-      <c r="R1" s="240"/>
-      <c r="S1" s="240"/>
-      <c r="T1" s="240"/>
-      <c r="U1" s="240"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="240"/>
-      <c r="X1" s="240"/>
-      <c r="Y1" s="240"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="240"/>
-      <c r="AB1" s="240"/>
-      <c r="AC1" s="240"/>
-      <c r="AD1" s="240"/>
-      <c r="AE1" s="240"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="240"/>
-      <c r="AH1" s="241"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="257"/>
+      <c r="AB1" s="257"/>
+      <c r="AC1" s="257"/>
+      <c r="AD1" s="257"/>
+      <c r="AE1" s="257"/>
+      <c r="AF1" s="257"/>
+      <c r="AG1" s="257"/>
+      <c r="AH1" s="258"/>
       <c r="AI1" s="20" t="s">
         <v>5</v>
       </c>
@@ -24211,39 +24261,39 @@
       <c r="BJ1" s="19"/>
     </row>
     <row r="2" spans="2:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="227"/>
-      <c r="M2" s="227"/>
-      <c r="N2" s="227"/>
-      <c r="O2" s="227"/>
-      <c r="P2" s="227"/>
-      <c r="Q2" s="227"/>
-      <c r="R2" s="227"/>
-      <c r="S2" s="227"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="227"/>
-      <c r="AB2" s="227"/>
-      <c r="AC2" s="227"/>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="227"/>
-      <c r="AG2" s="227"/>
-      <c r="AH2" s="228"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="244"/>
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="244"/>
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244"/>
+      <c r="AF2" s="244"/>
+      <c r="AG2" s="244"/>
+      <c r="AH2" s="245"/>
       <c r="AI2" s="23" t="s">
         <v>3</v>
       </c>
@@ -24276,39 +24326,39 @@
       <c r="BJ2" s="19"/>
     </row>
     <row r="3" spans="2:62" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="229"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="230"/>
-      <c r="O3" s="230"/>
-      <c r="P3" s="230"/>
-      <c r="Q3" s="230"/>
-      <c r="R3" s="230"/>
-      <c r="S3" s="230"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="230"/>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="230"/>
-      <c r="AB3" s="230"/>
-      <c r="AC3" s="230"/>
-      <c r="AD3" s="230"/>
-      <c r="AE3" s="230"/>
-      <c r="AF3" s="230"/>
-      <c r="AG3" s="230"/>
-      <c r="AH3" s="231"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="248"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="247"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="247"/>
+      <c r="AA3" s="247"/>
+      <c r="AB3" s="247"/>
+      <c r="AC3" s="247"/>
+      <c r="AD3" s="247"/>
+      <c r="AE3" s="247"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="247"/>
+      <c r="AH3" s="248"/>
       <c r="AI3" s="25"/>
       <c r="AJ3" s="26"/>
       <c r="AK3" s="26"/>
@@ -24340,11 +24390,11 @@
       <c r="H4" s="76"/>
       <c r="I4" s="76"/>
       <c r="J4" s="77"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="243"/>
-      <c r="M4" s="243"/>
-      <c r="N4" s="243"/>
-      <c r="O4" s="244"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="260"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="261"/>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
@@ -24478,18 +24528,18 @@
       <c r="R7" s="189" t="s">
         <v>145</v>
       </c>
-      <c r="S7" s="245"/>
-      <c r="T7" s="246"/>
-      <c r="U7" s="246"/>
-      <c r="V7" s="246"/>
-      <c r="W7" s="246"/>
-      <c r="X7" s="246"/>
-      <c r="Y7" s="246"/>
-      <c r="Z7" s="246"/>
-      <c r="AA7" s="246"/>
-      <c r="AB7" s="246"/>
-      <c r="AC7" s="246"/>
-      <c r="AD7" s="247"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="263"/>
+      <c r="U7" s="263"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="263"/>
+      <c r="X7" s="263"/>
+      <c r="Y7" s="263"/>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="263"/>
+      <c r="AC7" s="263"/>
+      <c r="AD7" s="264"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
@@ -24521,25 +24571,25 @@
       <c r="R8" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="S8" s="245"/>
-      <c r="T8" s="246"/>
-      <c r="U8" s="246"/>
-      <c r="V8" s="246"/>
-      <c r="W8" s="246"/>
-      <c r="X8" s="246"/>
-      <c r="Y8" s="246"/>
-      <c r="Z8" s="246"/>
-      <c r="AA8" s="246"/>
-      <c r="AB8" s="246"/>
-      <c r="AC8" s="246"/>
-      <c r="AD8" s="247"/>
+      <c r="S8" s="262"/>
+      <c r="T8" s="263"/>
+      <c r="U8" s="263"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="263"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="263"/>
+      <c r="AA8" s="263"/>
+      <c r="AB8" s="263"/>
+      <c r="AC8" s="263"/>
+      <c r="AD8" s="264"/>
       <c r="AE8" s="7"/>
-      <c r="AF8" s="248" t="s">
+      <c r="AF8" s="265" t="s">
         <v>37</v>
       </c>
-      <c r="AG8" s="249"/>
-      <c r="AH8" s="249"/>
-      <c r="AI8" s="250"/>
+      <c r="AG8" s="266"/>
+      <c r="AH8" s="266"/>
+      <c r="AI8" s="267"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
@@ -25592,15 +25642,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="238"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="255"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -26103,17 +26153,17 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="251" t="s">
+      <c r="B3" s="268" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="253"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="270"/>
       <c r="K3" s="33" t="s">
         <v>6</v>
       </c>
@@ -26298,20 +26348,20 @@
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="254" t="s">
+      <c r="C15" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="255"/>
+      <c r="D15" s="272"/>
       <c r="E15" s="186"/>
-      <c r="F15" s="256" t="s">
+      <c r="F15" s="273" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="257"/>
+      <c r="G15" s="274"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="254" t="s">
+      <c r="I15" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="255"/>
+      <c r="J15" s="272"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26534,15 +26584,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="238"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="255"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -27074,14 +27124,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="228"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="245"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -27119,12 +27169,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="226"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="245"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -27165,12 +27215,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="245"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -27207,12 +27257,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="245"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>172</v>
@@ -27353,36 +27403,36 @@
       <c r="I7" s="8"/>
       <c r="J7" s="86"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="261" t="s">
+      <c r="L7" s="278" t="s">
         <v>167</v>
       </c>
-      <c r="M7" s="261"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="261"/>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="261"/>
-      <c r="S7" s="261"/>
-      <c r="T7" s="261"/>
-      <c r="U7" s="261"/>
-      <c r="V7" s="261"/>
-      <c r="W7" s="261"/>
-      <c r="X7" s="261"/>
-      <c r="Y7" s="261"/>
-      <c r="Z7" s="261"/>
-      <c r="AA7" s="261"/>
-      <c r="AB7" s="261"/>
-      <c r="AC7" s="261"/>
-      <c r="AD7" s="261"/>
-      <c r="AE7" s="261"/>
-      <c r="AF7" s="261"/>
-      <c r="AG7" s="261"/>
-      <c r="AH7" s="261"/>
-      <c r="AI7" s="261"/>
-      <c r="AJ7" s="261"/>
-      <c r="AK7" s="261"/>
-      <c r="AL7" s="261"/>
-      <c r="AM7" s="261"/>
+      <c r="M7" s="278"/>
+      <c r="N7" s="278"/>
+      <c r="O7" s="278"/>
+      <c r="P7" s="278"/>
+      <c r="Q7" s="278"/>
+      <c r="R7" s="278"/>
+      <c r="S7" s="278"/>
+      <c r="T7" s="278"/>
+      <c r="U7" s="278"/>
+      <c r="V7" s="278"/>
+      <c r="W7" s="278"/>
+      <c r="X7" s="278"/>
+      <c r="Y7" s="278"/>
+      <c r="Z7" s="278"/>
+      <c r="AA7" s="278"/>
+      <c r="AB7" s="278"/>
+      <c r="AC7" s="278"/>
+      <c r="AD7" s="278"/>
+      <c r="AE7" s="278"/>
+      <c r="AF7" s="278"/>
+      <c r="AG7" s="278"/>
+      <c r="AH7" s="278"/>
+      <c r="AI7" s="278"/>
+      <c r="AJ7" s="278"/>
+      <c r="AK7" s="278"/>
+      <c r="AL7" s="278"/>
+      <c r="AM7" s="278"/>
       <c r="AN7" s="8"/>
       <c r="AO7" s="12"/>
     </row>
@@ -27404,23 +27454,23 @@
       <c r="N8" s="197" t="s">
         <v>165</v>
       </c>
-      <c r="O8" s="262"/>
-      <c r="P8" s="263"/>
-      <c r="Q8" s="263"/>
-      <c r="R8" s="263"/>
-      <c r="S8" s="263"/>
-      <c r="T8" s="263"/>
-      <c r="U8" s="263"/>
-      <c r="V8" s="263"/>
-      <c r="W8" s="263"/>
-      <c r="X8" s="263"/>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
-      <c r="AD8" s="263"/>
-      <c r="AE8" s="264"/>
+      <c r="O8" s="279"/>
+      <c r="P8" s="280"/>
+      <c r="Q8" s="280"/>
+      <c r="R8" s="280"/>
+      <c r="S8" s="280"/>
+      <c r="T8" s="280"/>
+      <c r="U8" s="280"/>
+      <c r="V8" s="280"/>
+      <c r="W8" s="280"/>
+      <c r="X8" s="280"/>
+      <c r="Y8" s="280"/>
+      <c r="Z8" s="280"/>
+      <c r="AA8" s="280"/>
+      <c r="AB8" s="280"/>
+      <c r="AC8" s="280"/>
+      <c r="AD8" s="280"/>
+      <c r="AE8" s="281"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
@@ -27475,21 +27525,21 @@
       <c r="N10" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="262"/>
-      <c r="P10" s="263"/>
-      <c r="Q10" s="263"/>
-      <c r="R10" s="263"/>
-      <c r="S10" s="264"/>
+      <c r="O10" s="279"/>
+      <c r="P10" s="280"/>
+      <c r="Q10" s="280"/>
+      <c r="R10" s="280"/>
+      <c r="S10" s="281"/>
       <c r="X10" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="262"/>
-      <c r="Z10" s="263"/>
-      <c r="AA10" s="263"/>
-      <c r="AB10" s="263"/>
-      <c r="AC10" s="263"/>
-      <c r="AD10" s="263"/>
-      <c r="AE10" s="264"/>
+      <c r="Y10" s="279"/>
+      <c r="Z10" s="280"/>
+      <c r="AA10" s="280"/>
+      <c r="AB10" s="280"/>
+      <c r="AC10" s="280"/>
+      <c r="AD10" s="280"/>
+      <c r="AE10" s="281"/>
       <c r="AN10" s="8"/>
       <c r="AO10" s="12"/>
     </row>
@@ -27524,11 +27574,11 @@
         <v>56</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="265">
+      <c r="N12" s="282">
         <v>10</v>
       </c>
-      <c r="O12" s="266"/>
-      <c r="P12" s="267"/>
+      <c r="O12" s="283"/>
+      <c r="P12" s="284"/>
       <c r="Q12" s="78" t="s">
         <v>184</v>
       </c>
@@ -28019,15 +28069,15 @@
     </row>
     <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="258" t="s">
+      <c r="C23" s="275" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="258"/>
-      <c r="E23" s="258"/>
-      <c r="F23" s="258"/>
-      <c r="G23" s="258"/>
-      <c r="H23" s="258"/>
-      <c r="I23" s="258"/>
+      <c r="D23" s="275"/>
+      <c r="E23" s="275"/>
+      <c r="F23" s="275"/>
+      <c r="G23" s="275"/>
+      <c r="H23" s="275"/>
+      <c r="I23" s="275"/>
       <c r="J23" s="104"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -28063,15 +28113,15 @@
     </row>
     <row r="24" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="259" t="s">
+      <c r="C24" s="276" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="259"/>
-      <c r="E24" s="259"/>
-      <c r="F24" s="259"/>
-      <c r="G24" s="259"/>
-      <c r="H24" s="259"/>
-      <c r="I24" s="259"/>
+      <c r="D24" s="276"/>
+      <c r="E24" s="276"/>
+      <c r="F24" s="276"/>
+      <c r="G24" s="276"/>
+      <c r="H24" s="276"/>
+      <c r="I24" s="276"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -28107,15 +28157,15 @@
     </row>
     <row r="25" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="74"/>
-      <c r="C25" s="259" t="s">
+      <c r="C25" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="260"/>
-      <c r="E25" s="260"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="260"/>
-      <c r="H25" s="260"/>
-      <c r="I25" s="260"/>
+      <c r="D25" s="277"/>
+      <c r="E25" s="277"/>
+      <c r="F25" s="277"/>
+      <c r="G25" s="277"/>
+      <c r="H25" s="277"/>
+      <c r="I25" s="277"/>
       <c r="J25" s="87"/>
       <c r="K25" s="31"/>
       <c r="L25" s="31"/>
@@ -28996,15 +29046,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="238"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="255"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">

--- a/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Agent.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Agent.xlsx
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="500">
   <si>
     <t>Logo</t>
   </si>
@@ -1875,6 +1875,9 @@
   </si>
   <si>
     <t>UC0313</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -3092,6 +3095,21 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3245,23 +3263,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3281,14 +3290,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3307,21 +3325,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4215,7 +4218,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4226,7 +4229,8 @@
     <col min="4" max="4" width="28.42578125" style="130" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="130" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" style="130" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="130"/>
+    <col min="7" max="7" width="9.140625" style="130"/>
+    <col min="8" max="8" width="10.140625" style="130" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="130" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="130"/>
   </cols>
@@ -4235,144 +4239,144 @@
       <c r="B1" s="148" t="s">
         <v>465</v>
       </c>
-      <c r="C1" s="296" t="s">
+      <c r="C1" s="224" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="297" t="s">
+      <c r="B3" s="225" t="s">
         <v>467</v>
       </c>
-      <c r="C3" s="297" t="s">
+      <c r="C3" s="225" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="297" t="s">
+      <c r="D3" s="225" t="s">
         <v>469</v>
       </c>
-      <c r="E3" s="297" t="s">
+      <c r="E3" s="225" t="s">
         <v>470</v>
       </c>
-      <c r="F3" s="297" t="s">
+      <c r="F3" s="225" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="298" t="s">
+      <c r="G3" s="226" t="s">
         <v>471</v>
       </c>
-      <c r="H3" s="298" t="s">
+      <c r="H3" s="226" t="s">
         <v>472</v>
       </c>
-      <c r="I3" s="298" t="s">
+      <c r="I3" s="226" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="299">
+      <c r="A4" s="227">
         <v>1</v>
       </c>
-      <c r="B4" s="300" t="s">
+      <c r="B4" s="230" t="s">
         <v>473</v>
       </c>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="227" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="299" t="s">
+      <c r="D4" s="227" t="s">
         <v>369</v>
       </c>
-      <c r="E4" s="299" t="s">
+      <c r="E4" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="F4" s="299"/>
+      <c r="F4" s="227"/>
       <c r="G4" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="H4" s="301" t="s">
+      <c r="H4" s="228" t="s">
         <v>477</v>
       </c>
       <c r="I4" s="142"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="299">
+      <c r="A5" s="227">
         <v>2</v>
       </c>
-      <c r="B5" s="302"/>
-      <c r="C5" s="299" t="s">
+      <c r="B5" s="231"/>
+      <c r="C5" s="227" t="s">
         <v>478</v>
       </c>
-      <c r="D5" s="299" t="s">
+      <c r="D5" s="227" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="299" t="s">
+      <c r="E5" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="F5" s="299"/>
+      <c r="F5" s="227"/>
       <c r="G5" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="H5" s="303" t="s">
-        <v>477</v>
+      <c r="H5" s="229" t="s">
+        <v>499</v>
       </c>
       <c r="I5" s="142"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="299">
+      <c r="A6" s="227">
         <v>3</v>
       </c>
-      <c r="B6" s="302"/>
-      <c r="C6" s="299" t="s">
+      <c r="B6" s="231"/>
+      <c r="C6" s="227" t="s">
         <v>479</v>
       </c>
-      <c r="D6" s="299" t="s">
+      <c r="D6" s="227" t="s">
         <v>480</v>
       </c>
-      <c r="E6" s="299" t="s">
+      <c r="E6" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="F6" s="299"/>
+      <c r="F6" s="227"/>
       <c r="G6" s="142" t="s">
         <v>476</v>
       </c>
       <c r="H6" s="142" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="I6" s="142"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="299"/>
-      <c r="B7" s="302"/>
-      <c r="C7" s="299" t="s">
+      <c r="A7" s="227"/>
+      <c r="B7" s="231"/>
+      <c r="C7" s="227" t="s">
         <v>481</v>
       </c>
-      <c r="D7" s="299" t="s">
+      <c r="D7" s="227" t="s">
         <v>482</v>
       </c>
-      <c r="E7" s="299" t="s">
+      <c r="E7" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="F7" s="299"/>
+      <c r="F7" s="227"/>
       <c r="G7" s="142" t="s">
         <v>476</v>
       </c>
       <c r="H7" s="142" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="I7" s="142"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="299"/>
-      <c r="B8" s="302"/>
-      <c r="C8" s="299" t="s">
+      <c r="A8" s="227"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="227" t="s">
         <v>483</v>
       </c>
-      <c r="D8" s="299" t="s">
+      <c r="D8" s="227" t="s">
         <v>484</v>
       </c>
-      <c r="E8" s="299" t="s">
+      <c r="E8" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="F8" s="299"/>
+      <c r="F8" s="227"/>
       <c r="G8" s="142" t="s">
         <v>476</v>
       </c>
@@ -4382,18 +4386,18 @@
       <c r="I8" s="142"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="299"/>
-      <c r="B9" s="302"/>
-      <c r="C9" s="299" t="s">
+      <c r="A9" s="227"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="227" t="s">
         <v>485</v>
       </c>
-      <c r="D9" s="299" t="s">
+      <c r="D9" s="227" t="s">
         <v>486</v>
       </c>
-      <c r="E9" s="299" t="s">
+      <c r="E9" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="F9" s="299"/>
+      <c r="F9" s="227"/>
       <c r="G9" s="142" t="s">
         <v>476</v>
       </c>
@@ -4405,18 +4409,18 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="299"/>
-      <c r="B10" s="302"/>
-      <c r="C10" s="299" t="s">
+      <c r="A10" s="227"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="227" t="s">
         <v>487</v>
       </c>
-      <c r="D10" s="299" t="s">
+      <c r="D10" s="227" t="s">
         <v>488</v>
       </c>
-      <c r="E10" s="299" t="s">
+      <c r="E10" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="F10" s="299"/>
+      <c r="F10" s="227"/>
       <c r="G10" s="142" t="s">
         <v>476</v>
       </c>
@@ -4426,18 +4430,18 @@
       <c r="I10" s="142"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="299"/>
-      <c r="B11" s="302"/>
-      <c r="C11" s="299" t="s">
+      <c r="A11" s="227"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="227" t="s">
         <v>489</v>
       </c>
-      <c r="D11" s="299" t="s">
+      <c r="D11" s="227" t="s">
         <v>490</v>
       </c>
-      <c r="E11" s="299" t="s">
+      <c r="E11" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="F11" s="299"/>
+      <c r="F11" s="227"/>
       <c r="G11" s="142" t="s">
         <v>476</v>
       </c>
@@ -4447,18 +4451,18 @@
       <c r="I11" s="142"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="299"/>
-      <c r="B12" s="302"/>
-      <c r="C12" s="299" t="s">
+      <c r="A12" s="227"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="227" t="s">
         <v>491</v>
       </c>
-      <c r="D12" s="299" t="s">
+      <c r="D12" s="227" t="s">
         <v>492</v>
       </c>
-      <c r="E12" s="299" t="s">
+      <c r="E12" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="F12" s="299"/>
+      <c r="F12" s="227"/>
       <c r="G12" s="142" t="s">
         <v>476</v>
       </c>
@@ -4468,18 +4472,18 @@
       <c r="I12" s="142"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="299"/>
-      <c r="B13" s="302"/>
-      <c r="C13" s="299" t="s">
+      <c r="A13" s="227"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="227" t="s">
         <v>493</v>
       </c>
-      <c r="D13" s="299" t="s">
+      <c r="D13" s="227" t="s">
         <v>494</v>
       </c>
-      <c r="E13" s="299" t="s">
+      <c r="E13" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="299"/>
+      <c r="F13" s="227"/>
       <c r="G13" s="142" t="s">
         <v>476</v>
       </c>
@@ -4489,18 +4493,18 @@
       <c r="I13" s="142"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="299"/>
-      <c r="B14" s="302"/>
-      <c r="C14" s="299" t="s">
+      <c r="A14" s="227"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="227" t="s">
         <v>495</v>
       </c>
-      <c r="D14" s="299" t="s">
+      <c r="D14" s="227" t="s">
         <v>496</v>
       </c>
-      <c r="E14" s="299" t="s">
+      <c r="E14" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="F14" s="299"/>
+      <c r="F14" s="227"/>
       <c r="G14" s="142" t="s">
         <v>476</v>
       </c>
@@ -4510,179 +4514,179 @@
       <c r="I14" s="142"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="299"/>
-      <c r="B15" s="302"/>
-      <c r="C15" s="299" t="s">
+      <c r="A15" s="227"/>
+      <c r="B15" s="231"/>
+      <c r="C15" s="227" t="s">
         <v>497</v>
       </c>
-      <c r="F15" s="299"/>
+      <c r="F15" s="227"/>
       <c r="G15" s="142"/>
       <c r="H15" s="142"/>
       <c r="I15" s="142"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="299"/>
-      <c r="B16" s="304"/>
-      <c r="C16" s="299" t="s">
+      <c r="A16" s="227"/>
+      <c r="B16" s="232"/>
+      <c r="C16" s="227" t="s">
         <v>498</v>
       </c>
-      <c r="D16" s="299"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="227"/>
+      <c r="F16" s="227"/>
       <c r="G16" s="142"/>
       <c r="H16" s="142"/>
       <c r="I16" s="142"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="299"/>
-      <c r="B17" s="299"/>
-      <c r="C17" s="299"/>
-      <c r="D17" s="299"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
+      <c r="A17" s="227"/>
+      <c r="B17" s="227"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="227"/>
+      <c r="F17" s="227"/>
       <c r="G17" s="142"/>
       <c r="H17" s="142"/>
       <c r="I17" s="142"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="299"/>
-      <c r="B18" s="299"/>
-      <c r="C18" s="299"/>
-      <c r="D18" s="299"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
+      <c r="A18" s="227"/>
+      <c r="B18" s="227"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="227"/>
+      <c r="E18" s="227"/>
+      <c r="F18" s="227"/>
       <c r="G18" s="142"/>
       <c r="H18" s="142"/>
       <c r="I18" s="142"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="299"/>
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
+      <c r="A19" s="227"/>
+      <c r="B19" s="227"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
       <c r="G19" s="142"/>
       <c r="H19" s="142"/>
       <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="299"/>
-      <c r="B20" s="299"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
+      <c r="A20" s="227"/>
+      <c r="B20" s="227"/>
+      <c r="C20" s="227"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="227"/>
+      <c r="F20" s="227"/>
       <c r="G20" s="142"/>
       <c r="H20" s="142"/>
       <c r="I20" s="142"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="299"/>
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
+      <c r="A21" s="227"/>
+      <c r="B21" s="227"/>
+      <c r="C21" s="227"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="227"/>
+      <c r="F21" s="227"/>
       <c r="G21" s="142"/>
       <c r="H21" s="142"/>
       <c r="I21" s="142"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="299"/>
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
+      <c r="A22" s="227"/>
+      <c r="B22" s="227"/>
+      <c r="C22" s="227"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="227"/>
+      <c r="F22" s="227"/>
       <c r="G22" s="142"/>
       <c r="H22" s="142"/>
       <c r="I22" s="142"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="299"/>
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
+      <c r="A23" s="227"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="227"/>
+      <c r="F23" s="227"/>
       <c r="G23" s="142"/>
       <c r="H23" s="142"/>
       <c r="I23" s="142"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="299"/>
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
+      <c r="A24" s="227"/>
+      <c r="B24" s="227"/>
+      <c r="C24" s="227"/>
+      <c r="D24" s="227"/>
+      <c r="E24" s="227"/>
+      <c r="F24" s="227"/>
       <c r="G24" s="142"/>
       <c r="H24" s="142"/>
       <c r="I24" s="142"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="299"/>
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
+      <c r="A25" s="227"/>
+      <c r="B25" s="227"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="227"/>
+      <c r="F25" s="227"/>
       <c r="G25" s="142"/>
       <c r="H25" s="142"/>
       <c r="I25" s="142"/>
     </row>
     <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="299"/>
-      <c r="B26" s="299"/>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
+      <c r="A26" s="227"/>
+      <c r="B26" s="227"/>
+      <c r="C26" s="227"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="227"/>
+      <c r="F26" s="227"/>
       <c r="G26" s="142"/>
       <c r="H26" s="142"/>
       <c r="I26" s="142"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="299"/>
-      <c r="B27" s="299"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
+      <c r="A27" s="227"/>
+      <c r="B27" s="227"/>
+      <c r="C27" s="227"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="227"/>
+      <c r="F27" s="227"/>
       <c r="G27" s="142"/>
       <c r="H27" s="142"/>
       <c r="I27" s="142"/>
     </row>
     <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="299"/>
-      <c r="B28" s="299"/>
-      <c r="C28" s="299"/>
-      <c r="D28" s="299"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="299"/>
+      <c r="A28" s="227"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="227"/>
       <c r="G28" s="142"/>
       <c r="H28" s="142"/>
       <c r="I28" s="142"/>
     </row>
     <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="299"/>
-      <c r="B29" s="299"/>
-      <c r="C29" s="299"/>
-      <c r="D29" s="299"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="299"/>
+      <c r="A29" s="227"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
+      <c r="E29" s="227"/>
+      <c r="F29" s="227"/>
       <c r="G29" s="142"/>
       <c r="H29" s="142"/>
       <c r="I29" s="142"/>
     </row>
     <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="299"/>
-      <c r="B30" s="299"/>
-      <c r="C30" s="299"/>
-      <c r="D30" s="299"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="299"/>
+      <c r="A30" s="227"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
       <c r="G30" s="142"/>
       <c r="H30" s="142"/>
       <c r="I30" s="142"/>
@@ -4713,14 +4717,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="235"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -4758,12 +4762,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="224"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="226"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="235"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -4802,12 +4806,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="224"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="226"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="235"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -4844,12 +4848,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="224"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="226"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="235"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>174</v>
@@ -5095,15 +5099,15 @@
       <c r="AE9" s="31"/>
       <c r="AF9" s="31"/>
       <c r="AG9" s="31"/>
-      <c r="AH9" s="267" t="s">
+      <c r="AH9" s="276" t="s">
         <v>192</v>
       </c>
-      <c r="AI9" s="268"/>
-      <c r="AJ9" s="268"/>
-      <c r="AK9" s="268"/>
-      <c r="AL9" s="268"/>
-      <c r="AM9" s="268"/>
-      <c r="AN9" s="269"/>
+      <c r="AI9" s="277"/>
+      <c r="AJ9" s="277"/>
+      <c r="AK9" s="277"/>
+      <c r="AL9" s="277"/>
+      <c r="AM9" s="277"/>
+      <c r="AN9" s="278"/>
       <c r="AO9" s="12"/>
     </row>
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5145,13 +5149,13 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
       <c r="AG10" s="31"/>
-      <c r="AH10" s="270"/>
-      <c r="AI10" s="266"/>
-      <c r="AJ10" s="266"/>
-      <c r="AK10" s="266"/>
-      <c r="AL10" s="266"/>
-      <c r="AM10" s="266"/>
-      <c r="AN10" s="271"/>
+      <c r="AH10" s="279"/>
+      <c r="AI10" s="275"/>
+      <c r="AJ10" s="275"/>
+      <c r="AK10" s="275"/>
+      <c r="AL10" s="275"/>
+      <c r="AM10" s="275"/>
+      <c r="AN10" s="280"/>
       <c r="AO10" s="12"/>
     </row>
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5193,13 +5197,13 @@
       <c r="AE11" s="31"/>
       <c r="AF11" s="31"/>
       <c r="AG11" s="31"/>
-      <c r="AH11" s="270"/>
-      <c r="AI11" s="266"/>
-      <c r="AJ11" s="266"/>
-      <c r="AK11" s="266"/>
-      <c r="AL11" s="266"/>
-      <c r="AM11" s="266"/>
-      <c r="AN11" s="271"/>
+      <c r="AH11" s="279"/>
+      <c r="AI11" s="275"/>
+      <c r="AJ11" s="275"/>
+      <c r="AK11" s="275"/>
+      <c r="AL11" s="275"/>
+      <c r="AM11" s="275"/>
+      <c r="AN11" s="280"/>
       <c r="AO11" s="12"/>
     </row>
     <row r="12" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5235,13 +5239,13 @@
       <c r="AE12" s="31"/>
       <c r="AF12" s="31"/>
       <c r="AG12" s="31"/>
-      <c r="AH12" s="270"/>
-      <c r="AI12" s="266"/>
-      <c r="AJ12" s="266"/>
-      <c r="AK12" s="266"/>
-      <c r="AL12" s="266"/>
-      <c r="AM12" s="266"/>
-      <c r="AN12" s="271"/>
+      <c r="AH12" s="279"/>
+      <c r="AI12" s="275"/>
+      <c r="AJ12" s="275"/>
+      <c r="AK12" s="275"/>
+      <c r="AL12" s="275"/>
+      <c r="AM12" s="275"/>
+      <c r="AN12" s="280"/>
       <c r="AO12" s="12"/>
     </row>
     <row r="13" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5281,13 +5285,13 @@
       <c r="AE13" s="31"/>
       <c r="AF13" s="31"/>
       <c r="AG13" s="31"/>
-      <c r="AH13" s="270"/>
-      <c r="AI13" s="266"/>
-      <c r="AJ13" s="266"/>
-      <c r="AK13" s="266"/>
-      <c r="AL13" s="266"/>
-      <c r="AM13" s="266"/>
-      <c r="AN13" s="271"/>
+      <c r="AH13" s="279"/>
+      <c r="AI13" s="275"/>
+      <c r="AJ13" s="275"/>
+      <c r="AK13" s="275"/>
+      <c r="AL13" s="275"/>
+      <c r="AM13" s="275"/>
+      <c r="AN13" s="280"/>
       <c r="AO13" s="12"/>
     </row>
     <row r="14" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5323,13 +5327,13 @@
       <c r="AE14" s="31"/>
       <c r="AF14" s="31"/>
       <c r="AG14" s="31"/>
-      <c r="AH14" s="270"/>
-      <c r="AI14" s="266"/>
-      <c r="AJ14" s="266"/>
-      <c r="AK14" s="266"/>
-      <c r="AL14" s="266"/>
-      <c r="AM14" s="266"/>
-      <c r="AN14" s="271"/>
+      <c r="AH14" s="279"/>
+      <c r="AI14" s="275"/>
+      <c r="AJ14" s="275"/>
+      <c r="AK14" s="275"/>
+      <c r="AL14" s="275"/>
+      <c r="AM14" s="275"/>
+      <c r="AN14" s="280"/>
       <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5369,13 +5373,13 @@
       <c r="AE15" s="31"/>
       <c r="AF15" s="31"/>
       <c r="AG15" s="31"/>
-      <c r="AH15" s="272"/>
-      <c r="AI15" s="273"/>
-      <c r="AJ15" s="273"/>
-      <c r="AK15" s="273"/>
-      <c r="AL15" s="273"/>
-      <c r="AM15" s="273"/>
-      <c r="AN15" s="274"/>
+      <c r="AH15" s="281"/>
+      <c r="AI15" s="282"/>
+      <c r="AJ15" s="282"/>
+      <c r="AK15" s="282"/>
+      <c r="AL15" s="282"/>
+      <c r="AM15" s="282"/>
+      <c r="AN15" s="283"/>
       <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5431,11 +5435,11 @@
         <v>201</v>
       </c>
       <c r="R17" s="31"/>
-      <c r="S17" s="266">
+      <c r="S17" s="275">
         <v>912210727</v>
       </c>
-      <c r="T17" s="266"/>
-      <c r="U17" s="266"/>
+      <c r="T17" s="275"/>
+      <c r="U17" s="275"/>
       <c r="V17" s="31"/>
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
@@ -5633,15 +5637,15 @@
     </row>
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
-      <c r="C22" s="256" t="s">
+      <c r="C22" s="265" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="256"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256"/>
+      <c r="D22" s="265"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="265"/>
+      <c r="G22" s="265"/>
+      <c r="H22" s="265"/>
+      <c r="I22" s="265"/>
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63" t="s">
@@ -5679,15 +5683,15 @@
     </row>
     <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="257" t="s">
+      <c r="C23" s="266" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="257"/>
-      <c r="E23" s="257"/>
-      <c r="F23" s="257"/>
-      <c r="G23" s="257"/>
-      <c r="H23" s="257"/>
-      <c r="I23" s="257"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="266"/>
+      <c r="F23" s="266"/>
+      <c r="G23" s="266"/>
+      <c r="H23" s="266"/>
+      <c r="I23" s="266"/>
       <c r="J23" s="87"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -5727,15 +5731,15 @@
     </row>
     <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="257" t="s">
+      <c r="C24" s="266" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="258"/>
-      <c r="E24" s="258"/>
-      <c r="F24" s="258"/>
-      <c r="G24" s="258"/>
-      <c r="H24" s="258"/>
-      <c r="I24" s="258"/>
+      <c r="D24" s="267"/>
+      <c r="E24" s="267"/>
+      <c r="F24" s="267"/>
+      <c r="G24" s="267"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="267"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -5844,11 +5848,11 @@
         <v>213</v>
       </c>
       <c r="R26" s="31"/>
-      <c r="S26" s="266">
+      <c r="S26" s="275">
         <v>912210727</v>
       </c>
-      <c r="T26" s="266"/>
-      <c r="U26" s="266"/>
+      <c r="T26" s="275"/>
+      <c r="U26" s="275"/>
       <c r="V26" s="31"/>
       <c r="W26" s="31"/>
       <c r="X26" s="31"/>
@@ -6853,15 +6857,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="236"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="245"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -7506,14 +7510,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="235"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -7551,12 +7555,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="224"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="226"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="235"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -7595,12 +7599,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="224"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="226"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="235"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -7637,12 +7641,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="224"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="226"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="235"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>174</v>
@@ -7869,15 +7873,15 @@
       <c r="P9" s="203" t="s">
         <v>276</v>
       </c>
-      <c r="Q9" s="231" t="s">
+      <c r="Q9" s="240" t="s">
         <v>191</v>
       </c>
-      <c r="R9" s="232"/>
-      <c r="S9" s="232"/>
-      <c r="T9" s="232"/>
-      <c r="U9" s="232"/>
-      <c r="V9" s="232"/>
-      <c r="W9" s="233"/>
+      <c r="R9" s="241"/>
+      <c r="S9" s="241"/>
+      <c r="T9" s="241"/>
+      <c r="U9" s="241"/>
+      <c r="V9" s="241"/>
+      <c r="W9" s="242"/>
       <c r="X9" s="120" t="s">
         <v>277</v>
       </c>
@@ -7890,15 +7894,15 @@
       <c r="AE9" s="31"/>
       <c r="AF9" s="31"/>
       <c r="AG9" s="31"/>
-      <c r="AH9" s="267" t="s">
+      <c r="AH9" s="276" t="s">
         <v>192</v>
       </c>
-      <c r="AI9" s="268"/>
-      <c r="AJ9" s="268"/>
-      <c r="AK9" s="268"/>
-      <c r="AL9" s="268"/>
-      <c r="AM9" s="268"/>
-      <c r="AN9" s="269"/>
+      <c r="AI9" s="277"/>
+      <c r="AJ9" s="277"/>
+      <c r="AK9" s="277"/>
+      <c r="AL9" s="277"/>
+      <c r="AM9" s="277"/>
+      <c r="AN9" s="278"/>
       <c r="AO9" s="12"/>
     </row>
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7921,15 +7925,15 @@
       <c r="P10" s="203" t="s">
         <v>193</v>
       </c>
-      <c r="Q10" s="231" t="s">
+      <c r="Q10" s="240" t="s">
         <v>194</v>
       </c>
-      <c r="R10" s="232"/>
-      <c r="S10" s="232"/>
-      <c r="T10" s="232"/>
-      <c r="U10" s="232"/>
-      <c r="V10" s="232"/>
-      <c r="W10" s="233"/>
+      <c r="R10" s="241"/>
+      <c r="S10" s="241"/>
+      <c r="T10" s="241"/>
+      <c r="U10" s="241"/>
+      <c r="V10" s="241"/>
+      <c r="W10" s="242"/>
       <c r="X10" s="209" t="s">
         <v>277</v>
       </c>
@@ -7942,13 +7946,13 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
       <c r="AG10" s="31"/>
-      <c r="AH10" s="270"/>
-      <c r="AI10" s="266"/>
-      <c r="AJ10" s="266"/>
-      <c r="AK10" s="266"/>
-      <c r="AL10" s="266"/>
-      <c r="AM10" s="266"/>
-      <c r="AN10" s="271"/>
+      <c r="AH10" s="279"/>
+      <c r="AI10" s="275"/>
+      <c r="AJ10" s="275"/>
+      <c r="AK10" s="275"/>
+      <c r="AL10" s="275"/>
+      <c r="AM10" s="275"/>
+      <c r="AN10" s="280"/>
       <c r="AO10" s="12"/>
     </row>
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7971,13 +7975,13 @@
       <c r="P11" s="203" t="s">
         <v>221</v>
       </c>
-      <c r="Q11" s="231"/>
-      <c r="R11" s="232"/>
-      <c r="S11" s="232"/>
-      <c r="T11" s="232"/>
-      <c r="U11" s="232"/>
-      <c r="V11" s="232"/>
-      <c r="W11" s="233"/>
+      <c r="Q11" s="240"/>
+      <c r="R11" s="241"/>
+      <c r="S11" s="241"/>
+      <c r="T11" s="241"/>
+      <c r="U11" s="241"/>
+      <c r="V11" s="241"/>
+      <c r="W11" s="242"/>
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
@@ -7988,13 +7992,13 @@
       <c r="AE11" s="31"/>
       <c r="AF11" s="31"/>
       <c r="AG11" s="31"/>
-      <c r="AH11" s="270"/>
-      <c r="AI11" s="266"/>
-      <c r="AJ11" s="266"/>
-      <c r="AK11" s="266"/>
-      <c r="AL11" s="266"/>
-      <c r="AM11" s="266"/>
-      <c r="AN11" s="271"/>
+      <c r="AH11" s="279"/>
+      <c r="AI11" s="275"/>
+      <c r="AJ11" s="275"/>
+      <c r="AK11" s="275"/>
+      <c r="AL11" s="275"/>
+      <c r="AM11" s="275"/>
+      <c r="AN11" s="280"/>
       <c r="AO11" s="12"/>
     </row>
     <row r="12" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8015,15 +8019,15 @@
       <c r="P12" s="203" t="s">
         <v>222</v>
       </c>
-      <c r="Q12" s="287" t="s">
+      <c r="Q12" s="284" t="s">
         <v>223</v>
       </c>
-      <c r="R12" s="288"/>
-      <c r="S12" s="288"/>
-      <c r="T12" s="288"/>
-      <c r="U12" s="288"/>
-      <c r="V12" s="288"/>
-      <c r="W12" s="289"/>
+      <c r="R12" s="285"/>
+      <c r="S12" s="285"/>
+      <c r="T12" s="285"/>
+      <c r="U12" s="285"/>
+      <c r="V12" s="285"/>
+      <c r="W12" s="286"/>
       <c r="X12" s="209" t="s">
         <v>277</v>
       </c>
@@ -8036,13 +8040,13 @@
       <c r="AE12" s="31"/>
       <c r="AF12" s="31"/>
       <c r="AG12" s="31"/>
-      <c r="AH12" s="270"/>
-      <c r="AI12" s="266"/>
-      <c r="AJ12" s="266"/>
-      <c r="AK12" s="266"/>
-      <c r="AL12" s="266"/>
-      <c r="AM12" s="266"/>
-      <c r="AN12" s="271"/>
+      <c r="AH12" s="279"/>
+      <c r="AI12" s="275"/>
+      <c r="AJ12" s="275"/>
+      <c r="AK12" s="275"/>
+      <c r="AL12" s="275"/>
+      <c r="AM12" s="275"/>
+      <c r="AN12" s="280"/>
       <c r="AO12" s="12"/>
     </row>
     <row r="13" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8063,15 +8067,15 @@
       <c r="P13" s="203" t="s">
         <v>195</v>
       </c>
-      <c r="Q13" s="231" t="s">
+      <c r="Q13" s="240" t="s">
         <v>196</v>
       </c>
-      <c r="R13" s="232"/>
-      <c r="S13" s="232"/>
-      <c r="T13" s="232"/>
-      <c r="U13" s="232"/>
-      <c r="V13" s="232"/>
-      <c r="W13" s="233"/>
+      <c r="R13" s="241"/>
+      <c r="S13" s="241"/>
+      <c r="T13" s="241"/>
+      <c r="U13" s="241"/>
+      <c r="V13" s="241"/>
+      <c r="W13" s="242"/>
       <c r="X13" s="209" t="s">
         <v>277</v>
       </c>
@@ -8084,13 +8088,13 @@
       <c r="AE13" s="31"/>
       <c r="AF13" s="31"/>
       <c r="AG13" s="31"/>
-      <c r="AH13" s="270"/>
-      <c r="AI13" s="266"/>
-      <c r="AJ13" s="266"/>
-      <c r="AK13" s="266"/>
-      <c r="AL13" s="266"/>
-      <c r="AM13" s="266"/>
-      <c r="AN13" s="271"/>
+      <c r="AH13" s="279"/>
+      <c r="AI13" s="275"/>
+      <c r="AJ13" s="275"/>
+      <c r="AK13" s="275"/>
+      <c r="AL13" s="275"/>
+      <c r="AM13" s="275"/>
+      <c r="AN13" s="280"/>
       <c r="AO13" s="12"/>
     </row>
     <row r="14" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8111,13 +8115,13 @@
       <c r="P14" s="203" t="s">
         <v>224</v>
       </c>
-      <c r="Q14" s="287"/>
-      <c r="R14" s="288"/>
-      <c r="S14" s="288"/>
-      <c r="T14" s="288"/>
-      <c r="U14" s="288"/>
-      <c r="V14" s="288"/>
-      <c r="W14" s="289"/>
+      <c r="Q14" s="284"/>
+      <c r="R14" s="285"/>
+      <c r="S14" s="285"/>
+      <c r="T14" s="285"/>
+      <c r="U14" s="285"/>
+      <c r="V14" s="285"/>
+      <c r="W14" s="286"/>
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
@@ -8128,13 +8132,13 @@
       <c r="AE14" s="31"/>
       <c r="AF14" s="31"/>
       <c r="AG14" s="31"/>
-      <c r="AH14" s="270"/>
-      <c r="AI14" s="266"/>
-      <c r="AJ14" s="266"/>
-      <c r="AK14" s="266"/>
-      <c r="AL14" s="266"/>
-      <c r="AM14" s="266"/>
-      <c r="AN14" s="271"/>
+      <c r="AH14" s="279"/>
+      <c r="AI14" s="275"/>
+      <c r="AJ14" s="275"/>
+      <c r="AK14" s="275"/>
+      <c r="AL14" s="275"/>
+      <c r="AM14" s="275"/>
+      <c r="AN14" s="280"/>
       <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8155,15 +8159,15 @@
       <c r="P15" s="203" t="s">
         <v>197</v>
       </c>
-      <c r="Q15" s="281" t="s">
+      <c r="Q15" s="287" t="s">
         <v>198</v>
       </c>
-      <c r="R15" s="282"/>
-      <c r="S15" s="282"/>
-      <c r="T15" s="282"/>
-      <c r="U15" s="282"/>
-      <c r="V15" s="282"/>
-      <c r="W15" s="283"/>
+      <c r="R15" s="288"/>
+      <c r="S15" s="288"/>
+      <c r="T15" s="288"/>
+      <c r="U15" s="288"/>
+      <c r="V15" s="288"/>
+      <c r="W15" s="289"/>
       <c r="X15" s="209" t="s">
         <v>277</v>
       </c>
@@ -8176,13 +8180,13 @@
       <c r="AE15" s="31"/>
       <c r="AF15" s="31"/>
       <c r="AG15" s="31"/>
-      <c r="AH15" s="272"/>
-      <c r="AI15" s="273"/>
-      <c r="AJ15" s="273"/>
-      <c r="AK15" s="273"/>
-      <c r="AL15" s="273"/>
-      <c r="AM15" s="273"/>
-      <c r="AN15" s="274"/>
+      <c r="AH15" s="281"/>
+      <c r="AI15" s="282"/>
+      <c r="AJ15" s="282"/>
+      <c r="AK15" s="282"/>
+      <c r="AL15" s="282"/>
+      <c r="AM15" s="282"/>
+      <c r="AN15" s="283"/>
       <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8237,14 +8241,14 @@
       <c r="Q17" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="R17" s="231">
+      <c r="R17" s="240">
         <v>912210727</v>
       </c>
-      <c r="S17" s="232"/>
-      <c r="T17" s="232"/>
-      <c r="U17" s="232"/>
-      <c r="V17" s="232"/>
-      <c r="W17" s="233"/>
+      <c r="S17" s="241"/>
+      <c r="T17" s="241"/>
+      <c r="U17" s="241"/>
+      <c r="V17" s="241"/>
+      <c r="W17" s="242"/>
       <c r="X17" s="209" t="s">
         <v>277</v>
       </c>
@@ -8326,15 +8330,15 @@
       <c r="P19" s="203" t="s">
         <v>202</v>
       </c>
-      <c r="Q19" s="281" t="s">
+      <c r="Q19" s="287" t="s">
         <v>203</v>
       </c>
-      <c r="R19" s="282"/>
-      <c r="S19" s="282"/>
-      <c r="T19" s="282"/>
-      <c r="U19" s="282"/>
-      <c r="V19" s="282"/>
-      <c r="W19" s="283"/>
+      <c r="R19" s="288"/>
+      <c r="S19" s="288"/>
+      <c r="T19" s="288"/>
+      <c r="U19" s="288"/>
+      <c r="V19" s="288"/>
+      <c r="W19" s="289"/>
       <c r="X19" s="209" t="s">
         <v>277</v>
       </c>
@@ -8444,15 +8448,15 @@
     </row>
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
-      <c r="C22" s="256" t="s">
+      <c r="C22" s="265" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="256"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256"/>
+      <c r="D22" s="265"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="265"/>
+      <c r="G22" s="265"/>
+      <c r="H22" s="265"/>
+      <c r="I22" s="265"/>
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63" t="s">
@@ -8490,15 +8494,15 @@
     </row>
     <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="257" t="s">
+      <c r="C23" s="266" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="257"/>
-      <c r="E23" s="257"/>
-      <c r="F23" s="257"/>
-      <c r="G23" s="257"/>
-      <c r="H23" s="257"/>
-      <c r="I23" s="257"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="266"/>
+      <c r="F23" s="266"/>
+      <c r="G23" s="266"/>
+      <c r="H23" s="266"/>
+      <c r="I23" s="266"/>
       <c r="J23" s="87"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -8538,15 +8542,15 @@
     </row>
     <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="257" t="s">
+      <c r="C24" s="266" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="258"/>
-      <c r="E24" s="258"/>
-      <c r="F24" s="258"/>
-      <c r="G24" s="258"/>
-      <c r="H24" s="258"/>
-      <c r="I24" s="258"/>
+      <c r="D24" s="267"/>
+      <c r="E24" s="267"/>
+      <c r="F24" s="267"/>
+      <c r="G24" s="267"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="267"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -8604,15 +8608,15 @@
       <c r="P25" s="203" t="s">
         <v>210</v>
       </c>
-      <c r="Q25" s="284" t="s">
+      <c r="Q25" s="290" t="s">
         <v>211</v>
       </c>
-      <c r="R25" s="285"/>
-      <c r="S25" s="285"/>
-      <c r="T25" s="285"/>
-      <c r="U25" s="285"/>
-      <c r="V25" s="285"/>
-      <c r="W25" s="286"/>
+      <c r="R25" s="291"/>
+      <c r="S25" s="291"/>
+      <c r="T25" s="291"/>
+      <c r="U25" s="291"/>
+      <c r="V25" s="291"/>
+      <c r="W25" s="292"/>
       <c r="X25" s="209" t="s">
         <v>277</v>
       </c>
@@ -8652,15 +8656,15 @@
       <c r="P26" s="197" t="s">
         <v>222</v>
       </c>
-      <c r="Q26" s="275" t="s">
+      <c r="Q26" s="293" t="s">
         <v>225</v>
       </c>
-      <c r="R26" s="276"/>
-      <c r="S26" s="276"/>
-      <c r="T26" s="276"/>
-      <c r="U26" s="276"/>
-      <c r="V26" s="276"/>
-      <c r="W26" s="277"/>
+      <c r="R26" s="294"/>
+      <c r="S26" s="294"/>
+      <c r="T26" s="294"/>
+      <c r="U26" s="294"/>
+      <c r="V26" s="294"/>
+      <c r="W26" s="295"/>
       <c r="X26" s="31" t="s">
         <v>226</v>
       </c>
@@ -8746,13 +8750,13 @@
         <v>213</v>
       </c>
       <c r="R28" s="31"/>
-      <c r="S28" s="278">
+      <c r="S28" s="296">
         <v>912210727</v>
       </c>
-      <c r="T28" s="279"/>
-      <c r="U28" s="279"/>
-      <c r="V28" s="279"/>
-      <c r="W28" s="280"/>
+      <c r="T28" s="297"/>
+      <c r="U28" s="297"/>
+      <c r="V28" s="297"/>
+      <c r="W28" s="298"/>
       <c r="X28" s="209" t="s">
         <v>277</v>
       </c>
@@ -8792,15 +8796,15 @@
       <c r="P29" s="203" t="s">
         <v>214</v>
       </c>
-      <c r="Q29" s="231" t="s">
+      <c r="Q29" s="240" t="s">
         <v>215</v>
       </c>
-      <c r="R29" s="232"/>
-      <c r="S29" s="232"/>
-      <c r="T29" s="232"/>
-      <c r="U29" s="232"/>
-      <c r="V29" s="232"/>
-      <c r="W29" s="233"/>
+      <c r="R29" s="241"/>
+      <c r="S29" s="241"/>
+      <c r="T29" s="241"/>
+      <c r="U29" s="241"/>
+      <c r="V29" s="241"/>
+      <c r="W29" s="242"/>
       <c r="X29" s="31" t="s">
         <v>226</v>
       </c>
@@ -9710,6 +9714,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="Q29:W29"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="Q9:W9"/>
     <mergeCell ref="AH9:AN15"/>
     <mergeCell ref="Q10:W10"/>
     <mergeCell ref="Q11:W11"/>
@@ -9717,17 +9732,6 @@
     <mergeCell ref="Q13:W13"/>
     <mergeCell ref="Q14:W14"/>
     <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="B1:G4"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="Q19:W19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
@@ -9771,15 +9775,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="236"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="245"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -10426,14 +10430,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="235"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -10471,12 +10475,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="224"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="226"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="235"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -10515,12 +10519,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="224"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="226"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="235"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -10557,12 +10561,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="224"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="226"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="235"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>237</v>
@@ -10758,13 +10762,13 @@
       <c r="P8" s="203" t="s">
         <v>233</v>
       </c>
-      <c r="Q8" s="231"/>
-      <c r="R8" s="232"/>
-      <c r="S8" s="232"/>
-      <c r="T8" s="232"/>
-      <c r="U8" s="232"/>
-      <c r="V8" s="232"/>
-      <c r="W8" s="233"/>
+      <c r="Q8" s="240"/>
+      <c r="R8" s="241"/>
+      <c r="S8" s="241"/>
+      <c r="T8" s="241"/>
+      <c r="U8" s="241"/>
+      <c r="V8" s="241"/>
+      <c r="W8" s="242"/>
       <c r="X8" s="120" t="s">
         <v>277</v>
       </c>
@@ -10834,13 +10838,13 @@
       <c r="P10" s="203" t="s">
         <v>234</v>
       </c>
-      <c r="Q10" s="231"/>
-      <c r="R10" s="232"/>
-      <c r="S10" s="232"/>
-      <c r="T10" s="232"/>
-      <c r="U10" s="232"/>
-      <c r="V10" s="232"/>
-      <c r="W10" s="233"/>
+      <c r="Q10" s="240"/>
+      <c r="R10" s="241"/>
+      <c r="S10" s="241"/>
+      <c r="T10" s="241"/>
+      <c r="U10" s="241"/>
+      <c r="V10" s="241"/>
+      <c r="W10" s="242"/>
       <c r="X10" s="120" t="s">
         <v>277</v>
       </c>
@@ -10914,13 +10918,13 @@
       <c r="P12" s="203" t="s">
         <v>235</v>
       </c>
-      <c r="Q12" s="231"/>
-      <c r="R12" s="232"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="232"/>
-      <c r="U12" s="232"/>
-      <c r="V12" s="232"/>
-      <c r="W12" s="233"/>
+      <c r="Q12" s="240"/>
+      <c r="R12" s="241"/>
+      <c r="S12" s="241"/>
+      <c r="T12" s="241"/>
+      <c r="U12" s="241"/>
+      <c r="V12" s="241"/>
+      <c r="W12" s="242"/>
       <c r="X12" s="120" t="s">
         <v>277</v>
       </c>
@@ -10958,13 +10962,13 @@
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
       <c r="P13" s="203"/>
-      <c r="Q13" s="258"/>
-      <c r="R13" s="258"/>
-      <c r="S13" s="258"/>
-      <c r="T13" s="258"/>
-      <c r="U13" s="258"/>
-      <c r="V13" s="258"/>
-      <c r="W13" s="258"/>
+      <c r="Q13" s="267"/>
+      <c r="R13" s="267"/>
+      <c r="S13" s="267"/>
+      <c r="T13" s="267"/>
+      <c r="U13" s="267"/>
+      <c r="V13" s="267"/>
+      <c r="W13" s="267"/>
       <c r="X13" s="31"/>
       <c r="Y13" s="31"/>
       <c r="Z13" s="31"/>
@@ -11000,13 +11004,13 @@
       <c r="N14" s="31"/>
       <c r="O14" s="31"/>
       <c r="P14" s="203"/>
-      <c r="Q14" s="266"/>
-      <c r="R14" s="266"/>
-      <c r="S14" s="266"/>
-      <c r="T14" s="266"/>
-      <c r="U14" s="266"/>
-      <c r="V14" s="266"/>
-      <c r="W14" s="266"/>
+      <c r="Q14" s="275"/>
+      <c r="R14" s="275"/>
+      <c r="S14" s="275"/>
+      <c r="T14" s="275"/>
+      <c r="U14" s="275"/>
+      <c r="V14" s="275"/>
+      <c r="W14" s="275"/>
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
@@ -11042,13 +11046,13 @@
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="203"/>
-      <c r="Q15" s="292"/>
-      <c r="R15" s="292"/>
-      <c r="S15" s="292"/>
-      <c r="T15" s="292"/>
-      <c r="U15" s="292"/>
-      <c r="V15" s="292"/>
-      <c r="W15" s="292"/>
+      <c r="Q15" s="301"/>
+      <c r="R15" s="301"/>
+      <c r="S15" s="301"/>
+      <c r="T15" s="301"/>
+      <c r="U15" s="301"/>
+      <c r="V15" s="301"/>
+      <c r="W15" s="301"/>
       <c r="X15" s="36"/>
       <c r="Y15" s="36"/>
       <c r="Z15" s="36"/>
@@ -11121,12 +11125,12 @@
       <c r="O17" s="31"/>
       <c r="P17" s="203"/>
       <c r="Q17" s="96"/>
-      <c r="R17" s="258"/>
-      <c r="S17" s="258"/>
-      <c r="T17" s="258"/>
-      <c r="U17" s="258"/>
-      <c r="V17" s="258"/>
-      <c r="W17" s="258"/>
+      <c r="R17" s="267"/>
+      <c r="S17" s="267"/>
+      <c r="T17" s="267"/>
+      <c r="U17" s="267"/>
+      <c r="V17" s="267"/>
+      <c r="W17" s="267"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
       <c r="Z17" s="31"/>
@@ -11204,13 +11208,13 @@
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="203"/>
-      <c r="Q19" s="292"/>
-      <c r="R19" s="292"/>
-      <c r="S19" s="292"/>
-      <c r="T19" s="292"/>
-      <c r="U19" s="292"/>
-      <c r="V19" s="292"/>
-      <c r="W19" s="292"/>
+      <c r="Q19" s="301"/>
+      <c r="R19" s="301"/>
+      <c r="S19" s="301"/>
+      <c r="T19" s="301"/>
+      <c r="U19" s="301"/>
+      <c r="V19" s="301"/>
+      <c r="W19" s="301"/>
       <c r="X19" s="31"/>
       <c r="Y19" s="31"/>
       <c r="Z19" s="31"/>
@@ -11316,15 +11320,15 @@
     </row>
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
-      <c r="C22" s="256" t="s">
+      <c r="C22" s="265" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="256"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256"/>
+      <c r="D22" s="265"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="265"/>
+      <c r="G22" s="265"/>
+      <c r="H22" s="265"/>
+      <c r="I22" s="265"/>
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63"/>
@@ -11360,15 +11364,15 @@
     </row>
     <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="257" t="s">
+      <c r="C23" s="266" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="257"/>
-      <c r="E23" s="257"/>
-      <c r="F23" s="257"/>
-      <c r="G23" s="257"/>
-      <c r="H23" s="257"/>
-      <c r="I23" s="257"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="266"/>
+      <c r="F23" s="266"/>
+      <c r="G23" s="266"/>
+      <c r="H23" s="266"/>
+      <c r="I23" s="266"/>
       <c r="J23" s="87"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -11404,15 +11408,15 @@
     </row>
     <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="257" t="s">
+      <c r="C24" s="266" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="258"/>
-      <c r="E24" s="258"/>
-      <c r="F24" s="258"/>
-      <c r="G24" s="258"/>
-      <c r="H24" s="258"/>
-      <c r="I24" s="258"/>
+      <c r="D24" s="267"/>
+      <c r="E24" s="267"/>
+      <c r="F24" s="267"/>
+      <c r="G24" s="267"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="267"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -11464,13 +11468,13 @@
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
       <c r="P25" s="203"/>
-      <c r="Q25" s="290"/>
-      <c r="R25" s="290"/>
-      <c r="S25" s="290"/>
-      <c r="T25" s="290"/>
-      <c r="U25" s="290"/>
-      <c r="V25" s="290"/>
-      <c r="W25" s="290"/>
+      <c r="Q25" s="299"/>
+      <c r="R25" s="299"/>
+      <c r="S25" s="299"/>
+      <c r="T25" s="299"/>
+      <c r="U25" s="299"/>
+      <c r="V25" s="299"/>
+      <c r="W25" s="299"/>
       <c r="X25" s="31"/>
       <c r="Y25" s="31"/>
       <c r="Z25" s="31"/>
@@ -11508,13 +11512,13 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="208"/>
-      <c r="Q26" s="291"/>
-      <c r="R26" s="291"/>
-      <c r="S26" s="291"/>
-      <c r="T26" s="291"/>
-      <c r="U26" s="291"/>
-      <c r="V26" s="291"/>
-      <c r="W26" s="291"/>
+      <c r="Q26" s="300"/>
+      <c r="R26" s="300"/>
+      <c r="S26" s="300"/>
+      <c r="T26" s="300"/>
+      <c r="U26" s="300"/>
+      <c r="V26" s="300"/>
+      <c r="W26" s="300"/>
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
@@ -11594,11 +11598,11 @@
       <c r="P28" s="203"/>
       <c r="Q28" s="31"/>
       <c r="R28" s="31"/>
-      <c r="S28" s="258"/>
-      <c r="T28" s="258"/>
-      <c r="U28" s="258"/>
-      <c r="V28" s="258"/>
-      <c r="W28" s="258"/>
+      <c r="S28" s="267"/>
+      <c r="T28" s="267"/>
+      <c r="U28" s="267"/>
+      <c r="V28" s="267"/>
+      <c r="W28" s="267"/>
       <c r="X28" s="31"/>
       <c r="Y28" s="31"/>
       <c r="Z28" s="31"/>
@@ -11634,13 +11638,13 @@
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
       <c r="P29" s="203"/>
-      <c r="Q29" s="258"/>
-      <c r="R29" s="258"/>
-      <c r="S29" s="258"/>
-      <c r="T29" s="258"/>
-      <c r="U29" s="258"/>
-      <c r="V29" s="258"/>
-      <c r="W29" s="258"/>
+      <c r="Q29" s="267"/>
+      <c r="R29" s="267"/>
+      <c r="S29" s="267"/>
+      <c r="T29" s="267"/>
+      <c r="U29" s="267"/>
+      <c r="V29" s="267"/>
+      <c r="W29" s="267"/>
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
       <c r="Z29" s="31"/>
@@ -12538,6 +12542,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="Q29:W29"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="Q19:W19"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="C24:I24"/>
@@ -12547,13 +12558,6 @@
     <mergeCell ref="Q12:W12"/>
     <mergeCell ref="Q13:W13"/>
     <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="Q19:W19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" location="'04.ContactInfo'!A1" display="Thông Tin Liên Hệ"/>
@@ -12589,15 +12593,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="236"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="245"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -13045,14 +13049,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="235"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -13090,12 +13094,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="224"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="226"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="235"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -13134,12 +13138,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="224"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="226"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="235"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -13176,12 +13180,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="224"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="226"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="235"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>52</v>
@@ -13378,19 +13382,19 @@
         <v>298</v>
       </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="263">
+      <c r="N8" s="272">
         <v>7</v>
       </c>
-      <c r="O8" s="264"/>
-      <c r="P8" s="265"/>
+      <c r="O8" s="273"/>
+      <c r="P8" s="274"/>
       <c r="S8" s="197" t="s">
         <v>297</v>
       </c>
-      <c r="T8" s="260">
+      <c r="T8" s="269">
         <v>2015</v>
       </c>
-      <c r="U8" s="261"/>
-      <c r="V8" s="262"/>
+      <c r="U8" s="270"/>
+      <c r="V8" s="271"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
@@ -13678,11 +13682,11 @@
       <c r="Z18" s="31"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
-      <c r="AC18" s="293">
+      <c r="AC18" s="302">
         <v>20000</v>
       </c>
-      <c r="AD18" s="293"/>
-      <c r="AE18" s="293"/>
+      <c r="AD18" s="302"/>
+      <c r="AE18" s="302"/>
       <c r="AF18" s="31"/>
       <c r="AG18" s="31"/>
       <c r="AH18" s="31"/>
@@ -13770,12 +13774,12 @@
       <c r="Z20" s="216"/>
       <c r="AA20" s="216"/>
       <c r="AB20" s="216"/>
-      <c r="AC20" s="294">
+      <c r="AC20" s="303">
         <f>SUM(AC18:AE19)</f>
         <v>20000</v>
       </c>
-      <c r="AD20" s="294"/>
-      <c r="AE20" s="294"/>
+      <c r="AD20" s="303"/>
+      <c r="AE20" s="303"/>
       <c r="AF20" s="216"/>
       <c r="AG20" s="216"/>
       <c r="AH20" s="216"/>
@@ -13835,15 +13839,15 @@
     </row>
     <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
-      <c r="C22" s="256" t="s">
+      <c r="C22" s="265" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="256"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256"/>
+      <c r="D22" s="265"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="265"/>
+      <c r="G22" s="265"/>
+      <c r="H22" s="265"/>
+      <c r="I22" s="265"/>
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63" t="s">
@@ -13883,15 +13887,15 @@
     </row>
     <row r="23" spans="2:48" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="257" t="s">
+      <c r="C23" s="266" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="257"/>
-      <c r="E23" s="257"/>
-      <c r="F23" s="257"/>
-      <c r="G23" s="257"/>
-      <c r="H23" s="257"/>
-      <c r="I23" s="257"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="266"/>
+      <c r="F23" s="266"/>
+      <c r="G23" s="266"/>
+      <c r="H23" s="266"/>
+      <c r="I23" s="266"/>
       <c r="J23" s="87"/>
       <c r="K23" s="31"/>
       <c r="L23" s="90" t="s">
@@ -13939,15 +13943,15 @@
     </row>
     <row r="24" spans="2:48" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="257" t="s">
+      <c r="C24" s="266" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="258"/>
-      <c r="E24" s="258"/>
-      <c r="F24" s="258"/>
-      <c r="G24" s="258"/>
-      <c r="H24" s="258"/>
-      <c r="I24" s="258"/>
+      <c r="D24" s="267"/>
+      <c r="E24" s="267"/>
+      <c r="F24" s="267"/>
+      <c r="G24" s="267"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="267"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="95">
@@ -13966,12 +13970,12 @@
       </c>
       <c r="Y24" s="36"/>
       <c r="Z24" s="31"/>
-      <c r="AA24" s="293">
+      <c r="AA24" s="302">
         <v>2000</v>
       </c>
-      <c r="AB24" s="293"/>
-      <c r="AC24" s="293"/>
-      <c r="AD24" s="293"/>
+      <c r="AB24" s="302"/>
+      <c r="AC24" s="302"/>
+      <c r="AD24" s="302"/>
       <c r="AE24" s="31"/>
       <c r="AF24" s="31"/>
       <c r="AG24" s="31"/>
@@ -14019,12 +14023,12 @@
       </c>
       <c r="Y25" s="31"/>
       <c r="Z25" s="31"/>
-      <c r="AA25" s="293">
+      <c r="AA25" s="302">
         <v>3000</v>
       </c>
-      <c r="AB25" s="293"/>
-      <c r="AC25" s="293"/>
-      <c r="AD25" s="293"/>
+      <c r="AB25" s="302"/>
+      <c r="AC25" s="302"/>
+      <c r="AD25" s="302"/>
       <c r="AE25" s="31"/>
       <c r="AF25" s="31"/>
       <c r="AG25" s="31"/>
@@ -14069,12 +14073,12 @@
       <c r="X26" s="220"/>
       <c r="Y26" s="216"/>
       <c r="Z26" s="216"/>
-      <c r="AA26" s="295">
+      <c r="AA26" s="304">
         <v>5000</v>
       </c>
-      <c r="AB26" s="295"/>
-      <c r="AC26" s="295"/>
-      <c r="AD26" s="295"/>
+      <c r="AB26" s="304"/>
+      <c r="AC26" s="304"/>
+      <c r="AD26" s="304"/>
       <c r="AE26" s="216"/>
       <c r="AF26" s="216"/>
       <c r="AG26" s="216"/>
@@ -14803,17 +14807,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="AA26:AD26"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="T8:V8"/>
     <mergeCell ref="B1:G4"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C23:I23"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="AA25:AD25"/>
-    <mergeCell ref="AA26:AD26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
@@ -14855,15 +14859,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="236"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="245"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -15527,14 +15531,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="235"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -15571,12 +15575,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="224"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="226"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="235"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -15613,12 +15617,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="224"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="226"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="235"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -15648,19 +15652,19 @@
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
-      <c r="AK3" s="230"/>
-      <c r="AL3" s="230"/>
-      <c r="AM3" s="230"/>
-      <c r="AN3" s="230"/>
+      <c r="AK3" s="239"/>
+      <c r="AL3" s="239"/>
+      <c r="AM3" s="239"/>
+      <c r="AN3" s="239"/>
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="227"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="229"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="238"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -15907,24 +15911,24 @@
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="231" t="s">
+      <c r="N10" s="240" t="s">
         <v>362</v>
       </c>
-      <c r="O10" s="232"/>
-      <c r="P10" s="232"/>
-      <c r="Q10" s="232"/>
-      <c r="R10" s="232"/>
-      <c r="S10" s="232"/>
-      <c r="T10" s="232"/>
-      <c r="U10" s="232"/>
-      <c r="V10" s="232"/>
-      <c r="W10" s="232"/>
-      <c r="X10" s="232"/>
-      <c r="Y10" s="232"/>
-      <c r="Z10" s="232"/>
-      <c r="AA10" s="232"/>
-      <c r="AB10" s="232"/>
-      <c r="AC10" s="233"/>
+      <c r="O10" s="241"/>
+      <c r="P10" s="241"/>
+      <c r="Q10" s="241"/>
+      <c r="R10" s="241"/>
+      <c r="S10" s="241"/>
+      <c r="T10" s="241"/>
+      <c r="U10" s="241"/>
+      <c r="V10" s="241"/>
+      <c r="W10" s="241"/>
+      <c r="X10" s="241"/>
+      <c r="Y10" s="241"/>
+      <c r="Z10" s="241"/>
+      <c r="AA10" s="241"/>
+      <c r="AB10" s="241"/>
+      <c r="AC10" s="242"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
@@ -16021,24 +16025,24 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="231" t="s">
+      <c r="N13" s="240" t="s">
         <v>363</v>
       </c>
-      <c r="O13" s="232"/>
-      <c r="P13" s="232"/>
-      <c r="Q13" s="232"/>
-      <c r="R13" s="232"/>
-      <c r="S13" s="232"/>
-      <c r="T13" s="232"/>
-      <c r="U13" s="232"/>
-      <c r="V13" s="232"/>
-      <c r="W13" s="232"/>
-      <c r="X13" s="232"/>
-      <c r="Y13" s="232"/>
-      <c r="Z13" s="232"/>
-      <c r="AA13" s="232"/>
-      <c r="AB13" s="232"/>
-      <c r="AC13" s="233"/>
+      <c r="O13" s="241"/>
+      <c r="P13" s="241"/>
+      <c r="Q13" s="241"/>
+      <c r="R13" s="241"/>
+      <c r="S13" s="241"/>
+      <c r="T13" s="241"/>
+      <c r="U13" s="241"/>
+      <c r="V13" s="241"/>
+      <c r="W13" s="241"/>
+      <c r="X13" s="241"/>
+      <c r="Y13" s="241"/>
+      <c r="Z13" s="241"/>
+      <c r="AA13" s="241"/>
+      <c r="AB13" s="241"/>
+      <c r="AC13" s="242"/>
       <c r="AD13" s="31"/>
       <c r="AE13" s="31"/>
       <c r="AF13" s="31"/>
@@ -16590,15 +16594,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="236"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="245"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -17011,43 +17015,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="237" t="s">
+      <c r="B1" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="237" t="s">
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="238"/>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="238"/>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="238"/>
-      <c r="AG1" s="238"/>
-      <c r="AH1" s="239"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="247"/>
+      <c r="T1" s="247"/>
+      <c r="U1" s="247"/>
+      <c r="V1" s="247"/>
+      <c r="W1" s="247"/>
+      <c r="X1" s="247"/>
+      <c r="Y1" s="247"/>
+      <c r="Z1" s="247"/>
+      <c r="AA1" s="247"/>
+      <c r="AB1" s="247"/>
+      <c r="AC1" s="247"/>
+      <c r="AD1" s="247"/>
+      <c r="AE1" s="247"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="247"/>
+      <c r="AH1" s="248"/>
       <c r="AI1" s="20" t="s">
         <v>5</v>
       </c>
@@ -17080,39 +17084,39 @@
       <c r="BJ1" s="19"/>
     </row>
     <row r="2" spans="2:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="224"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="225"/>
-      <c r="M2" s="225"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="225"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="225"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="225"/>
-      <c r="AC2" s="225"/>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="225"/>
-      <c r="AF2" s="225"/>
-      <c r="AG2" s="225"/>
-      <c r="AH2" s="226"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="234"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="234"/>
+      <c r="Q2" s="234"/>
+      <c r="R2" s="234"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="234"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="234"/>
+      <c r="Z2" s="234"/>
+      <c r="AA2" s="234"/>
+      <c r="AB2" s="234"/>
+      <c r="AC2" s="234"/>
+      <c r="AD2" s="234"/>
+      <c r="AE2" s="234"/>
+      <c r="AF2" s="234"/>
+      <c r="AG2" s="234"/>
+      <c r="AH2" s="235"/>
       <c r="AI2" s="23" t="s">
         <v>3</v>
       </c>
@@ -17145,39 +17149,39 @@
       <c r="BJ2" s="19"/>
     </row>
     <row r="3" spans="2:62" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="227"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228"/>
-      <c r="O3" s="228"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="228"/>
-      <c r="AA3" s="228"/>
-      <c r="AB3" s="228"/>
-      <c r="AC3" s="228"/>
-      <c r="AD3" s="228"/>
-      <c r="AE3" s="228"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="228"/>
-      <c r="AH3" s="229"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
+      <c r="Q3" s="237"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="237"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="237"/>
+      <c r="AC3" s="237"/>
+      <c r="AD3" s="237"/>
+      <c r="AE3" s="237"/>
+      <c r="AF3" s="237"/>
+      <c r="AG3" s="237"/>
+      <c r="AH3" s="238"/>
       <c r="AI3" s="25"/>
       <c r="AJ3" s="26"/>
       <c r="AK3" s="26"/>
@@ -17209,11 +17213,11 @@
       <c r="H4" s="76"/>
       <c r="I4" s="76"/>
       <c r="J4" s="77"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="241"/>
-      <c r="M4" s="241"/>
-      <c r="N4" s="241"/>
-      <c r="O4" s="242"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="250"/>
+      <c r="M4" s="250"/>
+      <c r="N4" s="250"/>
+      <c r="O4" s="251"/>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
@@ -17347,18 +17351,18 @@
       <c r="R7" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="S7" s="243"/>
-      <c r="T7" s="244"/>
-      <c r="U7" s="244"/>
-      <c r="V7" s="244"/>
-      <c r="W7" s="244"/>
-      <c r="X7" s="244"/>
-      <c r="Y7" s="244"/>
-      <c r="Z7" s="244"/>
-      <c r="AA7" s="244"/>
-      <c r="AB7" s="244"/>
-      <c r="AC7" s="244"/>
-      <c r="AD7" s="245"/>
+      <c r="S7" s="252"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="253"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="253"/>
+      <c r="Z7" s="253"/>
+      <c r="AA7" s="253"/>
+      <c r="AB7" s="253"/>
+      <c r="AC7" s="253"/>
+      <c r="AD7" s="254"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
@@ -17390,25 +17394,25 @@
       <c r="R8" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="S8" s="243"/>
-      <c r="T8" s="244"/>
-      <c r="U8" s="244"/>
-      <c r="V8" s="244"/>
-      <c r="W8" s="244"/>
-      <c r="X8" s="244"/>
-      <c r="Y8" s="244"/>
-      <c r="Z8" s="244"/>
-      <c r="AA8" s="244"/>
-      <c r="AB8" s="244"/>
-      <c r="AC8" s="244"/>
-      <c r="AD8" s="245"/>
+      <c r="S8" s="252"/>
+      <c r="T8" s="253"/>
+      <c r="U8" s="253"/>
+      <c r="V8" s="253"/>
+      <c r="W8" s="253"/>
+      <c r="X8" s="253"/>
+      <c r="Y8" s="253"/>
+      <c r="Z8" s="253"/>
+      <c r="AA8" s="253"/>
+      <c r="AB8" s="253"/>
+      <c r="AC8" s="253"/>
+      <c r="AD8" s="254"/>
       <c r="AE8" s="7"/>
-      <c r="AF8" s="246" t="s">
+      <c r="AF8" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="AG8" s="247"/>
-      <c r="AH8" s="247"/>
-      <c r="AI8" s="248"/>
+      <c r="AG8" s="256"/>
+      <c r="AH8" s="256"/>
+      <c r="AI8" s="257"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
@@ -18461,15 +18465,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="236"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="245"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -19004,17 +19008,17 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="249" t="s">
+      <c r="B3" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="251"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="260"/>
       <c r="K3" s="33" t="s">
         <v>6</v>
       </c>
@@ -19199,20 +19203,20 @@
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="252" t="s">
+      <c r="C15" s="261" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="253"/>
+      <c r="D15" s="262"/>
       <c r="E15" s="186"/>
-      <c r="F15" s="254" t="s">
+      <c r="F15" s="263" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="255"/>
+      <c r="G15" s="264"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="252" t="s">
+      <c r="I15" s="261" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="253"/>
+      <c r="J15" s="262"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19435,15 +19439,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="236"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="245"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
@@ -20015,14 +20019,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="235"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -20060,12 +20064,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="224"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="226"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="235"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -20106,12 +20110,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="224"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="226"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="235"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -20148,12 +20152,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="224"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="226"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="235"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>174</v>
@@ -20294,36 +20298,36 @@
       <c r="I7" s="8"/>
       <c r="J7" s="86"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="259" t="s">
+      <c r="L7" s="268" t="s">
         <v>169</v>
       </c>
-      <c r="M7" s="259"/>
-      <c r="N7" s="259"/>
-      <c r="O7" s="259"/>
-      <c r="P7" s="259"/>
-      <c r="Q7" s="259"/>
-      <c r="R7" s="259"/>
-      <c r="S7" s="259"/>
-      <c r="T7" s="259"/>
-      <c r="U7" s="259"/>
-      <c r="V7" s="259"/>
-      <c r="W7" s="259"/>
-      <c r="X7" s="259"/>
-      <c r="Y7" s="259"/>
-      <c r="Z7" s="259"/>
-      <c r="AA7" s="259"/>
-      <c r="AB7" s="259"/>
-      <c r="AC7" s="259"/>
-      <c r="AD7" s="259"/>
-      <c r="AE7" s="259"/>
-      <c r="AF7" s="259"/>
-      <c r="AG7" s="259"/>
-      <c r="AH7" s="259"/>
-      <c r="AI7" s="259"/>
-      <c r="AJ7" s="259"/>
-      <c r="AK7" s="259"/>
-      <c r="AL7" s="259"/>
-      <c r="AM7" s="259"/>
+      <c r="M7" s="268"/>
+      <c r="N7" s="268"/>
+      <c r="O7" s="268"/>
+      <c r="P7" s="268"/>
+      <c r="Q7" s="268"/>
+      <c r="R7" s="268"/>
+      <c r="S7" s="268"/>
+      <c r="T7" s="268"/>
+      <c r="U7" s="268"/>
+      <c r="V7" s="268"/>
+      <c r="W7" s="268"/>
+      <c r="X7" s="268"/>
+      <c r="Y7" s="268"/>
+      <c r="Z7" s="268"/>
+      <c r="AA7" s="268"/>
+      <c r="AB7" s="268"/>
+      <c r="AC7" s="268"/>
+      <c r="AD7" s="268"/>
+      <c r="AE7" s="268"/>
+      <c r="AF7" s="268"/>
+      <c r="AG7" s="268"/>
+      <c r="AH7" s="268"/>
+      <c r="AI7" s="268"/>
+      <c r="AJ7" s="268"/>
+      <c r="AK7" s="268"/>
+      <c r="AL7" s="268"/>
+      <c r="AM7" s="268"/>
       <c r="AN7" s="8"/>
       <c r="AO7" s="12"/>
     </row>
@@ -20345,23 +20349,23 @@
       <c r="N8" s="197" t="s">
         <v>167</v>
       </c>
-      <c r="O8" s="260"/>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="261"/>
-      <c r="R8" s="261"/>
-      <c r="S8" s="261"/>
-      <c r="T8" s="261"/>
-      <c r="U8" s="261"/>
-      <c r="V8" s="261"/>
-      <c r="W8" s="261"/>
-      <c r="X8" s="261"/>
-      <c r="Y8" s="261"/>
-      <c r="Z8" s="261"/>
-      <c r="AA8" s="261"/>
-      <c r="AB8" s="261"/>
-      <c r="AC8" s="261"/>
-      <c r="AD8" s="261"/>
-      <c r="AE8" s="262"/>
+      <c r="O8" s="269"/>
+      <c r="P8" s="270"/>
+      <c r="Q8" s="270"/>
+      <c r="R8" s="270"/>
+      <c r="S8" s="270"/>
+      <c r="T8" s="270"/>
+      <c r="U8" s="270"/>
+      <c r="V8" s="270"/>
+      <c r="W8" s="270"/>
+      <c r="X8" s="270"/>
+      <c r="Y8" s="270"/>
+      <c r="Z8" s="270"/>
+      <c r="AA8" s="270"/>
+      <c r="AB8" s="270"/>
+      <c r="AC8" s="270"/>
+      <c r="AD8" s="270"/>
+      <c r="AE8" s="271"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
@@ -20416,21 +20420,21 @@
       <c r="N10" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="260"/>
-      <c r="P10" s="261"/>
-      <c r="Q10" s="261"/>
-      <c r="R10" s="261"/>
-      <c r="S10" s="262"/>
+      <c r="O10" s="269"/>
+      <c r="P10" s="270"/>
+      <c r="Q10" s="270"/>
+      <c r="R10" s="270"/>
+      <c r="S10" s="271"/>
       <c r="X10" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="260"/>
-      <c r="Z10" s="261"/>
-      <c r="AA10" s="261"/>
-      <c r="AB10" s="261"/>
-      <c r="AC10" s="261"/>
-      <c r="AD10" s="261"/>
-      <c r="AE10" s="262"/>
+      <c r="Y10" s="269"/>
+      <c r="Z10" s="270"/>
+      <c r="AA10" s="270"/>
+      <c r="AB10" s="270"/>
+      <c r="AC10" s="270"/>
+      <c r="AD10" s="270"/>
+      <c r="AE10" s="271"/>
       <c r="AN10" s="8"/>
       <c r="AO10" s="12"/>
     </row>
@@ -20465,11 +20469,11 @@
         <v>56</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="263">
+      <c r="N12" s="272">
         <v>10</v>
       </c>
-      <c r="O12" s="264"/>
-      <c r="P12" s="265"/>
+      <c r="O12" s="273"/>
+      <c r="P12" s="274"/>
       <c r="Q12" s="78" t="s">
         <v>186</v>
       </c>
@@ -20962,15 +20966,15 @@
     </row>
     <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
-      <c r="C23" s="256" t="s">
+      <c r="C23" s="265" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="256"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
+      <c r="D23" s="265"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="265"/>
+      <c r="G23" s="265"/>
+      <c r="H23" s="265"/>
+      <c r="I23" s="265"/>
       <c r="J23" s="104"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -21006,15 +21010,15 @@
     </row>
     <row r="24" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
-      <c r="C24" s="257" t="s">
+      <c r="C24" s="266" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="257"/>
-      <c r="E24" s="257"/>
-      <c r="F24" s="257"/>
-      <c r="G24" s="257"/>
-      <c r="H24" s="257"/>
-      <c r="I24" s="257"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="266"/>
+      <c r="F24" s="266"/>
+      <c r="G24" s="266"/>
+      <c r="H24" s="266"/>
+      <c r="I24" s="266"/>
       <c r="J24" s="87"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -21050,15 +21054,15 @@
     </row>
     <row r="25" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="74"/>
-      <c r="C25" s="257" t="s">
+      <c r="C25" s="266" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="258"/>
-      <c r="E25" s="258"/>
-      <c r="F25" s="258"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="258"/>
-      <c r="I25" s="258"/>
+      <c r="D25" s="267"/>
+      <c r="E25" s="267"/>
+      <c r="F25" s="267"/>
+      <c r="G25" s="267"/>
+      <c r="H25" s="267"/>
+      <c r="I25" s="267"/>
       <c r="J25" s="87"/>
       <c r="K25" s="31"/>
       <c r="L25" s="31"/>
@@ -21939,15 +21943,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="236"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="245"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
